--- a/BackTest/2019-10-10 BackTest ETC.xlsx
+++ b/BackTest/2019-10-10 BackTest ETC.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>110</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>70</v>
+      </c>
       <c r="L12" t="n">
         <v>6063.5</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>110</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>68.42105263157895</v>
+      </c>
       <c r="L13" t="n">
         <v>6070.5</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>110</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>88.23529411764706</v>
+      </c>
       <c r="L14" t="n">
         <v>6077</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>125</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>86.66666666666667</v>
+      </c>
       <c r="L15" t="n">
         <v>6086</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>140</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>88.88888888888889</v>
+      </c>
       <c r="L16" t="n">
         <v>6094</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>145</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>84.61538461538461</v>
+      </c>
       <c r="L17" t="n">
         <v>6102.5</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>155</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>53.84615384615385</v>
+      </c>
       <c r="L18" t="n">
         <v>6107</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>160</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>57.14285714285714</v>
+      </c>
       <c r="L19" t="n">
         <v>6111</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>165</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>71.42857142857143</v>
+      </c>
       <c r="L20" t="n">
         <v>6115.5</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>170</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>50</v>
+      </c>
       <c r="L21" t="n">
         <v>6120</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>175</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>38.46153846153847</v>
+      </c>
       <c r="L22" t="n">
         <v>6122.5</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>180</v>
       </c>
       <c r="K23" t="n">
-        <v>52.94117647058824</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L23" t="n">
         <v>6124.5</v>
@@ -1466,7 +1488,7 @@
         <v>190</v>
       </c>
       <c r="K24" t="n">
-        <v>42.85714285714285</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L24" t="n">
         <v>6125.5</v>
@@ -1515,7 +1537,7 @@
         <v>205</v>
       </c>
       <c r="K25" t="n">
-        <v>38.88888888888889</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L25" t="n">
         <v>6123.5</v>
@@ -1564,7 +1586,7 @@
         <v>220</v>
       </c>
       <c r="K26" t="n">
-        <v>35.29411764705883</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L26" t="n">
         <v>6121.5</v>
@@ -1613,7 +1635,7 @@
         <v>235</v>
       </c>
       <c r="K27" t="n">
-        <v>24.32432432432433</v>
+        <v>-37.5</v>
       </c>
       <c r="L27" t="n">
         <v>6117.5</v>
@@ -1662,7 +1684,7 @@
         <v>245</v>
       </c>
       <c r="K28" t="n">
-        <v>15.15151515151515</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L28" t="n">
         <v>6115.5</v>
@@ -1711,7 +1733,7 @@
         <v>255</v>
       </c>
       <c r="K29" t="n">
-        <v>3.03030303030303</v>
+        <v>-44.44444444444444</v>
       </c>
       <c r="L29" t="n">
         <v>6112</v>
@@ -1760,7 +1782,7 @@
         <v>255</v>
       </c>
       <c r="K30" t="n">
-        <v>3.03030303030303</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L30" t="n">
         <v>6108</v>
@@ -1809,7 +1831,7 @@
         <v>270</v>
       </c>
       <c r="K31" t="n">
-        <v>14.28571428571428</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L31" t="n">
         <v>6106</v>
@@ -1860,7 +1882,7 @@
         <v>275</v>
       </c>
       <c r="K32" t="n">
-        <v>3.03030303030303</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L32" t="n">
         <v>6104</v>
@@ -1911,7 +1933,7 @@
         <v>280</v>
       </c>
       <c r="K33" t="n">
-        <v>5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>6103</v>
@@ -1962,7 +1984,7 @@
         <v>285</v>
       </c>
       <c r="K34" t="n">
-        <v>2.857142857142857</v>
+        <v>12.5</v>
       </c>
       <c r="L34" t="n">
         <v>6102.5</v>
@@ -2013,7 +2035,7 @@
         <v>285</v>
       </c>
       <c r="K35" t="n">
-        <v>-6.25</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L35" t="n">
         <v>6103.5</v>
@@ -2064,7 +2086,7 @@
         <v>300</v>
       </c>
       <c r="K36" t="n">
-        <v>-25</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L36" t="n">
         <v>6101.5</v>
@@ -2115,7 +2137,7 @@
         <v>310</v>
       </c>
       <c r="K37" t="n">
-        <v>-33.33333333333333</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L37" t="n">
         <v>6100</v>
@@ -2166,7 +2188,7 @@
         <v>310</v>
       </c>
       <c r="K38" t="n">
-        <v>-29.03225806451613</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L38" t="n">
         <v>6097.5</v>
@@ -2217,7 +2239,7 @@
         <v>315</v>
       </c>
       <c r="K39" t="n">
-        <v>-35.48387096774194</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L39" t="n">
         <v>6095.5</v>
@@ -2268,7 +2290,7 @@
         <v>315</v>
       </c>
       <c r="K40" t="n">
-        <v>-40</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L40" t="n">
         <v>6093.5</v>
@@ -2319,7 +2341,7 @@
         <v>320</v>
       </c>
       <c r="K41" t="n">
-        <v>-40</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L41" t="n">
         <v>6089.5</v>
@@ -2370,7 +2392,7 @@
         <v>325</v>
       </c>
       <c r="K42" t="n">
-        <v>-33.33333333333333</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L42" t="n">
         <v>6086.5</v>
@@ -2421,7 +2443,7 @@
         <v>325</v>
       </c>
       <c r="K43" t="n">
-        <v>-31.03448275862069</v>
+        <v>-75</v>
       </c>
       <c r="L43" t="n">
         <v>6083</v>
@@ -2472,7 +2494,7 @@
         <v>330</v>
       </c>
       <c r="K44" t="n">
-        <v>-21.42857142857143</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L44" t="n">
         <v>6080.5</v>
@@ -2523,7 +2545,7 @@
         <v>330</v>
       </c>
       <c r="K45" t="n">
-        <v>-12</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L45" t="n">
         <v>6078</v>
@@ -2574,7 +2596,7 @@
         <v>340</v>
       </c>
       <c r="K46" t="n">
-        <v>-16.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L46" t="n">
         <v>6078</v>
@@ -2625,7 +2647,7 @@
         <v>350</v>
       </c>
       <c r="K47" t="n">
-        <v>-13.04347826086956</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
         <v>6078</v>
@@ -2676,7 +2698,7 @@
         <v>355</v>
       </c>
       <c r="K48" t="n">
-        <v>-27.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>6077.5</v>
@@ -2727,7 +2749,7 @@
         <v>360</v>
       </c>
       <c r="K49" t="n">
-        <v>-14.28571428571428</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L49" t="n">
         <v>6078</v>
@@ -2778,7 +2800,7 @@
         <v>365</v>
       </c>
       <c r="K50" t="n">
-        <v>-18.18181818181818</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L50" t="n">
         <v>6078</v>
@@ -2829,7 +2851,7 @@
         <v>365</v>
       </c>
       <c r="K51" t="n">
-        <v>-36.84210526315789</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
         <v>6078.5</v>
@@ -2880,7 +2902,7 @@
         <v>365</v>
       </c>
       <c r="K52" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
         <v>6078.5</v>
@@ -2931,7 +2953,7 @@
         <v>370</v>
       </c>
       <c r="K53" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
         <v>6079</v>
@@ -2982,7 +3004,7 @@
         <v>375</v>
       </c>
       <c r="K54" t="n">
-        <v>-33.33333333333333</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L54" t="n">
         <v>6078.5</v>
@@ -3033,7 +3055,7 @@
         <v>375</v>
       </c>
       <c r="K55" t="n">
-        <v>-33.33333333333333</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L55" t="n">
         <v>6078</v>
@@ -3084,7 +3106,7 @@
         <v>385</v>
       </c>
       <c r="K56" t="n">
-        <v>-29.41176470588236</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L56" t="n">
         <v>6075.5</v>
@@ -3135,7 +3157,7 @@
         <v>390</v>
       </c>
       <c r="K57" t="n">
-        <v>-12.5</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L57" t="n">
         <v>6074.5</v>
@@ -3186,7 +3208,7 @@
         <v>395</v>
       </c>
       <c r="K58" t="n">
-        <v>-5.88235294117647</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L58" t="n">
         <v>6074.5</v>
@@ -3237,7 +3259,7 @@
         <v>400</v>
       </c>
       <c r="K59" t="n">
-        <v>-5.88235294117647</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L59" t="n">
         <v>6073.5</v>
@@ -3288,7 +3310,7 @@
         <v>420</v>
       </c>
       <c r="K60" t="n">
-        <v>14.28571428571428</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L60" t="n">
         <v>6075</v>
@@ -3339,7 +3361,7 @@
         <v>440</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L61" t="n">
         <v>6074.5</v>
@@ -3390,7 +3412,7 @@
         <v>440</v>
       </c>
       <c r="K62" t="n">
-        <v>-4.347826086956522</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L62" t="n">
         <v>6074</v>
@@ -3441,7 +3463,7 @@
         <v>440</v>
       </c>
       <c r="K63" t="n">
-        <v>-4.347826086956522</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L63" t="n">
         <v>6073</v>
@@ -3492,7 +3514,7 @@
         <v>440</v>
       </c>
       <c r="K64" t="n">
-        <v>-9.090909090909092</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L64" t="n">
         <v>6072.5</v>
@@ -3543,7 +3565,7 @@
         <v>445</v>
       </c>
       <c r="K65" t="n">
-        <v>-4.347826086956522</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L65" t="n">
         <v>6072.5</v>
@@ -3594,7 +3616,7 @@
         <v>445</v>
       </c>
       <c r="K66" t="n">
-        <v>-14.28571428571428</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L66" t="n">
         <v>6073.5</v>
@@ -3645,7 +3667,7 @@
         <v>450</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L67" t="n">
         <v>6074.5</v>
@@ -3696,7 +3718,7 @@
         <v>450</v>
       </c>
       <c r="K68" t="n">
-        <v>5.263157894736842</v>
+        <v>20</v>
       </c>
       <c r="L68" t="n">
         <v>6075</v>
@@ -3747,7 +3769,7 @@
         <v>455</v>
       </c>
       <c r="K69" t="n">
-        <v>5.263157894736842</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L69" t="n">
         <v>6076.5</v>
@@ -3798,7 +3820,7 @@
         <v>465</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L70" t="n">
         <v>6075</v>
@@ -3849,7 +3871,7 @@
         <v>470</v>
       </c>
       <c r="K71" t="n">
-        <v>-4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L71" t="n">
         <v>6075</v>
@@ -3900,7 +3922,7 @@
         <v>470</v>
       </c>
       <c r="K72" t="n">
-        <v>-4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L72" t="n">
         <v>6075</v>
@@ -3951,7 +3973,7 @@
         <v>470</v>
       </c>
       <c r="K73" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
         <v>6075</v>
@@ -4002,7 +4024,7 @@
         <v>470</v>
       </c>
       <c r="K74" t="n">
-        <v>-5.263157894736842</v>
+        <v>-20</v>
       </c>
       <c r="L74" t="n">
         <v>6075</v>
@@ -4053,7 +4075,7 @@
         <v>470</v>
       </c>
       <c r="K75" t="n">
-        <v>-5.263157894736842</v>
+        <v>-20</v>
       </c>
       <c r="L75" t="n">
         <v>6074.5</v>
@@ -4104,7 +4126,7 @@
         <v>470</v>
       </c>
       <c r="K76" t="n">
-        <v>5.88235294117647</v>
+        <v>-50</v>
       </c>
       <c r="L76" t="n">
         <v>6074</v>
@@ -4155,7 +4177,7 @@
         <v>470</v>
       </c>
       <c r="K77" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L77" t="n">
         <v>6073</v>
@@ -4206,7 +4228,7 @@
         <v>485</v>
       </c>
       <c r="K78" t="n">
-        <v>-22.22222222222222</v>
+        <v>-100</v>
       </c>
       <c r="L78" t="n">
         <v>6070.5</v>
@@ -4257,7 +4279,7 @@
         <v>495</v>
       </c>
       <c r="K79" t="n">
-        <v>-26.31578947368421</v>
+        <v>-100</v>
       </c>
       <c r="L79" t="n">
         <v>6066.5</v>
@@ -4308,7 +4330,7 @@
         <v>495</v>
       </c>
       <c r="K80" t="n">
-        <v>-60</v>
+        <v>-100</v>
       </c>
       <c r="L80" t="n">
         <v>6063.5</v>
@@ -4359,7 +4381,7 @@
         <v>510</v>
       </c>
       <c r="K81" t="n">
-        <v>-14.28571428571428</v>
+        <v>-25</v>
       </c>
       <c r="L81" t="n">
         <v>6062.5</v>
@@ -4410,7 +4432,7 @@
         <v>530</v>
       </c>
       <c r="K82" t="n">
-        <v>11.11111111111111</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L82" t="n">
         <v>6063.5</v>
@@ -4461,7 +4483,7 @@
         <v>565</v>
       </c>
       <c r="K83" t="n">
-        <v>36</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="L83" t="n">
         <v>6068</v>
@@ -4512,7 +4534,7 @@
         <v>590</v>
       </c>
       <c r="K84" t="n">
-        <v>13.33333333333333</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L84" t="n">
         <v>6070</v>
@@ -4563,7 +4585,7 @@
         <v>590</v>
       </c>
       <c r="K85" t="n">
-        <v>10.3448275862069</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L85" t="n">
         <v>6072</v>
@@ -4614,7 +4636,7 @@
         <v>605</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="L86" t="n">
         <v>6072.5</v>
@@ -4665,7 +4687,7 @@
         <v>630</v>
       </c>
       <c r="K87" t="n">
-        <v>11.11111111111111</v>
+        <v>31.03448275862069</v>
       </c>
       <c r="L87" t="n">
         <v>6075.5</v>
@@ -4716,7 +4738,7 @@
         <v>655</v>
       </c>
       <c r="K88" t="n">
-        <v>-2.439024390243902</v>
+        <v>18.75</v>
       </c>
       <c r="L88" t="n">
         <v>6077.5</v>
@@ -4767,7 +4789,7 @@
         <v>660</v>
       </c>
       <c r="K89" t="n">
-        <v>-2.439024390243902</v>
+        <v>21.21212121212121</v>
       </c>
       <c r="L89" t="n">
         <v>6081</v>
@@ -4818,7 +4840,7 @@
         <v>680</v>
       </c>
       <c r="K90" t="n">
-        <v>11.62790697674419</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="L90" t="n">
         <v>6086.5</v>
@@ -4869,7 +4891,7 @@
         <v>695</v>
       </c>
       <c r="K91" t="n">
-        <v>20</v>
+        <v>21.21212121212121</v>
       </c>
       <c r="L91" t="n">
         <v>6092</v>
@@ -4920,7 +4942,7 @@
         <v>735</v>
       </c>
       <c r="K92" t="n">
-        <v>1.886792452830189</v>
+        <v>-23.52941176470588</v>
       </c>
       <c r="L92" t="n">
         <v>6091.5</v>
@@ -4971,7 +4993,7 @@
         <v>745</v>
       </c>
       <c r="K93" t="n">
-        <v>5.454545454545454</v>
+        <v>-3.225806451612903</v>
       </c>
       <c r="L93" t="n">
         <v>6088.5</v>
@@ -5022,7 +5044,7 @@
         <v>760</v>
       </c>
       <c r="K94" t="n">
-        <v>10.3448275862069</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L94" t="n">
         <v>6089.5</v>
@@ -5073,7 +5095,7 @@
         <v>775</v>
       </c>
       <c r="K95" t="n">
-        <v>14.75409836065574</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="L95" t="n">
         <v>6092</v>
@@ -5124,7 +5146,7 @@
         <v>775</v>
       </c>
       <c r="K96" t="n">
-        <v>14.75409836065574</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="L96" t="n">
         <v>6096</v>
@@ -5175,7 +5197,7 @@
         <v>795</v>
       </c>
       <c r="K97" t="n">
-        <v>7.692307692307693</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L97" t="n">
         <v>6095.5</v>
@@ -5277,7 +5299,7 @@
         <v>805</v>
       </c>
       <c r="K99" t="n">
-        <v>19.35483870967742</v>
+        <v>4</v>
       </c>
       <c r="L99" t="n">
         <v>6100.5</v>
@@ -5328,7 +5350,7 @@
         <v>805</v>
       </c>
       <c r="K100" t="n">
-        <v>19.35483870967742</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L100" t="n">
         <v>6101</v>
@@ -5379,7 +5401,7 @@
         <v>805</v>
       </c>
       <c r="K101" t="n">
-        <v>15.25423728813559</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L101" t="n">
         <v>6100</v>
@@ -5430,7 +5452,7 @@
         <v>810</v>
       </c>
       <c r="K102" t="n">
-        <v>7.142857142857142</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L102" t="n">
         <v>6102.5</v>
@@ -5481,7 +5503,7 @@
         <v>820</v>
       </c>
       <c r="K103" t="n">
-        <v>-9.803921568627452</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L103" t="n">
         <v>6103</v>
@@ -5532,7 +5554,7 @@
         <v>830</v>
       </c>
       <c r="K104" t="n">
-        <v>4.166666666666666</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L104" t="n">
         <v>6103</v>
@@ -5583,7 +5605,7 @@
         <v>830</v>
       </c>
       <c r="K105" t="n">
-        <v>4.166666666666666</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L105" t="n">
         <v>6101.5</v>
@@ -5634,7 +5656,7 @@
         <v>835</v>
       </c>
       <c r="K106" t="n">
-        <v>13.04347826086956</v>
+        <v>25</v>
       </c>
       <c r="L106" t="n">
         <v>6100.5</v>
@@ -5685,7 +5707,7 @@
         <v>845</v>
       </c>
       <c r="K107" t="n">
-        <v>6.976744186046512</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L107" t="n">
         <v>6102.5</v>
@@ -5736,7 +5758,7 @@
         <v>855</v>
       </c>
       <c r="K108" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L108" t="n">
         <v>6103</v>
@@ -5787,7 +5809,7 @@
         <v>865</v>
       </c>
       <c r="K109" t="n">
-        <v>7.317073170731707</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L109" t="n">
         <v>6102</v>
@@ -5838,7 +5860,7 @@
         <v>870</v>
       </c>
       <c r="K110" t="n">
-        <v>-5.263157894736842</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L110" t="n">
         <v>6100.5</v>
@@ -5889,7 +5911,7 @@
         <v>885</v>
       </c>
       <c r="K111" t="n">
-        <v>-21.05263157894737</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L111" t="n">
         <v>6097.5</v>
@@ -5940,7 +5962,7 @@
         <v>900</v>
       </c>
       <c r="K112" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L112" t="n">
         <v>6096.5</v>
@@ -5991,7 +6013,7 @@
         <v>910</v>
       </c>
       <c r="K113" t="n">
-        <v>-3.03030303030303</v>
+        <v>-25</v>
       </c>
       <c r="L113" t="n">
         <v>6095.5</v>
@@ -6042,7 +6064,7 @@
         <v>915</v>
       </c>
       <c r="K114" t="n">
-        <v>-9.67741935483871</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L114" t="n">
         <v>6094</v>
@@ -6093,7 +6115,7 @@
         <v>920</v>
       </c>
       <c r="K115" t="n">
-        <v>-24.13793103448276</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L115" t="n">
         <v>6092</v>
@@ -6144,7 +6166,7 @@
         <v>920</v>
       </c>
       <c r="K116" t="n">
-        <v>-24.13793103448276</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L116" t="n">
         <v>6089.5</v>
@@ -6195,7 +6217,7 @@
         <v>930</v>
       </c>
       <c r="K117" t="n">
-        <v>-3.703703703703703</v>
+        <v>-20</v>
       </c>
       <c r="L117" t="n">
         <v>6087</v>
@@ -6297,7 +6319,7 @@
         <v>935</v>
       </c>
       <c r="K119" t="n">
-        <v>-15.38461538461539</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L119" t="n">
         <v>6084.5</v>
@@ -6348,7 +6370,7 @@
         <v>940</v>
       </c>
       <c r="K120" t="n">
-        <v>-11.11111111111111</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L120" t="n">
         <v>6084.5</v>
@@ -6399,7 +6421,7 @@
         <v>940</v>
       </c>
       <c r="K121" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L121" t="n">
         <v>6086</v>
@@ -6450,7 +6472,7 @@
         <v>945</v>
       </c>
       <c r="K122" t="n">
-        <v>-3.703703703703703</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L122" t="n">
         <v>6086.5</v>
@@ -6501,7 +6523,7 @@
         <v>945</v>
       </c>
       <c r="K123" t="n">
-        <v>4</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L123" t="n">
         <v>6088</v>
@@ -6552,7 +6574,7 @@
         <v>945</v>
       </c>
       <c r="K124" t="n">
-        <v>-4.347826086956522</v>
+        <v>60</v>
       </c>
       <c r="L124" t="n">
         <v>6089</v>
@@ -6603,7 +6625,7 @@
         <v>945</v>
       </c>
       <c r="K125" t="n">
-        <v>-4.347826086956522</v>
+        <v>60</v>
       </c>
       <c r="L125" t="n">
         <v>6090.5</v>
@@ -6654,7 +6676,7 @@
         <v>945</v>
       </c>
       <c r="K126" t="n">
-        <v>-9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L126" t="n">
         <v>6092</v>
@@ -6705,7 +6727,7 @@
         <v>960</v>
       </c>
       <c r="K127" t="n">
-        <v>-4.347826086956522</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L127" t="n">
         <v>6094</v>
@@ -6756,7 +6778,7 @@
         <v>970</v>
       </c>
       <c r="K128" t="n">
-        <v>-4.347826086956522</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L128" t="n">
         <v>6095</v>
@@ -6807,7 +6829,7 @@
         <v>970</v>
       </c>
       <c r="K129" t="n">
-        <v>4.761904761904762</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L129" t="n">
         <v>6096.5</v>
@@ -6858,7 +6880,7 @@
         <v>970</v>
       </c>
       <c r="K130" t="n">
-        <v>10</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L130" t="n">
         <v>6097.5</v>
@@ -6909,7 +6931,7 @@
         <v>980</v>
       </c>
       <c r="K131" t="n">
-        <v>36.84210526315789</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L131" t="n">
         <v>6099.5</v>
@@ -7011,7 +7033,7 @@
         <v>990</v>
       </c>
       <c r="K133" t="n">
-        <v>25</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L133" t="n">
         <v>6100.5</v>
@@ -7062,7 +7084,7 @@
         <v>990</v>
       </c>
       <c r="K134" t="n">
-        <v>20</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L134" t="n">
         <v>6101</v>
@@ -7113,7 +7135,7 @@
         <v>1005</v>
       </c>
       <c r="K135" t="n">
-        <v>41.17647058823529</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L135" t="n">
         <v>6103</v>
@@ -7164,7 +7186,7 @@
         <v>1010</v>
       </c>
       <c r="K136" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L136" t="n">
         <v>6104.5</v>
@@ -7215,7 +7237,7 @@
         <v>1020</v>
       </c>
       <c r="K137" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L137" t="n">
         <v>6103.5</v>
@@ -7266,7 +7288,7 @@
         <v>1030</v>
       </c>
       <c r="K138" t="n">
-        <v>0</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L138" t="n">
         <v>6102.5</v>
@@ -7317,7 +7339,7 @@
         <v>1030</v>
       </c>
       <c r="K139" t="n">
-        <v>5.263157894736842</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L139" t="n">
         <v>6101.5</v>
@@ -7368,7 +7390,7 @@
         <v>1030</v>
       </c>
       <c r="K140" t="n">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="L140" t="n">
         <v>6100.5</v>
@@ -7419,7 +7441,7 @@
         <v>1055</v>
       </c>
       <c r="K141" t="n">
-        <v>-21.73913043478261</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L141" t="n">
         <v>6096</v>
@@ -7470,7 +7492,7 @@
         <v>1080</v>
       </c>
       <c r="K142" t="n">
-        <v>-3.703703703703703</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L142" t="n">
         <v>6095</v>
@@ -7521,7 +7543,7 @@
         <v>1085</v>
       </c>
       <c r="K143" t="n">
-        <v>-7.142857142857142</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L143" t="n">
         <v>6093.5</v>
@@ -7572,7 +7594,7 @@
         <v>1085</v>
       </c>
       <c r="K144" t="n">
-        <v>-7.142857142857142</v>
+        <v>-37.5</v>
       </c>
       <c r="L144" t="n">
         <v>6092</v>
@@ -7623,7 +7645,7 @@
         <v>1085</v>
       </c>
       <c r="K145" t="n">
-        <v>-7.142857142857142</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L145" t="n">
         <v>6089</v>
@@ -7674,7 +7696,7 @@
         <v>1095</v>
       </c>
       <c r="K146" t="n">
-        <v>-13.33333333333333</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L146" t="n">
         <v>6085.5</v>
@@ -7725,7 +7747,7 @@
         <v>1105</v>
       </c>
       <c r="K147" t="n">
-        <v>-31.03448275862069</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L147" t="n">
         <v>6082</v>
@@ -7776,7 +7798,7 @@
         <v>1105</v>
       </c>
       <c r="K148" t="n">
-        <v>-25.92592592592592</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L148" t="n">
         <v>6079.5</v>
@@ -7827,7 +7849,7 @@
         <v>1105</v>
       </c>
       <c r="K149" t="n">
-        <v>-25.92592592592592</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L149" t="n">
         <v>6077</v>
@@ -7878,7 +7900,7 @@
         <v>1110</v>
       </c>
       <c r="K150" t="n">
-        <v>-21.42857142857143</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L150" t="n">
         <v>6075</v>
@@ -7929,7 +7951,7 @@
         <v>1135</v>
       </c>
       <c r="K151" t="n">
-        <v>-41.93548387096774</v>
+        <v>-81.81818181818183</v>
       </c>
       <c r="L151" t="n">
         <v>6073</v>
@@ -7980,7 +8002,7 @@
         <v>1140</v>
       </c>
       <c r="K152" t="n">
-        <v>-33.33333333333333</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L152" t="n">
         <v>6069</v>
@@ -8031,7 +8053,7 @@
         <v>1140</v>
       </c>
       <c r="K153" t="n">
-        <v>-33.33333333333333</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L153" t="n">
         <v>6065.5</v>
@@ -8082,7 +8104,7 @@
         <v>1145</v>
       </c>
       <c r="K154" t="n">
-        <v>-29.03225806451613</v>
+        <v>-50</v>
       </c>
       <c r="L154" t="n">
         <v>6062.5</v>
@@ -8133,7 +8155,7 @@
         <v>1175</v>
       </c>
       <c r="K155" t="n">
-        <v>-52.94117647058824</v>
+        <v>-62.5</v>
       </c>
       <c r="L155" t="n">
         <v>6056.5</v>
@@ -8184,7 +8206,7 @@
         <v>1190</v>
       </c>
       <c r="K156" t="n">
-        <v>-38.88888888888889</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L156" t="n">
         <v>6053</v>
@@ -8235,7 +8257,7 @@
         <v>1195</v>
       </c>
       <c r="K157" t="n">
-        <v>-31.42857142857143</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L157" t="n">
         <v>6051</v>
@@ -8286,7 +8308,7 @@
         <v>1205</v>
       </c>
       <c r="K158" t="n">
-        <v>-31.42857142857143</v>
+        <v>-30</v>
       </c>
       <c r="L158" t="n">
         <v>6048</v>
@@ -8337,7 +8359,7 @@
         <v>1205</v>
       </c>
       <c r="K159" t="n">
-        <v>-31.42857142857143</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L159" t="n">
         <v>6045</v>
@@ -8388,7 +8410,7 @@
         <v>1220</v>
       </c>
       <c r="K160" t="n">
-        <v>-36.84210526315789</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L160" t="n">
         <v>6040</v>
@@ -8439,7 +8461,7 @@
         <v>1225</v>
       </c>
       <c r="K161" t="n">
-        <v>-23.52941176470588</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L161" t="n">
         <v>6038</v>
@@ -8490,7 +8512,7 @@
         <v>1225</v>
       </c>
       <c r="K162" t="n">
-        <v>-44.82758620689656</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L162" t="n">
         <v>6035.5</v>
@@ -8541,7 +8563,7 @@
         <v>1240</v>
       </c>
       <c r="K163" t="n">
-        <v>-29.03225806451613</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L163" t="n">
         <v>6034.5</v>
@@ -8592,7 +8614,7 @@
         <v>1245</v>
       </c>
       <c r="K164" t="n">
-        <v>-31.25</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L164" t="n">
         <v>6032.5</v>
@@ -8643,7 +8665,7 @@
         <v>1255</v>
       </c>
       <c r="K165" t="n">
-        <v>-35.29411764705883</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L165" t="n">
         <v>6032.5</v>
@@ -8694,7 +8716,7 @@
         <v>1260</v>
       </c>
       <c r="K166" t="n">
-        <v>-33.33333333333333</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L166" t="n">
         <v>6030.5</v>
@@ -8745,7 +8767,7 @@
         <v>1265</v>
       </c>
       <c r="K167" t="n">
-        <v>-25</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L167" t="n">
         <v>6028.5</v>
@@ -8796,7 +8818,7 @@
         <v>1280</v>
       </c>
       <c r="K168" t="n">
-        <v>-31.42857142857143</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L168" t="n">
         <v>6026</v>
@@ -8847,7 +8869,7 @@
         <v>1300</v>
       </c>
       <c r="K169" t="n">
-        <v>-17.94871794871795</v>
+        <v>12.5</v>
       </c>
       <c r="L169" t="n">
         <v>6025.5</v>
@@ -8898,7 +8920,7 @@
         <v>1305</v>
       </c>
       <c r="K170" t="n">
-        <v>-17.94871794871795</v>
+        <v>12.5</v>
       </c>
       <c r="L170" t="n">
         <v>6027</v>
@@ -8949,7 +8971,7 @@
         <v>1320</v>
       </c>
       <c r="K171" t="n">
-        <v>-13.51351351351351</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L171" t="n">
         <v>6026.5</v>
@@ -9000,7 +9022,7 @@
         <v>1330</v>
       </c>
       <c r="K172" t="n">
-        <v>-10.52631578947368</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L172" t="n">
         <v>6027</v>
@@ -9051,7 +9073,7 @@
         <v>1345</v>
       </c>
       <c r="K173" t="n">
-        <v>-2.439024390243902</v>
+        <v>10</v>
       </c>
       <c r="L173" t="n">
         <v>6027.5</v>
@@ -9102,7 +9124,7 @@
         <v>1360</v>
       </c>
       <c r="K174" t="n">
-        <v>-11.62790697674419</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L174" t="n">
         <v>6027</v>
@@ -9153,7 +9175,7 @@
         <v>1370</v>
       </c>
       <c r="K175" t="n">
-        <v>-2.564102564102564</v>
+        <v>0</v>
       </c>
       <c r="L175" t="n">
         <v>6026.5</v>
@@ -9204,7 +9226,7 @@
         <v>1380</v>
       </c>
       <c r="K176" t="n">
-        <v>-5.263157894736842</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L176" t="n">
         <v>6027.5</v>
@@ -9255,7 +9277,7 @@
         <v>1390</v>
       </c>
       <c r="K177" t="n">
-        <v>-2.564102564102564</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L177" t="n">
         <v>6029</v>
@@ -9306,7 +9328,7 @@
         <v>1390</v>
       </c>
       <c r="K178" t="n">
-        <v>2.702702702702703</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L178" t="n">
         <v>6032</v>
@@ -9408,7 +9430,7 @@
         <v>1400</v>
       </c>
       <c r="K180" t="n">
-        <v>11.11111111111111</v>
+        <v>25</v>
       </c>
       <c r="L180" t="n">
         <v>6033</v>
@@ -9459,7 +9481,7 @@
         <v>1400</v>
       </c>
       <c r="K181" t="n">
-        <v>8.571428571428571</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L181" t="n">
         <v>6035</v>
@@ -9510,7 +9532,7 @@
         <v>1400</v>
       </c>
       <c r="K182" t="n">
-        <v>8.571428571428571</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L182" t="n">
         <v>6036</v>
@@ -9561,7 +9583,7 @@
         <v>1400</v>
       </c>
       <c r="K183" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L183" t="n">
         <v>6035.5</v>
@@ -9612,7 +9634,7 @@
         <v>1400</v>
       </c>
       <c r="K184" t="n">
-        <v>3.225806451612903</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L184" t="n">
         <v>6036.5</v>
@@ -9663,7 +9685,7 @@
         <v>1410</v>
       </c>
       <c r="K185" t="n">
-        <v>3.225806451612903</v>
+        <v>0</v>
       </c>
       <c r="L185" t="n">
         <v>6037.5</v>
@@ -9714,7 +9736,7 @@
         <v>1425</v>
       </c>
       <c r="K186" t="n">
-        <v>15.15151515151515</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L186" t="n">
         <v>6039</v>
@@ -9765,7 +9787,7 @@
         <v>1430</v>
       </c>
       <c r="K187" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L187" t="n">
         <v>6039</v>
@@ -9816,7 +9838,7 @@
         <v>1435</v>
       </c>
       <c r="K188" t="n">
-        <v>22.58064516129032</v>
+        <v>25</v>
       </c>
       <c r="L188" t="n">
         <v>6039.5</v>
@@ -9867,7 +9889,7 @@
         <v>1435</v>
       </c>
       <c r="K189" t="n">
-        <v>11.11111111111111</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L189" t="n">
         <v>6040.5</v>
@@ -9918,7 +9940,7 @@
         <v>1435</v>
       </c>
       <c r="K190" t="n">
-        <v>7.692307692307693</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L190" t="n">
         <v>6041</v>
@@ -9969,7 +9991,7 @@
         <v>1465</v>
       </c>
       <c r="K191" t="n">
-        <v>-3.448275862068965</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L191" t="n">
         <v>6038.5</v>
@@ -10020,7 +10042,7 @@
         <v>1490</v>
       </c>
       <c r="K192" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="L192" t="n">
         <v>6038.5</v>
@@ -10071,7 +10093,7 @@
         <v>1495</v>
       </c>
       <c r="K193" t="n">
-        <v>-6.666666666666667</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L193" t="n">
         <v>6038</v>
@@ -10122,7 +10144,7 @@
         <v>1495</v>
       </c>
       <c r="K194" t="n">
-        <v>3.703703703703703</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L194" t="n">
         <v>6037.5</v>
@@ -10173,7 +10195,7 @@
         <v>1500</v>
       </c>
       <c r="K195" t="n">
-        <v>15.38461538461539</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L195" t="n">
         <v>6038.5</v>
@@ -10224,7 +10246,7 @@
         <v>1500</v>
       </c>
       <c r="K196" t="n">
-        <v>8.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="L196" t="n">
         <v>6038</v>
@@ -10275,7 +10297,7 @@
         <v>1500</v>
       </c>
       <c r="K197" t="n">
-        <v>0</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L197" t="n">
         <v>6038</v>
@@ -10326,7 +10348,7 @@
         <v>1500</v>
       </c>
       <c r="K198" t="n">
-        <v>0</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L198" t="n">
         <v>6037.5</v>
@@ -10377,7 +10399,7 @@
         <v>1500</v>
       </c>
       <c r="K199" t="n">
-        <v>4.761904761904762</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L199" t="n">
         <v>6037</v>
@@ -10428,7 +10450,7 @@
         <v>1505</v>
       </c>
       <c r="K200" t="n">
-        <v>4.761904761904762</v>
+        <v>75</v>
       </c>
       <c r="L200" t="n">
         <v>6037</v>
@@ -10479,7 +10501,7 @@
         <v>1515</v>
       </c>
       <c r="K201" t="n">
-        <v>13.04347826086956</v>
+        <v>60</v>
       </c>
       <c r="L201" t="n">
         <v>6041</v>
@@ -10530,7 +10552,7 @@
         <v>1520</v>
       </c>
       <c r="K202" t="n">
-        <v>16.66666666666666</v>
+        <v>100</v>
       </c>
       <c r="L202" t="n">
         <v>6043</v>
@@ -10581,7 +10603,7 @@
         <v>1525</v>
       </c>
       <c r="K203" t="n">
-        <v>12</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L203" t="n">
         <v>6045</v>
@@ -10632,7 +10654,7 @@
         <v>1540</v>
       </c>
       <c r="K204" t="n">
-        <v>21.42857142857143</v>
+        <v>75</v>
       </c>
       <c r="L204" t="n">
         <v>6048.5</v>
@@ -10683,7 +10705,7 @@
         <v>1540</v>
       </c>
       <c r="K205" t="n">
-        <v>30.76923076923077</v>
+        <v>75</v>
       </c>
       <c r="L205" t="n">
         <v>6051.5</v>
@@ -10734,7 +10756,7 @@
         <v>1555</v>
       </c>
       <c r="K206" t="n">
-        <v>7.692307692307693</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L206" t="n">
         <v>6053</v>
@@ -10785,7 +10807,7 @@
         <v>1560</v>
       </c>
       <c r="K207" t="n">
-        <v>7.692307692307693</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L207" t="n">
         <v>6054</v>
@@ -10836,7 +10858,7 @@
         <v>1575</v>
       </c>
       <c r="K208" t="n">
-        <v>-7.142857142857142</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L208" t="n">
         <v>6053.5</v>
@@ -10887,7 +10909,7 @@
         <v>1590</v>
       </c>
       <c r="K209" t="n">
-        <v>3.225806451612903</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L209" t="n">
         <v>6054.5</v>
@@ -10938,7 +10960,7 @@
         <v>1595</v>
       </c>
       <c r="K210" t="n">
-        <v>0</v>
+        <v>-12.5</v>
       </c>
       <c r="L210" t="n">
         <v>6054.5</v>
@@ -10989,7 +11011,7 @@
         <v>1595</v>
       </c>
       <c r="K211" t="n">
-        <v>23.07692307692308</v>
+        <v>-20</v>
       </c>
       <c r="L211" t="n">
         <v>6053.5</v>
@@ -11040,7 +11062,7 @@
         <v>1600</v>
       </c>
       <c r="K212" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L212" t="n">
         <v>6051.5</v>
@@ -11091,7 +11113,7 @@
         <v>1600</v>
       </c>
       <c r="K213" t="n">
-        <v>4.761904761904762</v>
+        <v>-50</v>
       </c>
       <c r="L213" t="n">
         <v>6050</v>
@@ -11142,7 +11164,7 @@
         <v>1600</v>
       </c>
       <c r="K214" t="n">
-        <v>4.761904761904762</v>
+        <v>-50</v>
       </c>
       <c r="L214" t="n">
         <v>6047</v>
@@ -11193,7 +11215,7 @@
         <v>1605</v>
       </c>
       <c r="K215" t="n">
-        <v>-4.761904761904762</v>
+        <v>-40</v>
       </c>
       <c r="L215" t="n">
         <v>6043.5</v>
@@ -11244,7 +11266,7 @@
         <v>1605</v>
       </c>
       <c r="K216" t="n">
-        <v>-4.761904761904762</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L216" t="n">
         <v>6041.5</v>
@@ -11295,7 +11317,7 @@
         <v>1615</v>
       </c>
       <c r="K217" t="n">
-        <v>-13.04347826086956</v>
+        <v>-25</v>
       </c>
       <c r="L217" t="n">
         <v>6039</v>
@@ -11346,7 +11368,7 @@
         <v>1625</v>
       </c>
       <c r="K218" t="n">
-        <v>-4</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L218" t="n">
         <v>6039</v>
@@ -11397,7 +11419,7 @@
         <v>1630</v>
       </c>
       <c r="K219" t="n">
-        <v>-7.692307692307693</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L219" t="n">
         <v>6037</v>
@@ -11448,7 +11470,7 @@
         <v>1630</v>
       </c>
       <c r="K220" t="n">
-        <v>-12</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L220" t="n">
         <v>6035.5</v>
@@ -11499,7 +11521,7 @@
         <v>1630</v>
       </c>
       <c r="K221" t="n">
-        <v>-21.73913043478261</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L221" t="n">
         <v>6034</v>
@@ -11550,7 +11572,7 @@
         <v>1630</v>
       </c>
       <c r="K222" t="n">
-        <v>-27.27272727272727</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L222" t="n">
         <v>6033</v>
@@ -11601,7 +11623,7 @@
         <v>1635</v>
       </c>
       <c r="K223" t="n">
-        <v>-18.18181818181818</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L223" t="n">
         <v>6032.5</v>
@@ -11652,7 +11674,7 @@
         <v>1645</v>
       </c>
       <c r="K224" t="n">
-        <v>-42.85714285714285</v>
+        <v>-25</v>
       </c>
       <c r="L224" t="n">
         <v>6031</v>
@@ -11703,7 +11725,7 @@
         <v>1660</v>
       </c>
       <c r="K225" t="n">
-        <v>-25</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L225" t="n">
         <v>6031.5</v>
@@ -11754,7 +11776,7 @@
         <v>1670</v>
       </c>
       <c r="K226" t="n">
-        <v>-21.73913043478261</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L226" t="n">
         <v>6031</v>
@@ -11805,7 +11827,7 @@
         <v>1680</v>
       </c>
       <c r="K227" t="n">
-        <v>-25</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L227" t="n">
         <v>6030.5</v>
@@ -11907,7 +11929,7 @@
         <v>1690</v>
       </c>
       <c r="K229" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L229" t="n">
         <v>6029.5</v>
@@ -11958,7 +11980,7 @@
         <v>1695</v>
       </c>
       <c r="K230" t="n">
-        <v>-20</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L230" t="n">
         <v>6029</v>
@@ -12009,7 +12031,7 @@
         <v>1695</v>
       </c>
       <c r="K231" t="n">
-        <v>-20</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L231" t="n">
         <v>6028.5</v>
@@ -12060,7 +12082,7 @@
         <v>1700</v>
       </c>
       <c r="K232" t="n">
-        <v>-10</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L232" t="n">
         <v>6028.5</v>
@@ -12111,7 +12133,7 @@
         <v>1705</v>
       </c>
       <c r="K233" t="n">
-        <v>-4.761904761904762</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L233" t="n">
         <v>6028.5</v>
@@ -12162,7 +12184,7 @@
         <v>1720</v>
       </c>
       <c r="K234" t="n">
-        <v>8.333333333333332</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L234" t="n">
         <v>6031</v>
@@ -12213,7 +12235,7 @@
         <v>1720</v>
       </c>
       <c r="K235" t="n">
-        <v>13.04347826086956</v>
+        <v>40</v>
       </c>
       <c r="L235" t="n">
         <v>6032</v>
@@ -12264,7 +12286,7 @@
         <v>1725</v>
       </c>
       <c r="K236" t="n">
-        <v>16.66666666666666</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L236" t="n">
         <v>6034.5</v>
@@ -12315,7 +12337,7 @@
         <v>1725</v>
       </c>
       <c r="K237" t="n">
-        <v>27.27272727272727</v>
+        <v>75</v>
       </c>
       <c r="L237" t="n">
         <v>6038</v>
@@ -12366,7 +12388,7 @@
         <v>1735</v>
       </c>
       <c r="K238" t="n">
-        <v>27.27272727272727</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L238" t="n">
         <v>6042</v>
@@ -12417,7 +12439,7 @@
         <v>1740</v>
       </c>
       <c r="K239" t="n">
-        <v>27.27272727272727</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L239" t="n">
         <v>6045</v>
@@ -12468,7 +12490,7 @@
         <v>1745</v>
       </c>
       <c r="K240" t="n">
-        <v>30.43478260869566</v>
+        <v>80</v>
       </c>
       <c r="L240" t="n">
         <v>6049</v>
@@ -12519,7 +12541,7 @@
         <v>1760</v>
       </c>
       <c r="K241" t="n">
-        <v>15.38461538461539</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L241" t="n">
         <v>6051.5</v>
@@ -12570,7 +12592,7 @@
         <v>1770</v>
       </c>
       <c r="K242" t="n">
-        <v>7.142857142857142</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L242" t="n">
         <v>6052.5</v>
@@ -12621,7 +12643,7 @@
         <v>1775</v>
       </c>
       <c r="K243" t="n">
-        <v>7.142857142857142</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L243" t="n">
         <v>6053.5</v>
@@ -12672,7 +12694,7 @@
         <v>1790</v>
       </c>
       <c r="K244" t="n">
-        <v>3.448275862068965</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L244" t="n">
         <v>6051.5</v>
@@ -12723,7 +12745,7 @@
         <v>1795</v>
       </c>
       <c r="K245" t="n">
-        <v>-11.11111111111111</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L245" t="n">
         <v>6049</v>
@@ -12774,7 +12796,7 @@
         <v>1815</v>
       </c>
       <c r="K246" t="n">
-        <v>10.3448275862069</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L246" t="n">
         <v>6048</v>
@@ -12825,7 +12847,7 @@
         <v>1840</v>
       </c>
       <c r="K247" t="n">
-        <v>0</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L247" t="n">
         <v>6044.5</v>
@@ -12876,7 +12898,7 @@
         <v>1865</v>
       </c>
       <c r="K248" t="n">
-        <v>11.11111111111111</v>
+        <v>-12</v>
       </c>
       <c r="L248" t="n">
         <v>6042.5</v>
@@ -12927,7 +12949,7 @@
         <v>1865</v>
       </c>
       <c r="K249" t="n">
-        <v>8.571428571428571</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L249" t="n">
         <v>6041</v>
@@ -12978,7 +13000,7 @@
         <v>1875</v>
       </c>
       <c r="K250" t="n">
-        <v>5.555555555555555</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L250" t="n">
         <v>6038</v>
@@ -13029,7 +13051,7 @@
         <v>1875</v>
       </c>
       <c r="K251" t="n">
-        <v>5.555555555555555</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L251" t="n">
         <v>6036.5</v>
@@ -13080,7 +13102,7 @@
         <v>1890</v>
       </c>
       <c r="K252" t="n">
-        <v>10.52631578947368</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L252" t="n">
         <v>6037.5</v>
@@ -13131,7 +13153,7 @@
         <v>1905</v>
       </c>
       <c r="K253" t="n">
-        <v>0</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L253" t="n">
         <v>6036.5</v>
@@ -13182,7 +13204,7 @@
         <v>1905</v>
       </c>
       <c r="K254" t="n">
-        <v>-8.108108108108109</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L254" t="n">
         <v>6037</v>
@@ -13233,7 +13255,7 @@
         <v>1905</v>
       </c>
       <c r="K255" t="n">
-        <v>-8.108108108108109</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L255" t="n">
         <v>6038</v>
@@ -13284,7 +13306,7 @@
         <v>1910</v>
       </c>
       <c r="K256" t="n">
-        <v>-13.51351351351351</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L256" t="n">
         <v>6036.5</v>
@@ -13335,7 +13357,7 @@
         <v>1910</v>
       </c>
       <c r="K257" t="n">
-        <v>-13.51351351351351</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L257" t="n">
         <v>6037.5</v>
@@ -13386,7 +13408,7 @@
         <v>1915</v>
       </c>
       <c r="K258" t="n">
-        <v>-22.22222222222222</v>
+        <v>-40</v>
       </c>
       <c r="L258" t="n">
         <v>6035.5</v>
@@ -13437,7 +13459,7 @@
         <v>1915</v>
       </c>
       <c r="K259" t="n">
-        <v>-20</v>
+        <v>-25</v>
       </c>
       <c r="L259" t="n">
         <v>6033.5</v>
@@ -13488,7 +13510,7 @@
         <v>1920</v>
       </c>
       <c r="K260" t="n">
-        <v>-25.71428571428571</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L260" t="n">
         <v>6032</v>
@@ -13539,7 +13561,7 @@
         <v>1925</v>
       </c>
       <c r="K261" t="n">
-        <v>-21.21212121212121</v>
+        <v>-100</v>
       </c>
       <c r="L261" t="n">
         <v>6030</v>
@@ -13590,7 +13612,7 @@
         <v>1935</v>
       </c>
       <c r="K262" t="n">
-        <v>-9.090909090909092</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L262" t="n">
         <v>6027.5</v>
@@ -13641,7 +13663,7 @@
         <v>1935</v>
       </c>
       <c r="K263" t="n">
-        <v>-12.5</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L263" t="n">
         <v>6026.5</v>
@@ -13692,7 +13714,7 @@
         <v>1940</v>
       </c>
       <c r="K264" t="n">
-        <v>-6.666666666666667</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L264" t="n">
         <v>6025</v>
@@ -13743,7 +13765,7 @@
         <v>1945</v>
       </c>
       <c r="K265" t="n">
-        <v>-6.666666666666667</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L265" t="n">
         <v>6023</v>
@@ -13794,7 +13816,7 @@
         <v>1945</v>
       </c>
       <c r="K266" t="n">
-        <v>-23.07692307692308</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L266" t="n">
         <v>6021.5</v>
@@ -13845,7 +13867,7 @@
         <v>1950</v>
       </c>
       <c r="K267" t="n">
-        <v>-9.090909090909092</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L267" t="n">
         <v>6019.5</v>
@@ -13896,7 +13918,7 @@
         <v>1960</v>
       </c>
       <c r="K268" t="n">
-        <v>-47.36842105263158</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L268" t="n">
         <v>6017</v>
@@ -13947,7 +13969,7 @@
         <v>1975</v>
       </c>
       <c r="K269" t="n">
-        <v>-54.54545454545454</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L269" t="n">
         <v>6013</v>
@@ -13998,7 +14020,7 @@
         <v>2045</v>
       </c>
       <c r="K270" t="n">
-        <v>-70.58823529411765</v>
+        <v>-83.33333333333334</v>
       </c>
       <c r="L270" t="n">
         <v>6002.5</v>
@@ -14049,7 +14071,7 @@
         <v>2085</v>
       </c>
       <c r="K271" t="n">
-        <v>-38.09523809523809</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L271" t="n">
         <v>5996.5</v>
@@ -14100,7 +14122,7 @@
         <v>2100</v>
       </c>
       <c r="K272" t="n">
-        <v>-38.09523809523809</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L272" t="n">
         <v>5991</v>
@@ -14151,7 +14173,7 @@
         <v>2120</v>
       </c>
       <c r="K273" t="n">
-        <v>-39.53488372093023</v>
+        <v>-38.88888888888889</v>
       </c>
       <c r="L273" t="n">
         <v>5983.5</v>
@@ -14202,7 +14224,7 @@
         <v>2120</v>
       </c>
       <c r="K274" t="n">
-        <v>-39.53488372093023</v>
+        <v>-37.14285714285715</v>
       </c>
       <c r="L274" t="n">
         <v>5976.5</v>
@@ -14253,7 +14275,7 @@
         <v>2130</v>
       </c>
       <c r="K275" t="n">
-        <v>-33.33333333333333</v>
+        <v>-29.72972972972973</v>
       </c>
       <c r="L275" t="n">
         <v>5971</v>
@@ -14304,7 +14326,7 @@
         <v>2135</v>
       </c>
       <c r="K276" t="n">
-        <v>-28.88888888888889</v>
+        <v>-24.32432432432433</v>
       </c>
       <c r="L276" t="n">
         <v>5966</v>
@@ -14355,7 +14377,7 @@
         <v>2140</v>
       </c>
       <c r="K277" t="n">
-        <v>-26.08695652173913</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L277" t="n">
         <v>5962</v>
@@ -14406,7 +14428,7 @@
         <v>2150</v>
       </c>
       <c r="K278" t="n">
-        <v>-27.65957446808511</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L278" t="n">
         <v>5958</v>
@@ -14457,7 +14479,7 @@
         <v>2180</v>
       </c>
       <c r="K279" t="n">
-        <v>-13.20754716981132</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L279" t="n">
         <v>5958.5</v>
@@ -14508,7 +14530,7 @@
         <v>2200</v>
       </c>
       <c r="K280" t="n">
-        <v>-3.571428571428571</v>
+        <v>47.82608695652174</v>
       </c>
       <c r="L280" t="n">
         <v>5968</v>
@@ -14559,7 +14581,7 @@
         <v>2215</v>
       </c>
       <c r="K281" t="n">
-        <v>3.448275862068965</v>
+        <v>47.82608695652174</v>
       </c>
       <c r="L281" t="n">
         <v>5975</v>
@@ -14610,7 +14632,7 @@
         <v>2230</v>
       </c>
       <c r="K282" t="n">
-        <v>-5.084745762711865</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="L282" t="n">
         <v>5979</v>
@@ -14661,7 +14683,7 @@
         <v>2235</v>
       </c>
       <c r="K283" t="n">
-        <v>-3.333333333333333</v>
+        <v>56.52173913043478</v>
       </c>
       <c r="L283" t="n">
         <v>5985.5</v>
@@ -14712,7 +14734,7 @@
         <v>2235</v>
       </c>
       <c r="K284" t="n">
-        <v>-1.694915254237288</v>
+        <v>52.38095238095239</v>
       </c>
       <c r="L284" t="n">
         <v>5992</v>
@@ -14763,7 +14785,7 @@
         <v>2240</v>
       </c>
       <c r="K285" t="n">
-        <v>1.694915254237288</v>
+        <v>52.38095238095239</v>
       </c>
       <c r="L285" t="n">
         <v>5998</v>
@@ -14814,7 +14836,7 @@
         <v>2245</v>
       </c>
       <c r="K286" t="n">
-        <v>0</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L286" t="n">
         <v>6003</v>
@@ -14865,7 +14887,7 @@
         <v>2250</v>
       </c>
       <c r="K287" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L287" t="n">
         <v>6007</v>
@@ -14916,7 +14938,7 @@
         <v>2250</v>
       </c>
       <c r="K288" t="n">
-        <v>3.448275862068965</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L288" t="n">
         <v>6012</v>
@@ -14967,7 +14989,7 @@
         <v>2265</v>
       </c>
       <c r="K289" t="n">
-        <v>13.79310344827586</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L289" t="n">
         <v>6015.5</v>
@@ -15018,7 +15040,7 @@
         <v>2265</v>
       </c>
       <c r="K290" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L290" t="n">
         <v>6017</v>
@@ -15069,7 +15091,7 @@
         <v>2270</v>
       </c>
       <c r="K291" t="n">
-        <v>35.13513513513514</v>
+        <v>25</v>
       </c>
       <c r="L291" t="n">
         <v>6016.5</v>
@@ -15120,7 +15142,7 @@
         <v>2270</v>
       </c>
       <c r="K292" t="n">
-        <v>29.41176470588236</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L292" t="n">
         <v>6017.5</v>
@@ -15171,7 +15193,7 @@
         <v>2270</v>
       </c>
       <c r="K293" t="n">
-        <v>46.66666666666666</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L293" t="n">
         <v>6018</v>
@@ -15222,7 +15244,7 @@
         <v>2270</v>
       </c>
       <c r="K294" t="n">
-        <v>46.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L294" t="n">
         <v>6018.5</v>
@@ -15273,7 +15295,7 @@
         <v>2280</v>
       </c>
       <c r="K295" t="n">
-        <v>33.33333333333333</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L295" t="n">
         <v>6017.5</v>
@@ -15324,7 +15346,7 @@
         <v>2300</v>
       </c>
       <c r="K296" t="n">
-        <v>39.39393939393939</v>
+        <v>40</v>
       </c>
       <c r="L296" t="n">
         <v>6019</v>
@@ -15375,7 +15397,7 @@
         <v>2310</v>
       </c>
       <c r="K297" t="n">
-        <v>29.41176470588236</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L297" t="n">
         <v>6020</v>
@@ -15426,7 +15448,7 @@
         <v>2315</v>
       </c>
       <c r="K298" t="n">
-        <v>39.39393939393939</v>
+        <v>0</v>
       </c>
       <c r="L298" t="n">
         <v>6021.5</v>
@@ -15477,7 +15499,7 @@
         <v>2320</v>
       </c>
       <c r="K299" t="n">
-        <v>28.57142857142857</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L299" t="n">
         <v>6022</v>
@@ -15528,7 +15550,7 @@
         <v>2330</v>
       </c>
       <c r="K300" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L300" t="n">
         <v>6021.5</v>
@@ -15579,7 +15601,7 @@
         <v>2330</v>
       </c>
       <c r="K301" t="n">
-        <v>-4.347826086956522</v>
+        <v>0</v>
       </c>
       <c r="L301" t="n">
         <v>6021.5</v>
@@ -15630,7 +15652,7 @@
         <v>2330</v>
       </c>
       <c r="K302" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L302" t="n">
         <v>6021.5</v>
@@ -15681,7 +15703,7 @@
         <v>2345</v>
       </c>
       <c r="K303" t="n">
-        <v>18.18181818181818</v>
+        <v>20</v>
       </c>
       <c r="L303" t="n">
         <v>6023</v>
@@ -15732,7 +15754,7 @@
         <v>2360</v>
       </c>
       <c r="K304" t="n">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="L304" t="n">
         <v>6026</v>
@@ -15783,7 +15805,7 @@
         <v>2375</v>
       </c>
       <c r="K305" t="n">
-        <v>11.11111111111111</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L305" t="n">
         <v>6028.5</v>
@@ -15834,7 +15856,7 @@
         <v>2390</v>
       </c>
       <c r="K306" t="n">
-        <v>24.13793103448276</v>
+        <v>37.5</v>
       </c>
       <c r="L306" t="n">
         <v>6030.5</v>
@@ -15885,7 +15907,7 @@
         <v>2405</v>
       </c>
       <c r="K307" t="n">
-        <v>16.12903225806452</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L307" t="n">
         <v>6032</v>
@@ -15936,7 +15958,7 @@
         <v>2405</v>
       </c>
       <c r="K308" t="n">
-        <v>16.12903225806452</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L308" t="n">
         <v>6033</v>
@@ -15987,7 +16009,7 @@
         <v>2410</v>
       </c>
       <c r="K309" t="n">
-        <v>3.448275862068965</v>
+        <v>12.5</v>
       </c>
       <c r="L309" t="n">
         <v>6033</v>
@@ -16038,7 +16060,7 @@
         <v>2430</v>
       </c>
       <c r="K310" t="n">
-        <v>-9.090909090909092</v>
+        <v>-10</v>
       </c>
       <c r="L310" t="n">
         <v>6032</v>
@@ -16089,7 +16111,7 @@
         <v>2430</v>
       </c>
       <c r="K311" t="n">
-        <v>-6.25</v>
+        <v>-10</v>
       </c>
       <c r="L311" t="n">
         <v>6031</v>
@@ -16140,7 +16162,7 @@
         <v>2440</v>
       </c>
       <c r="K312" t="n">
-        <v>-11.76470588235294</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L312" t="n">
         <v>6029</v>
@@ -16191,7 +16213,7 @@
         <v>2440</v>
       </c>
       <c r="K313" t="n">
-        <v>-11.76470588235294</v>
+        <v>-62.5</v>
       </c>
       <c r="L313" t="n">
         <v>6025.5</v>
@@ -16242,7 +16264,7 @@
         <v>2510</v>
       </c>
       <c r="K314" t="n">
-        <v>-37.5</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L314" t="n">
         <v>6013.5</v>
@@ -16293,7 +16315,7 @@
         <v>2535</v>
       </c>
       <c r="K315" t="n">
-        <v>-21.56862745098039</v>
+        <v>-65.51724137931035</v>
       </c>
       <c r="L315" t="n">
         <v>6005.5</v>
@@ -16344,7 +16366,7 @@
         <v>2550</v>
       </c>
       <c r="K316" t="n">
-        <v>-36</v>
+        <v>-65.51724137931035</v>
       </c>
       <c r="L316" t="n">
         <v>5994.5</v>
@@ -16395,7 +16417,7 @@
         <v>2550</v>
       </c>
       <c r="K317" t="n">
-        <v>-33.33333333333333</v>
+        <v>-65.51724137931035</v>
       </c>
       <c r="L317" t="n">
         <v>5985</v>
@@ -16446,7 +16468,7 @@
         <v>2550</v>
       </c>
       <c r="K318" t="n">
-        <v>-36.17021276595745</v>
+        <v>-64.28571428571429</v>
       </c>
       <c r="L318" t="n">
         <v>5975.5</v>
@@ -16497,7 +16519,7 @@
         <v>2565</v>
       </c>
       <c r="K319" t="n">
-        <v>-30.61224489795918</v>
+        <v>-40.74074074074074</v>
       </c>
       <c r="L319" t="n">
         <v>5968</v>
@@ -16548,7 +16570,7 @@
         <v>2580</v>
       </c>
       <c r="K320" t="n">
-        <v>-32</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L320" t="n">
         <v>5961</v>
@@ -16599,7 +16621,7 @@
         <v>2590</v>
       </c>
       <c r="K321" t="n">
-        <v>-34.61538461538461</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L321" t="n">
         <v>5953</v>
@@ -16650,7 +16672,7 @@
         <v>2600</v>
       </c>
       <c r="K322" t="n">
-        <v>-37.03703703703704</v>
+        <v>-50</v>
       </c>
       <c r="L322" t="n">
         <v>5945</v>
@@ -16701,7 +16723,7 @@
         <v>2630</v>
       </c>
       <c r="K323" t="n">
-        <v>-50.87719298245614</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L323" t="n">
         <v>5934</v>
@@ -16752,7 +16774,7 @@
         <v>2630</v>
       </c>
       <c r="K324" t="n">
-        <v>-59.25925925925925</v>
+        <v>-68.42105263157895</v>
       </c>
       <c r="L324" t="n">
         <v>5930</v>
@@ -16803,7 +16825,7 @@
         <v>2650</v>
       </c>
       <c r="K325" t="n">
-        <v>-45.45454545454545</v>
+        <v>-30</v>
       </c>
       <c r="L325" t="n">
         <v>5925.5</v>
@@ -16854,7 +16876,7 @@
         <v>2655</v>
       </c>
       <c r="K326" t="n">
-        <v>-54.71698113207547</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L326" t="n">
         <v>5922</v>
@@ -16905,7 +16927,7 @@
         <v>2665</v>
       </c>
       <c r="K327" t="n">
-        <v>-46.15384615384615</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L327" t="n">
         <v>5919.5</v>
@@ -16956,7 +16978,7 @@
         <v>2670</v>
       </c>
       <c r="K328" t="n">
-        <v>-43.39622641509434</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L328" t="n">
         <v>5917.5</v>
@@ -17007,7 +17029,7 @@
         <v>2680</v>
       </c>
       <c r="K329" t="n">
-        <v>-37.03703703703704</v>
+        <v>-10</v>
       </c>
       <c r="L329" t="n">
         <v>5915</v>
@@ -17058,7 +17080,7 @@
         <v>2695</v>
       </c>
       <c r="K330" t="n">
-        <v>-35.84905660377358</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L330" t="n">
         <v>5912.5</v>
@@ -17109,7 +17131,7 @@
         <v>2710</v>
       </c>
       <c r="K331" t="n">
-        <v>-28.57142857142857</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L331" t="n">
         <v>5912.5</v>
@@ -17160,7 +17182,7 @@
         <v>2710</v>
       </c>
       <c r="K332" t="n">
-        <v>-25.92592592592592</v>
+        <v>50</v>
       </c>
       <c r="L332" t="n">
         <v>5913.5</v>
@@ -17211,7 +17233,7 @@
         <v>2710</v>
       </c>
       <c r="K333" t="n">
-        <v>-25.92592592592592</v>
+        <v>50</v>
       </c>
       <c r="L333" t="n">
         <v>5917.5</v>
@@ -17262,7 +17284,7 @@
         <v>2725</v>
       </c>
       <c r="K334" t="n">
-        <v>6.976744186046512</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L334" t="n">
         <v>5923</v>
@@ -17313,7 +17335,7 @@
         <v>2740</v>
       </c>
       <c r="K335" t="n">
-        <v>-12.19512195121951</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L335" t="n">
         <v>5925</v>
@@ -17364,7 +17386,7 @@
         <v>2770</v>
       </c>
       <c r="K336" t="n">
-        <v>9.090909090909092</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L336" t="n">
         <v>5930.5</v>
@@ -17415,7 +17437,7 @@
         <v>2780</v>
       </c>
       <c r="K337" t="n">
-        <v>4.347826086956522</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L337" t="n">
         <v>5934</v>
@@ -17466,7 +17488,7 @@
         <v>2785</v>
       </c>
       <c r="K338" t="n">
-        <v>6.382978723404255</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L338" t="n">
         <v>5937.5</v>
@@ -17517,7 +17539,7 @@
         <v>2800</v>
       </c>
       <c r="K339" t="n">
-        <v>-6.382978723404255</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L339" t="n">
         <v>5938.5</v>
@@ -17568,7 +17590,7 @@
         <v>2810</v>
       </c>
       <c r="K340" t="n">
-        <v>-4.347826086956522</v>
+        <v>0</v>
       </c>
       <c r="L340" t="n">
         <v>5940</v>
@@ -17670,7 +17692,7 @@
         <v>2820</v>
       </c>
       <c r="K342" t="n">
-        <v>0</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L342" t="n">
         <v>5939</v>
@@ -17721,7 +17743,7 @@
         <v>2825</v>
       </c>
       <c r="K343" t="n">
-        <v>17.94871794871795</v>
+        <v>-20</v>
       </c>
       <c r="L343" t="n">
         <v>5938.5</v>
@@ -17772,7 +17794,7 @@
         <v>2830</v>
       </c>
       <c r="K344" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L344" t="n">
         <v>5937</v>
@@ -17823,7 +17845,7 @@
         <v>2830</v>
       </c>
       <c r="K345" t="n">
-        <v>11.11111111111111</v>
+        <v>-50</v>
       </c>
       <c r="L345" t="n">
         <v>5937</v>
@@ -17874,7 +17896,7 @@
         <v>2830</v>
       </c>
       <c r="K346" t="n">
-        <v>14.28571428571428</v>
+        <v>-40</v>
       </c>
       <c r="L346" t="n">
         <v>5934</v>
@@ -17925,7 +17947,7 @@
         <v>2830</v>
       </c>
       <c r="K347" t="n">
-        <v>9.090909090909092</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L347" t="n">
         <v>5932</v>
@@ -17976,7 +17998,7 @@
         <v>2830</v>
       </c>
       <c r="K348" t="n">
-        <v>6.25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L348" t="n">
         <v>5929.5</v>
@@ -18027,7 +18049,7 @@
         <v>2845</v>
       </c>
       <c r="K349" t="n">
-        <v>9.090909090909092</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L349" t="n">
         <v>5930</v>
@@ -18078,7 +18100,7 @@
         <v>2845</v>
       </c>
       <c r="K350" t="n">
-        <v>20</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L350" t="n">
         <v>5931.5</v>
@@ -18129,7 +18151,7 @@
         <v>2850</v>
       </c>
       <c r="K351" t="n">
-        <v>7.142857142857142</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L351" t="n">
         <v>5932.5</v>
@@ -18180,7 +18202,7 @@
         <v>2855</v>
       </c>
       <c r="K352" t="n">
-        <v>10.3448275862069</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L352" t="n">
         <v>5935</v>
@@ -18231,7 +18253,7 @@
         <v>2855</v>
       </c>
       <c r="K353" t="n">
-        <v>10.3448275862069</v>
+        <v>60</v>
       </c>
       <c r="L353" t="n">
         <v>5937</v>
@@ -18282,7 +18304,7 @@
         <v>2855</v>
       </c>
       <c r="K354" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L354" t="n">
         <v>5938.5</v>
@@ -18333,7 +18355,7 @@
         <v>2860</v>
       </c>
       <c r="K355" t="n">
-        <v>8.333333333333332</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L355" t="n">
         <v>5939.5</v>
@@ -18384,7 +18406,7 @@
         <v>2885</v>
       </c>
       <c r="K356" t="n">
-        <v>4.347826086956522</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L356" t="n">
         <v>5943</v>
@@ -18435,7 +18457,7 @@
         <v>2890</v>
       </c>
       <c r="K357" t="n">
-        <v>9.090909090909092</v>
+        <v>50</v>
       </c>
       <c r="L357" t="n">
         <v>5946</v>
@@ -18486,7 +18508,7 @@
         <v>2890</v>
       </c>
       <c r="K358" t="n">
-        <v>4.761904761904762</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L358" t="n">
         <v>5949</v>
@@ -18537,7 +18559,7 @@
         <v>2890</v>
       </c>
       <c r="K359" t="n">
-        <v>22.22222222222222</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L359" t="n">
         <v>5950.5</v>
@@ -18588,7 +18610,7 @@
         <v>2900</v>
       </c>
       <c r="K360" t="n">
-        <v>22.22222222222222</v>
+        <v>20</v>
       </c>
       <c r="L360" t="n">
         <v>5951</v>
@@ -18639,7 +18661,7 @@
         <v>2905</v>
       </c>
       <c r="K361" t="n">
-        <v>26.31578947368421</v>
+        <v>20</v>
       </c>
       <c r="L361" t="n">
         <v>5952.5</v>
@@ -18690,7 +18712,7 @@
         <v>2925</v>
       </c>
       <c r="K362" t="n">
-        <v>52.38095238095239</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L362" t="n">
         <v>5955.5</v>
@@ -18741,7 +18763,7 @@
         <v>2925</v>
       </c>
       <c r="K363" t="n">
-        <v>50</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L363" t="n">
         <v>5958.5</v>
@@ -18792,7 +18814,7 @@
         <v>2925</v>
       </c>
       <c r="K364" t="n">
-        <v>47.36842105263158</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L364" t="n">
         <v>5961.5</v>
@@ -18843,7 +18865,7 @@
         <v>2930</v>
       </c>
       <c r="K365" t="n">
-        <v>50</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L365" t="n">
         <v>5965.5</v>
@@ -18894,7 +18916,7 @@
         <v>2935</v>
       </c>
       <c r="K366" t="n">
-        <v>42.85714285714285</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L366" t="n">
         <v>5966.5</v>
@@ -18996,7 +19018,7 @@
         <v>2960</v>
       </c>
       <c r="K368" t="n">
-        <v>38.46153846153847</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L368" t="n">
         <v>5971.5</v>
@@ -19047,7 +19069,7 @@
         <v>2970</v>
       </c>
       <c r="K369" t="n">
-        <v>20</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L369" t="n">
         <v>5972.5</v>
@@ -19098,7 +19120,7 @@
         <v>2980</v>
       </c>
       <c r="K370" t="n">
-        <v>11.11111111111111</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L370" t="n">
         <v>5973.5</v>
@@ -19149,7 +19171,7 @@
         <v>2995</v>
       </c>
       <c r="K371" t="n">
-        <v>3.448275862068965</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L371" t="n">
         <v>5972.5</v>
@@ -19200,7 +19222,7 @@
         <v>2995</v>
       </c>
       <c r="K372" t="n">
-        <v>0</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L372" t="n">
         <v>5969.5</v>
@@ -19251,7 +19273,7 @@
         <v>2995</v>
       </c>
       <c r="K373" t="n">
-        <v>0</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L373" t="n">
         <v>5966.5</v>
@@ -19302,7 +19324,7 @@
         <v>2995</v>
       </c>
       <c r="K374" t="n">
-        <v>0</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L374" t="n">
         <v>5963.5</v>
@@ -19353,7 +19375,7 @@
         <v>3000</v>
       </c>
       <c r="K375" t="n">
-        <v>7.142857142857142</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L375" t="n">
         <v>5960.5</v>
@@ -19404,7 +19426,7 @@
         <v>3005</v>
       </c>
       <c r="K376" t="n">
-        <v>-8.333333333333332</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L376" t="n">
         <v>5958.5</v>
@@ -19455,7 +19477,7 @@
         <v>3045</v>
       </c>
       <c r="K377" t="n">
-        <v>22.58064516129032</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L377" t="n">
         <v>5959</v>
@@ -19506,7 +19528,7 @@
         <v>3045</v>
       </c>
       <c r="K378" t="n">
-        <v>22.58064516129032</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L378" t="n">
         <v>5960.5</v>
@@ -19557,7 +19579,7 @@
         <v>3045</v>
       </c>
       <c r="K379" t="n">
-        <v>22.58064516129032</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L379" t="n">
         <v>5963</v>
@@ -19608,7 +19630,7 @@
         <v>3045</v>
       </c>
       <c r="K380" t="n">
-        <v>31.03448275862069</v>
+        <v>100</v>
       </c>
       <c r="L380" t="n">
         <v>5966.5</v>
@@ -19659,7 +19681,7 @@
         <v>3050</v>
       </c>
       <c r="K381" t="n">
-        <v>24.13793103448276</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L381" t="n">
         <v>5971</v>
@@ -19710,7 +19732,7 @@
         <v>3060</v>
       </c>
       <c r="K382" t="n">
-        <v>18.51851851851852</v>
+        <v>84.61538461538461</v>
       </c>
       <c r="L382" t="n">
         <v>5976.5</v>
@@ -19761,7 +19783,7 @@
         <v>3075</v>
       </c>
       <c r="K383" t="n">
-        <v>6.666666666666667</v>
+        <v>50</v>
       </c>
       <c r="L383" t="n">
         <v>5980.5</v>
@@ -19812,7 +19834,7 @@
         <v>3075</v>
       </c>
       <c r="K384" t="n">
-        <v>6.666666666666667</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L384" t="n">
         <v>5984.5</v>
@@ -19863,7 +19885,7 @@
         <v>3090</v>
       </c>
       <c r="K385" t="n">
-        <v>12.5</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="L385" t="n">
         <v>5989.5</v>
@@ -19914,7 +19936,7 @@
         <v>3090</v>
       </c>
       <c r="K386" t="n">
-        <v>16.12903225806452</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L386" t="n">
         <v>5994</v>
@@ -19965,7 +19987,7 @@
         <v>3090</v>
       </c>
       <c r="K387" t="n">
-        <v>7.142857142857142</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L387" t="n">
         <v>5994.5</v>
@@ -20016,7 +20038,7 @@
         <v>3100</v>
       </c>
       <c r="K388" t="n">
-        <v>7.142857142857142</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L388" t="n">
         <v>5994</v>
@@ -20067,7 +20089,7 @@
         <v>3100</v>
       </c>
       <c r="K389" t="n">
-        <v>15.38461538461539</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L389" t="n">
         <v>5993.5</v>
@@ -20118,7 +20140,7 @@
         <v>3100</v>
       </c>
       <c r="K390" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L390" t="n">
         <v>5993</v>
@@ -20169,7 +20191,7 @@
         <v>3105</v>
       </c>
       <c r="K391" t="n">
-        <v>36.36363636363637</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L391" t="n">
         <v>5992.5</v>
@@ -20220,7 +20242,7 @@
         <v>3105</v>
       </c>
       <c r="K392" t="n">
-        <v>36.36363636363637</v>
+        <v>0</v>
       </c>
       <c r="L392" t="n">
         <v>5991</v>
@@ -20271,7 +20293,7 @@
         <v>3105</v>
       </c>
       <c r="K393" t="n">
-        <v>36.36363636363637</v>
+        <v>0</v>
       </c>
       <c r="L393" t="n">
         <v>5991</v>
@@ -20322,7 +20344,7 @@
         <v>3105</v>
       </c>
       <c r="K394" t="n">
-        <v>36.36363636363637</v>
+        <v>-100</v>
       </c>
       <c r="L394" t="n">
         <v>5991</v>
@@ -20373,7 +20395,7 @@
         <v>3125</v>
       </c>
       <c r="K395" t="n">
-        <v>12</v>
+        <v>-100</v>
       </c>
       <c r="L395" t="n">
         <v>5987.5</v>
@@ -20424,7 +20446,7 @@
         <v>3140</v>
       </c>
       <c r="K396" t="n">
-        <v>18.51851851851852</v>
+        <v>-40</v>
       </c>
       <c r="L396" t="n">
         <v>5985.5</v>
@@ -20475,7 +20497,7 @@
         <v>3140</v>
       </c>
       <c r="K397" t="n">
-        <v>-15.78947368421053</v>
+        <v>-25</v>
       </c>
       <c r="L397" t="n">
         <v>5983.5</v>
@@ -20526,7 +20548,7 @@
         <v>3150</v>
       </c>
       <c r="K398" t="n">
-        <v>-4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L398" t="n">
         <v>5983.5</v>
@@ -20577,7 +20599,7 @@
         <v>3165</v>
       </c>
       <c r="K399" t="n">
-        <v>-16.66666666666666</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L399" t="n">
         <v>5982</v>
@@ -20628,7 +20650,7 @@
         <v>3175</v>
       </c>
       <c r="K400" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L400" t="n">
         <v>5981.5</v>
@@ -20679,7 +20701,7 @@
         <v>3185</v>
       </c>
       <c r="K401" t="n">
-        <v>-11.11111111111111</v>
+        <v>-12.5</v>
       </c>
       <c r="L401" t="n">
         <v>5980.5</v>
@@ -20730,7 +20752,7 @@
         <v>3185</v>
       </c>
       <c r="K402" t="n">
-        <v>-20</v>
+        <v>-12.5</v>
       </c>
       <c r="L402" t="n">
         <v>5979.5</v>
@@ -20781,7 +20803,7 @@
         <v>3185</v>
       </c>
       <c r="K403" t="n">
-        <v>-9.090909090909092</v>
+        <v>-12.5</v>
       </c>
       <c r="L403" t="n">
         <v>5978.5</v>
@@ -20832,7 +20854,7 @@
         <v>3190</v>
       </c>
       <c r="K404" t="n">
-        <v>-13.04347826086956</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L404" t="n">
         <v>5977</v>
@@ -20883,7 +20905,7 @@
         <v>3190</v>
       </c>
       <c r="K405" t="n">
-        <v>-30</v>
+        <v>-20</v>
       </c>
       <c r="L405" t="n">
         <v>5977.5</v>
@@ -20934,7 +20956,7 @@
         <v>3210</v>
       </c>
       <c r="K406" t="n">
-        <v>-8.333333333333332</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L406" t="n">
         <v>5978.5</v>
@@ -20985,7 +21007,7 @@
         <v>3215</v>
       </c>
       <c r="K407" t="n">
-        <v>-12</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L407" t="n">
         <v>5979</v>
@@ -21036,7 +21058,7 @@
         <v>3215</v>
       </c>
       <c r="K408" t="n">
-        <v>-4.347826086956522</v>
+        <v>20</v>
       </c>
       <c r="L408" t="n">
         <v>5978.5</v>
@@ -21087,7 +21109,7 @@
         <v>3225</v>
       </c>
       <c r="K409" t="n">
-        <v>-12</v>
+        <v>-20</v>
       </c>
       <c r="L409" t="n">
         <v>5978.5</v>
@@ -21138,7 +21160,7 @@
         <v>3235</v>
       </c>
       <c r="K410" t="n">
-        <v>-18.51851851851852</v>
+        <v>-20</v>
       </c>
       <c r="L410" t="n">
         <v>5976.5</v>
@@ -21189,7 +21211,7 @@
         <v>3245</v>
       </c>
       <c r="K411" t="n">
-        <v>-21.42857142857143</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L411" t="n">
         <v>5974.5</v>
@@ -21240,7 +21262,7 @@
         <v>3250</v>
       </c>
       <c r="K412" t="n">
-        <v>-24.13793103448276</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L412" t="n">
         <v>5972</v>
@@ -21291,7 +21313,7 @@
         <v>3250</v>
       </c>
       <c r="K413" t="n">
-        <v>-24.13793103448276</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L413" t="n">
         <v>5969.5</v>
@@ -21342,7 +21364,7 @@
         <v>3250</v>
       </c>
       <c r="K414" t="n">
-        <v>-24.13793103448276</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L414" t="n">
         <v>5967.5</v>
@@ -21393,7 +21415,7 @@
         <v>3265</v>
       </c>
       <c r="K415" t="n">
-        <v>-21.42857142857143</v>
+        <v>-100</v>
       </c>
       <c r="L415" t="n">
         <v>5964</v>
@@ -21444,7 +21466,7 @@
         <v>3280</v>
       </c>
       <c r="K416" t="n">
-        <v>-42.85714285714285</v>
+        <v>-100</v>
       </c>
       <c r="L416" t="n">
         <v>5957</v>
@@ -21495,7 +21517,7 @@
         <v>3285</v>
       </c>
       <c r="K417" t="n">
-        <v>-37.93103448275862</v>
+        <v>-85.71428571428571</v>
       </c>
       <c r="L417" t="n">
         <v>5951</v>
@@ -21546,7 +21568,7 @@
         <v>3300</v>
       </c>
       <c r="K418" t="n">
-        <v>-33.33333333333333</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L418" t="n">
         <v>5946.5</v>
@@ -21597,7 +21619,7 @@
         <v>3310</v>
       </c>
       <c r="K419" t="n">
-        <v>-31.03448275862069</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L419" t="n">
         <v>5942</v>
@@ -21648,7 +21670,7 @@
         <v>3310</v>
       </c>
       <c r="K420" t="n">
-        <v>-40.74074074074074</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L420" t="n">
         <v>5938.5</v>
@@ -21699,7 +21721,7 @@
         <v>3325</v>
       </c>
       <c r="K421" t="n">
-        <v>-42.85714285714285</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L421" t="n">
         <v>5934.5</v>
@@ -21750,7 +21772,7 @@
         <v>3325</v>
       </c>
       <c r="K422" t="n">
-        <v>-42.85714285714285</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L422" t="n">
         <v>5931</v>
@@ -21801,7 +21823,7 @@
         <v>3340</v>
       </c>
       <c r="K423" t="n">
-        <v>-29.03225806451613</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L423" t="n">
         <v>5929</v>
@@ -21852,7 +21874,7 @@
         <v>3340</v>
       </c>
       <c r="K424" t="n">
-        <v>-26.66666666666667</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L424" t="n">
         <v>5927</v>
@@ -21903,7 +21925,7 @@
         <v>3350</v>
       </c>
       <c r="K425" t="n">
-        <v>-18.75</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L425" t="n">
         <v>5927.5</v>
@@ -21954,7 +21976,7 @@
         <v>3360</v>
       </c>
       <c r="K426" t="n">
-        <v>-40</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L426" t="n">
         <v>5928.5</v>
@@ -22005,7 +22027,7 @@
         <v>3360</v>
       </c>
       <c r="K427" t="n">
-        <v>-37.93103448275862</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L427" t="n">
         <v>5929</v>
@@ -22056,7 +22078,7 @@
         <v>3370</v>
       </c>
       <c r="K428" t="n">
-        <v>-29.03225806451613</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L428" t="n">
         <v>5929</v>
@@ -22107,7 +22129,7 @@
         <v>3380</v>
       </c>
       <c r="K429" t="n">
-        <v>-29.03225806451613</v>
+        <v>0</v>
       </c>
       <c r="L429" t="n">
         <v>5929</v>
@@ -22158,7 +22180,7 @@
         <v>3385</v>
       </c>
       <c r="K430" t="n">
-        <v>-26.66666666666667</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L430" t="n">
         <v>5928.5</v>
@@ -22209,7 +22231,7 @@
         <v>3385</v>
       </c>
       <c r="K431" t="n">
-        <v>-21.42857142857143</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L431" t="n">
         <v>5929.5</v>
@@ -22260,7 +22282,7 @@
         <v>3390</v>
       </c>
       <c r="K432" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L432" t="n">
         <v>5931</v>
@@ -22311,7 +22333,7 @@
         <v>3395</v>
       </c>
       <c r="K433" t="n">
-        <v>-17.24137931034483</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L433" t="n">
         <v>5930.5</v>
@@ -22362,7 +22384,7 @@
         <v>3400</v>
       </c>
       <c r="K434" t="n">
-        <v>-13.33333333333333</v>
+        <v>-20</v>
       </c>
       <c r="L434" t="n">
         <v>5930.5</v>
@@ -22413,7 +22435,7 @@
         <v>3410</v>
       </c>
       <c r="K435" t="n">
-        <v>3.448275862068965</v>
+        <v>20</v>
       </c>
       <c r="L435" t="n">
         <v>5930.5</v>
@@ -22464,7 +22486,7 @@
         <v>3420</v>
       </c>
       <c r="K436" t="n">
-        <v>21.42857142857143</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L436" t="n">
         <v>5932.5</v>
@@ -22515,7 +22537,7 @@
         <v>3420</v>
       </c>
       <c r="K437" t="n">
-        <v>18.51851851851852</v>
+        <v>20</v>
       </c>
       <c r="L437" t="n">
         <v>5934.5</v>
@@ -22566,7 +22588,7 @@
         <v>3440</v>
       </c>
       <c r="K438" t="n">
-        <v>21.42857142857143</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L438" t="n">
         <v>5937.5</v>
@@ -22617,7 +22639,7 @@
         <v>3450</v>
       </c>
       <c r="K439" t="n">
-        <v>35.71428571428572</v>
+        <v>84.61538461538461</v>
       </c>
       <c r="L439" t="n">
         <v>5942.5</v>
@@ -22668,7 +22690,7 @@
         <v>3450</v>
       </c>
       <c r="K440" t="n">
-        <v>35.71428571428572</v>
+        <v>84.61538461538461</v>
       </c>
       <c r="L440" t="n">
         <v>5948</v>
@@ -22719,7 +22741,7 @@
         <v>3450</v>
       </c>
       <c r="K441" t="n">
-        <v>52</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="L441" t="n">
         <v>5953.5</v>
@@ -22770,7 +22792,7 @@
         <v>3450</v>
       </c>
       <c r="K442" t="n">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="L442" t="n">
         <v>5958.5</v>
@@ -22821,7 +22843,7 @@
         <v>3465</v>
       </c>
       <c r="K443" t="n">
-        <v>28</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L443" t="n">
         <v>5962.5</v>
@@ -22872,7 +22894,7 @@
         <v>3465</v>
       </c>
       <c r="K444" t="n">
-        <v>28</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L444" t="n">
         <v>5966</v>
@@ -22923,7 +22945,7 @@
         <v>3475</v>
       </c>
       <c r="K445" t="n">
-        <v>12</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L445" t="n">
         <v>5967.5</v>
@@ -22974,7 +22996,7 @@
         <v>3490</v>
       </c>
       <c r="K446" t="n">
-        <v>7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L446" t="n">
         <v>5966.5</v>
@@ -23025,7 +23047,7 @@
         <v>3490</v>
       </c>
       <c r="K447" t="n">
-        <v>7.692307692307693</v>
+        <v>-60</v>
       </c>
       <c r="L447" t="n">
         <v>5965.5</v>
@@ -23076,7 +23098,7 @@
         <v>3500</v>
       </c>
       <c r="K448" t="n">
-        <v>-7.692307692307693</v>
+        <v>-100</v>
       </c>
       <c r="L448" t="n">
         <v>5961.5</v>
@@ -23127,7 +23149,7 @@
         <v>3520</v>
       </c>
       <c r="K449" t="n">
-        <v>-14.28571428571428</v>
+        <v>-100</v>
       </c>
       <c r="L449" t="n">
         <v>5954.5</v>
@@ -23178,7 +23200,7 @@
         <v>3560</v>
       </c>
       <c r="K450" t="n">
-        <v>14.28571428571428</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L450" t="n">
         <v>5951.5</v>
@@ -23229,7 +23251,7 @@
         <v>3560</v>
       </c>
       <c r="K451" t="n">
-        <v>14.28571428571428</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L451" t="n">
         <v>5948.5</v>
@@ -23280,7 +23302,7 @@
         <v>3570</v>
       </c>
       <c r="K452" t="n">
-        <v>5.555555555555555</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L452" t="n">
         <v>5944.5</v>
@@ -23331,7 +23353,7 @@
         <v>3570</v>
       </c>
       <c r="K453" t="n">
-        <v>8.571428571428571</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L453" t="n">
         <v>5942</v>
@@ -23382,7 +23404,7 @@
         <v>3575</v>
       </c>
       <c r="K454" t="n">
-        <v>2.857142857142857</v>
+        <v>-20</v>
       </c>
       <c r="L454" t="n">
         <v>5939</v>
@@ -23433,7 +23455,7 @@
         <v>3590</v>
       </c>
       <c r="K455" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L455" t="n">
         <v>5935.5</v>
@@ -23484,7 +23506,7 @@
         <v>3605</v>
       </c>
       <c r="K456" t="n">
-        <v>-8.108108108108109</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L456" t="n">
         <v>5935</v>
@@ -23535,7 +23557,7 @@
         <v>3605</v>
       </c>
       <c r="K457" t="n">
-        <v>-8.108108108108109</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L457" t="n">
         <v>5934.5</v>
@@ -23586,7 +23608,7 @@
         <v>3625</v>
       </c>
       <c r="K458" t="n">
-        <v>-8.108108108108109</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L458" t="n">
         <v>5937</v>
@@ -23637,7 +23659,7 @@
         <v>3630</v>
       </c>
       <c r="K459" t="n">
-        <v>-11.11111111111111</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L459" t="n">
         <v>5942</v>
@@ -23688,7 +23710,7 @@
         <v>3640</v>
       </c>
       <c r="K460" t="n">
-        <v>-5.263157894736842</v>
+        <v>25</v>
       </c>
       <c r="L460" t="n">
         <v>5944</v>
@@ -23739,7 +23761,7 @@
         <v>3670</v>
       </c>
       <c r="K461" t="n">
-        <v>-18.18181818181818</v>
+        <v>0</v>
       </c>
       <c r="L461" t="n">
         <v>5943</v>
@@ -23790,7 +23812,7 @@
         <v>3700</v>
       </c>
       <c r="K462" t="n">
-        <v>-4</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L462" t="n">
         <v>5946</v>
@@ -23841,7 +23863,7 @@
         <v>3705</v>
       </c>
       <c r="K463" t="n">
-        <v>4.166666666666666</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="L463" t="n">
         <v>5949.5</v>
@@ -23892,7 +23914,7 @@
         <v>3710</v>
       </c>
       <c r="K464" t="n">
-        <v>2.040816326530612</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="L464" t="n">
         <v>5953</v>
@@ -23943,7 +23965,7 @@
         <v>3720</v>
       </c>
       <c r="K465" t="n">
-        <v>2.040816326530612</v>
+        <v>21.73913043478261</v>
       </c>
       <c r="L465" t="n">
         <v>5957</v>
@@ -23994,7 +24016,7 @@
         <v>3730</v>
       </c>
       <c r="K466" t="n">
-        <v>4.166666666666666</v>
+        <v>12</v>
       </c>
       <c r="L466" t="n">
         <v>5958.5</v>
@@ -24045,7 +24067,7 @@
         <v>3740</v>
       </c>
       <c r="K467" t="n">
-        <v>8</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L467" t="n">
         <v>5961</v>
@@ -24096,7 +24118,7 @@
         <v>3755</v>
       </c>
       <c r="K468" t="n">
-        <v>5.88235294117647</v>
+        <v>-12</v>
       </c>
       <c r="L468" t="n">
         <v>5960</v>
@@ -24147,7 +24169,7 @@
         <v>3755</v>
       </c>
       <c r="K469" t="n">
-        <v>14.8936170212766</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L469" t="n">
         <v>5958.5</v>
@@ -24198,7 +24220,7 @@
         <v>3760</v>
       </c>
       <c r="K470" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="L470" t="n">
         <v>5955.5</v>
@@ -24249,7 +24271,7 @@
         <v>3765</v>
       </c>
       <c r="K471" t="n">
-        <v>-7.317073170731707</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L471" t="n">
         <v>5955</v>
@@ -24300,7 +24322,7 @@
         <v>3775</v>
       </c>
       <c r="K472" t="n">
-        <v>-7.317073170731707</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L472" t="n">
         <v>5950.5</v>
@@ -24351,7 +24373,7 @@
         <v>3785</v>
       </c>
       <c r="K473" t="n">
-        <v>-11.62790697674419</v>
+        <v>-73.33333333333333</v>
       </c>
       <c r="L473" t="n">
         <v>5944.5</v>
@@ -24402,7 +24424,7 @@
         <v>3795</v>
       </c>
       <c r="K474" t="n">
-        <v>-13.63636363636363</v>
+        <v>-73.33333333333333</v>
       </c>
       <c r="L474" t="n">
         <v>5938</v>
@@ -24453,7 +24475,7 @@
         <v>3800</v>
       </c>
       <c r="K475" t="n">
-        <v>-9.523809523809524</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L475" t="n">
         <v>5932</v>
@@ -24504,7 +24526,7 @@
         <v>3810</v>
       </c>
       <c r="K476" t="n">
-        <v>-12.19512195121951</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L476" t="n">
         <v>5928</v>
@@ -24555,7 +24577,7 @@
         <v>3815</v>
       </c>
       <c r="K477" t="n">
-        <v>-9.523809523809524</v>
+        <v>-50</v>
       </c>
       <c r="L477" t="n">
         <v>5923.5</v>
@@ -24606,7 +24628,7 @@
         <v>3840</v>
       </c>
       <c r="K478" t="n">
-        <v>-6.976744186046512</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L478" t="n">
         <v>5923</v>
@@ -24657,7 +24679,7 @@
         <v>3840</v>
       </c>
       <c r="K479" t="n">
-        <v>-9.523809523809524</v>
+        <v>0</v>
       </c>
       <c r="L479" t="n">
         <v>5922.5</v>
@@ -24708,7 +24730,7 @@
         <v>3865</v>
       </c>
       <c r="K480" t="n">
-        <v>-24.44444444444444</v>
+        <v>-20</v>
       </c>
       <c r="L480" t="n">
         <v>5920</v>
@@ -24759,7 +24781,7 @@
         <v>3870</v>
       </c>
       <c r="K481" t="n">
-        <v>-15</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L481" t="n">
         <v>5917.5</v>
@@ -24810,7 +24832,7 @@
         <v>3870</v>
       </c>
       <c r="K482" t="n">
-        <v>-35.29411764705883</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L482" t="n">
         <v>5916</v>
@@ -24861,7 +24883,7 @@
         <v>3870</v>
       </c>
       <c r="K483" t="n">
-        <v>-39.39393939393939</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L483" t="n">
         <v>5915.5</v>
@@ -24912,7 +24934,7 @@
         <v>3870</v>
       </c>
       <c r="K484" t="n">
-        <v>-37.5</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L484" t="n">
         <v>5916</v>
@@ -24963,7 +24985,7 @@
         <v>3870</v>
       </c>
       <c r="K485" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L485" t="n">
         <v>5917</v>
@@ -25014,7 +25036,7 @@
         <v>3870</v>
       </c>
       <c r="K486" t="n">
-        <v>-28.57142857142857</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L486" t="n">
         <v>5917</v>
@@ -25065,7 +25087,7 @@
         <v>3870</v>
       </c>
       <c r="K487" t="n">
-        <v>-38.46153846153847</v>
+        <v>-100</v>
       </c>
       <c r="L487" t="n">
         <v>5916.5</v>
@@ -25116,7 +25138,7 @@
         <v>3875</v>
       </c>
       <c r="K488" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L488" t="n">
         <v>5913</v>
@@ -25167,7 +25189,7 @@
         <v>3885</v>
       </c>
       <c r="K489" t="n">
-        <v>-38.46153846153847</v>
+        <v>-100</v>
       </c>
       <c r="L489" t="n">
         <v>5908.5</v>
@@ -25218,7 +25240,7 @@
         <v>3890</v>
       </c>
       <c r="K490" t="n">
-        <v>-30.76923076923077</v>
+        <v>-50</v>
       </c>
       <c r="L490" t="n">
         <v>5907</v>
@@ -25269,7 +25291,7 @@
         <v>3895</v>
       </c>
       <c r="K491" t="n">
-        <v>-30.76923076923077</v>
+        <v>-60</v>
       </c>
       <c r="L491" t="n">
         <v>5905.5</v>
@@ -25320,7 +25342,7 @@
         <v>3900</v>
       </c>
       <c r="K492" t="n">
-        <v>-28</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L492" t="n">
         <v>5903.5</v>
@@ -25371,7 +25393,7 @@
         <v>3905</v>
       </c>
       <c r="K493" t="n">
-        <v>-25</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L493" t="n">
         <v>5901</v>
@@ -25422,7 +25444,7 @@
         <v>3905</v>
       </c>
       <c r="K494" t="n">
-        <v>-18.18181818181818</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L494" t="n">
         <v>5898.5</v>
@@ -25473,7 +25495,7 @@
         <v>3930</v>
       </c>
       <c r="K495" t="n">
-        <v>-30.76923076923077</v>
+        <v>-83.33333333333334</v>
       </c>
       <c r="L495" t="n">
         <v>5893.5</v>
@@ -25524,7 +25546,7 @@
         <v>3950</v>
       </c>
       <c r="K496" t="n">
-        <v>-21.42857142857143</v>
+        <v>-37.5</v>
       </c>
       <c r="L496" t="n">
         <v>5890.5</v>
@@ -25575,7 +25597,7 @@
         <v>3955</v>
       </c>
       <c r="K497" t="n">
-        <v>-28.57142857142857</v>
+        <v>-37.5</v>
       </c>
       <c r="L497" t="n">
         <v>5887</v>
@@ -25626,7 +25648,7 @@
         <v>3955</v>
       </c>
       <c r="K498" t="n">
-        <v>-56.52173913043478</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L498" t="n">
         <v>5884</v>
@@ -25677,7 +25699,7 @@
         <v>3955</v>
       </c>
       <c r="K499" t="n">
-        <v>-56.52173913043478</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L499" t="n">
         <v>5882</v>
@@ -25728,7 +25750,7 @@
         <v>3960</v>
       </c>
       <c r="K500" t="n">
-        <v>-36.84210526315789</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L500" t="n">
         <v>5880</v>
@@ -25779,7 +25801,7 @@
         <v>3960</v>
       </c>
       <c r="K501" t="n">
-        <v>-33.33333333333333</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L501" t="n">
         <v>5878.5</v>
@@ -25830,7 +25852,7 @@
         <v>3965</v>
       </c>
       <c r="K502" t="n">
-        <v>-26.31578947368421</v>
+        <v>0</v>
       </c>
       <c r="L502" t="n">
         <v>5878</v>
@@ -25881,7 +25903,7 @@
         <v>3970</v>
       </c>
       <c r="K503" t="n">
-        <v>-20</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L503" t="n">
         <v>5878.5</v>
@@ -25932,7 +25954,7 @@
         <v>3980</v>
       </c>
       <c r="K504" t="n">
-        <v>-27.27272727272727</v>
+        <v>40</v>
       </c>
       <c r="L504" t="n">
         <v>5878</v>
@@ -25983,7 +26005,7 @@
         <v>3980</v>
       </c>
       <c r="K505" t="n">
-        <v>-27.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="L505" t="n">
         <v>5880</v>
@@ -26034,7 +26056,7 @@
         <v>3980</v>
       </c>
       <c r="K506" t="n">
-        <v>-27.27272727272727</v>
+        <v>20</v>
       </c>
       <c r="L506" t="n">
         <v>5880</v>
@@ -26085,7 +26107,7 @@
         <v>3980</v>
       </c>
       <c r="K507" t="n">
-        <v>-27.27272727272727</v>
+        <v>20</v>
       </c>
       <c r="L507" t="n">
         <v>5880.5</v>
@@ -26136,7 +26158,7 @@
         <v>3980</v>
       </c>
       <c r="K508" t="n">
-        <v>-23.80952380952381</v>
+        <v>20</v>
       </c>
       <c r="L508" t="n">
         <v>5881</v>
@@ -26187,7 +26209,7 @@
         <v>3990</v>
       </c>
       <c r="K509" t="n">
-        <v>-23.80952380952381</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L509" t="n">
         <v>5880.5</v>
@@ -26238,7 +26260,7 @@
         <v>3990</v>
       </c>
       <c r="K510" t="n">
-        <v>-30</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L510" t="n">
         <v>5879.5</v>
@@ -26289,7 +26311,7 @@
         <v>4005</v>
       </c>
       <c r="K511" t="n">
-        <v>-36.36363636363637</v>
+        <v>-75</v>
       </c>
       <c r="L511" t="n">
         <v>5877</v>
@@ -26340,7 +26362,7 @@
         <v>4020</v>
       </c>
       <c r="K512" t="n">
-        <v>-16.66666666666666</v>
+        <v>-40</v>
       </c>
       <c r="L512" t="n">
         <v>5875.5</v>
@@ -26391,7 +26413,7 @@
         <v>4020</v>
       </c>
       <c r="K513" t="n">
-        <v>-13.04347826086956</v>
+        <v>-25</v>
       </c>
       <c r="L513" t="n">
         <v>5873.5</v>
@@ -26442,7 +26464,7 @@
         <v>4020</v>
       </c>
       <c r="K514" t="n">
-        <v>-13.04347826086956</v>
+        <v>-25</v>
       </c>
       <c r="L514" t="n">
         <v>5872.5</v>
@@ -26493,7 +26515,7 @@
         <v>4025</v>
       </c>
       <c r="K515" t="n">
-        <v>5.263157894736842</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L515" t="n">
         <v>5871</v>
@@ -26544,7 +26566,7 @@
         <v>4025</v>
       </c>
       <c r="K516" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L516" t="n">
         <v>5869.5</v>
@@ -26595,7 +26617,7 @@
         <v>4035</v>
       </c>
       <c r="K517" t="n">
-        <v>-25</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L517" t="n">
         <v>5867</v>
@@ -26646,7 +26668,7 @@
         <v>4040</v>
       </c>
       <c r="K518" t="n">
-        <v>-17.64705882352941</v>
+        <v>-20</v>
       </c>
       <c r="L518" t="n">
         <v>5865</v>
@@ -26697,7 +26719,7 @@
         <v>4055</v>
       </c>
       <c r="K519" t="n">
-        <v>-30</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L519" t="n">
         <v>5862.5</v>
@@ -26748,7 +26770,7 @@
         <v>4075</v>
       </c>
       <c r="K520" t="n">
-        <v>-13.04347826086956</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L520" t="n">
         <v>5862</v>
@@ -26799,7 +26821,7 @@
         <v>4080</v>
       </c>
       <c r="K521" t="n">
-        <v>-8.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="L521" t="n">
         <v>5863.5</v>
@@ -26850,7 +26872,7 @@
         <v>4095</v>
       </c>
       <c r="K522" t="n">
-        <v>-23.07692307692308</v>
+        <v>-20</v>
       </c>
       <c r="L522" t="n">
         <v>5862</v>
@@ -26901,7 +26923,7 @@
         <v>4115</v>
       </c>
       <c r="K523" t="n">
-        <v>-10.3448275862069</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L523" t="n">
         <v>5862.5</v>
@@ -26952,7 +26974,7 @@
         <v>4120</v>
       </c>
       <c r="K524" t="n">
-        <v>-7.142857142857142</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L524" t="n">
         <v>5862.5</v>
@@ -27003,7 +27025,7 @@
         <v>4135</v>
       </c>
       <c r="K525" t="n">
-        <v>-16.12903225806452</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L525" t="n">
         <v>5861.5</v>
@@ -27054,7 +27076,7 @@
         <v>4140</v>
       </c>
       <c r="K526" t="n">
-        <v>-18.75</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L526" t="n">
         <v>5860</v>
@@ -27105,7 +27127,7 @@
         <v>4140</v>
       </c>
       <c r="K527" t="n">
-        <v>-18.75</v>
+        <v>-10</v>
       </c>
       <c r="L527" t="n">
         <v>5859.5</v>
@@ -27156,7 +27178,7 @@
         <v>4140</v>
       </c>
       <c r="K528" t="n">
-        <v>-18.75</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L528" t="n">
         <v>5858.5</v>
@@ -27207,7 +27229,7 @@
         <v>4140</v>
       </c>
       <c r="K529" t="n">
-        <v>-13.33333333333333</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L529" t="n">
         <v>5859</v>
@@ -27258,7 +27280,7 @@
         <v>4150</v>
       </c>
       <c r="K530" t="n">
-        <v>-6.25</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L530" t="n">
         <v>5858.5</v>
@@ -27309,7 +27331,7 @@
         <v>4150</v>
       </c>
       <c r="K531" t="n">
-        <v>3.448275862068965</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L531" t="n">
         <v>5857.5</v>
@@ -27360,7 +27382,7 @@
         <v>4155</v>
       </c>
       <c r="K532" t="n">
-        <v>-3.703703703703703</v>
+        <v>-25</v>
       </c>
       <c r="L532" t="n">
         <v>5858.5</v>
@@ -27462,7 +27484,7 @@
         <v>4160</v>
       </c>
       <c r="K534" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L534" t="n">
         <v>5858</v>
@@ -27513,7 +27535,7 @@
         <v>4165</v>
       </c>
       <c r="K535" t="n">
-        <v>7.142857142857142</v>
+        <v>100</v>
       </c>
       <c r="L535" t="n">
         <v>5860</v>
@@ -27564,7 +27586,7 @@
         <v>4185</v>
       </c>
       <c r="K536" t="n">
-        <v>-6.25</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L536" t="n">
         <v>5860.5</v>
@@ -27615,7 +27637,7 @@
         <v>4195</v>
       </c>
       <c r="K537" t="n">
-        <v>6.25</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L537" t="n">
         <v>5862</v>
@@ -27666,7 +27688,7 @@
         <v>4200</v>
       </c>
       <c r="K538" t="n">
-        <v>0</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L538" t="n">
         <v>5863</v>
@@ -27717,7 +27739,7 @@
         <v>4210</v>
       </c>
       <c r="K539" t="n">
-        <v>3.225806451612903</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L539" t="n">
         <v>5863</v>
@@ -27768,7 +27790,7 @@
         <v>4220</v>
       </c>
       <c r="K540" t="n">
-        <v>-3.448275862068965</v>
+        <v>0</v>
       </c>
       <c r="L540" t="n">
         <v>5863</v>
@@ -27819,7 +27841,7 @@
         <v>4225</v>
       </c>
       <c r="K541" t="n">
-        <v>-3.448275862068965</v>
+        <v>0</v>
       </c>
       <c r="L541" t="n">
         <v>5863.5</v>
@@ -27870,7 +27892,7 @@
         <v>4225</v>
       </c>
       <c r="K542" t="n">
-        <v>7.692307692307693</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L542" t="n">
         <v>5863.5</v>
@@ -27921,7 +27943,7 @@
         <v>4235</v>
       </c>
       <c r="K543" t="n">
-        <v>-16.66666666666666</v>
+        <v>-20</v>
       </c>
       <c r="L543" t="n">
         <v>5862</v>
@@ -27972,7 +27994,7 @@
         <v>4240</v>
       </c>
       <c r="K544" t="n">
-        <v>-16.66666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L544" t="n">
         <v>5860</v>
@@ -28023,7 +28045,7 @@
         <v>4250</v>
       </c>
       <c r="K545" t="n">
-        <v>4.347826086956522</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L545" t="n">
         <v>5858.5</v>
@@ -28074,7 +28096,7 @@
         <v>4260</v>
       </c>
       <c r="K546" t="n">
-        <v>16.66666666666666</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L546" t="n">
         <v>5860</v>
@@ -28125,7 +28147,7 @@
         <v>4280</v>
       </c>
       <c r="K547" t="n">
-        <v>28.57142857142857</v>
+        <v>37.5</v>
       </c>
       <c r="L547" t="n">
         <v>5862.5</v>
@@ -28176,7 +28198,7 @@
         <v>4280</v>
       </c>
       <c r="K548" t="n">
-        <v>28.57142857142857</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L548" t="n">
         <v>5865.5</v>
@@ -28227,7 +28249,7 @@
         <v>4290</v>
       </c>
       <c r="K549" t="n">
-        <v>20</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L549" t="n">
         <v>5868.5</v>
@@ -28278,7 +28300,7 @@
         <v>4305</v>
       </c>
       <c r="K550" t="n">
-        <v>3.225806451612903</v>
+        <v>0</v>
       </c>
       <c r="L550" t="n">
         <v>5869</v>
@@ -28329,7 +28351,7 @@
         <v>4320</v>
       </c>
       <c r="K551" t="n">
-        <v>11.76470588235294</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L551" t="n">
         <v>5870.5</v>
@@ -28380,7 +28402,7 @@
         <v>4335</v>
       </c>
       <c r="K552" t="n">
-        <v>16.66666666666666</v>
+        <v>40</v>
       </c>
       <c r="L552" t="n">
         <v>5873.5</v>
@@ -28431,7 +28453,7 @@
         <v>4335</v>
       </c>
       <c r="K553" t="n">
-        <v>14.28571428571428</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="L553" t="n">
         <v>5877.5</v>
@@ -28482,7 +28504,7 @@
         <v>4395</v>
       </c>
       <c r="K554" t="n">
-        <v>-14.8936170212766</v>
+        <v>-17.24137931034483</v>
       </c>
       <c r="L554" t="n">
         <v>5876</v>
@@ -28533,7 +28555,7 @@
         <v>4415</v>
       </c>
       <c r="K555" t="n">
-        <v>-8</v>
+        <v>-9.67741935483871</v>
       </c>
       <c r="L555" t="n">
         <v>5875.5</v>
@@ -28584,7 +28606,7 @@
         <v>4440</v>
       </c>
       <c r="K556" t="n">
-        <v>9.803921568627452</v>
+        <v>-6.25</v>
       </c>
       <c r="L556" t="n">
         <v>5876.5</v>
@@ -28635,7 +28657,7 @@
         <v>4450</v>
       </c>
       <c r="K557" t="n">
-        <v>9.803921568627452</v>
+        <v>0</v>
       </c>
       <c r="L557" t="n">
         <v>5876.5</v>
@@ -28686,7 +28708,7 @@
         <v>4450</v>
       </c>
       <c r="K558" t="n">
-        <v>12</v>
+        <v>6.25</v>
       </c>
       <c r="L558" t="n">
         <v>5876.5</v>
@@ -28737,7 +28759,7 @@
         <v>4450</v>
       </c>
       <c r="K559" t="n">
-        <v>16.66666666666666</v>
+        <v>17.24137931034483</v>
       </c>
       <c r="L559" t="n">
         <v>5877.5</v>
@@ -28788,7 +28810,7 @@
         <v>4450</v>
       </c>
       <c r="K560" t="n">
-        <v>13.04347826086956</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L560" t="n">
         <v>5880</v>
@@ -28839,7 +28861,7 @@
         <v>4455</v>
       </c>
       <c r="K561" t="n">
-        <v>8.695652173913043</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L561" t="n">
         <v>5880.5</v>
@@ -28890,7 +28912,7 @@
         <v>4475</v>
       </c>
       <c r="K562" t="n">
-        <v>0</v>
+        <v>-21.42857142857143</v>
       </c>
       <c r="L562" t="n">
         <v>5877.5</v>
@@ -28941,7 +28963,7 @@
         <v>4510</v>
       </c>
       <c r="K563" t="n">
-        <v>16.36363636363636</v>
+        <v>56.52173913043478</v>
       </c>
       <c r="L563" t="n">
         <v>5878</v>
@@ -28992,7 +29014,7 @@
         <v>4530</v>
       </c>
       <c r="K564" t="n">
-        <v>10.3448275862069</v>
+        <v>21.73913043478261</v>
       </c>
       <c r="L564" t="n">
         <v>5882.5</v>
@@ -29043,7 +29065,7 @@
         <v>4530</v>
       </c>
       <c r="K565" t="n">
-        <v>7.142857142857142</v>
+        <v>0</v>
       </c>
       <c r="L565" t="n">
         <v>5885</v>
@@ -29094,7 +29116,7 @@
         <v>4545</v>
       </c>
       <c r="K566" t="n">
-        <v>8.771929824561402</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L566" t="n">
         <v>5886.5</v>
@@ -29145,7 +29167,7 @@
         <v>4550</v>
       </c>
       <c r="K567" t="n">
-        <v>3.703703703703703</v>
+        <v>10</v>
       </c>
       <c r="L567" t="n">
         <v>5887.5</v>
@@ -29247,7 +29269,7 @@
         <v>4560</v>
       </c>
       <c r="K569" t="n">
-        <v>3.703703703703703</v>
+        <v>0</v>
       </c>
       <c r="L569" t="n">
         <v>5887.5</v>
@@ -29298,7 +29320,7 @@
         <v>4575</v>
       </c>
       <c r="K570" t="n">
-        <v>3.703703703703703</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L570" t="n">
         <v>5886</v>
@@ -29349,7 +29371,7 @@
         <v>4580</v>
       </c>
       <c r="K571" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L571" t="n">
         <v>5885.5</v>
@@ -29400,7 +29422,7 @@
         <v>4600</v>
       </c>
       <c r="K572" t="n">
-        <v>1.886792452830189</v>
+        <v>0</v>
       </c>
       <c r="L572" t="n">
         <v>5889</v>
@@ -29451,7 +29473,7 @@
         <v>4600</v>
       </c>
       <c r="K573" t="n">
-        <v>1.886792452830189</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L573" t="n">
         <v>5889</v>
@@ -29502,7 +29524,7 @@
         <v>4600</v>
       </c>
       <c r="K574" t="n">
-        <v>31.70731707317073</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L574" t="n">
         <v>5891</v>
@@ -29553,7 +29575,7 @@
         <v>4600</v>
       </c>
       <c r="K575" t="n">
-        <v>24.32432432432433</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L575" t="n">
         <v>5893</v>
@@ -29604,7 +29626,7 @@
         <v>4605</v>
       </c>
       <c r="K576" t="n">
-        <v>15.15151515151515</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L576" t="n">
         <v>5894</v>
@@ -29655,7 +29677,7 @@
         <v>4650</v>
       </c>
       <c r="K577" t="n">
-        <v>30</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L577" t="n">
         <v>5899</v>
@@ -29706,7 +29728,7 @@
         <v>4690</v>
       </c>
       <c r="K578" t="n">
-        <v>8.333333333333332</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="L578" t="n">
         <v>5901</v>
@@ -29757,7 +29779,7 @@
         <v>4690</v>
       </c>
       <c r="K579" t="n">
-        <v>8.333333333333332</v>
+        <v>30.43478260869566</v>
       </c>
       <c r="L579" t="n">
         <v>5903</v>
@@ -29808,7 +29830,7 @@
         <v>4695</v>
       </c>
       <c r="K580" t="n">
-        <v>6.122448979591836</v>
+        <v>21.73913043478261</v>
       </c>
       <c r="L580" t="n">
         <v>5906</v>
@@ -29859,7 +29881,7 @@
         <v>4695</v>
       </c>
       <c r="K581" t="n">
-        <v>8.333333333333332</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L581" t="n">
         <v>5908.5</v>
@@ -29910,7 +29932,7 @@
         <v>4695</v>
       </c>
       <c r="K582" t="n">
-        <v>18.18181818181818</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L582" t="n">
         <v>5909</v>
@@ -29961,7 +29983,7 @@
         <v>4700</v>
       </c>
       <c r="K583" t="n">
-        <v>5.263157894736842</v>
+        <v>10</v>
       </c>
       <c r="L583" t="n">
         <v>5910</v>
@@ -30012,7 +30034,7 @@
         <v>4700</v>
       </c>
       <c r="K584" t="n">
-        <v>17.64705882352941</v>
+        <v>10</v>
       </c>
       <c r="L584" t="n">
         <v>5911</v>
@@ -30063,7 +30085,7 @@
         <v>4710</v>
       </c>
       <c r="K585" t="n">
-        <v>22.22222222222222</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L585" t="n">
         <v>5913</v>
@@ -30114,7 +30136,7 @@
         <v>4715</v>
       </c>
       <c r="K586" t="n">
-        <v>17.64705882352941</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L586" t="n">
         <v>5915</v>
@@ -30165,7 +30187,7 @@
         <v>4725</v>
       </c>
       <c r="K587" t="n">
-        <v>20</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L587" t="n">
         <v>5913.5</v>
@@ -30216,7 +30238,7 @@
         <v>4730</v>
       </c>
       <c r="K588" t="n">
-        <v>29.41176470588236</v>
+        <v>75</v>
       </c>
       <c r="L588" t="n">
         <v>5916.5</v>
@@ -30267,7 +30289,7 @@
         <v>4735</v>
       </c>
       <c r="K589" t="n">
-        <v>31.42857142857143</v>
+        <v>100</v>
       </c>
       <c r="L589" t="n">
         <v>5920</v>
@@ -30318,7 +30340,7 @@
         <v>4740</v>
       </c>
       <c r="K590" t="n">
-        <v>45.45454545454545</v>
+        <v>100</v>
       </c>
       <c r="L590" t="n">
         <v>5924.5</v>
@@ -30369,7 +30391,7 @@
         <v>4750</v>
       </c>
       <c r="K591" t="n">
-        <v>35.29411764705883</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L591" t="n">
         <v>5928</v>
@@ -30420,7 +30442,7 @@
         <v>4750</v>
       </c>
       <c r="K592" t="n">
-        <v>26.66666666666667</v>
+        <v>60</v>
       </c>
       <c r="L592" t="n">
         <v>5931.5</v>
@@ -30471,7 +30493,7 @@
         <v>4770</v>
       </c>
       <c r="K593" t="n">
-        <v>35.29411764705883</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L593" t="n">
         <v>5936.5</v>
@@ -30522,7 +30544,7 @@
         <v>4790</v>
       </c>
       <c r="K594" t="n">
-        <v>42.10526315789473</v>
+        <v>75</v>
       </c>
       <c r="L594" t="n">
         <v>5943.5</v>
@@ -30573,7 +30595,7 @@
         <v>4805</v>
       </c>
       <c r="K595" t="n">
-        <v>46.34146341463415</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L595" t="n">
         <v>5951</v>
@@ -30624,7 +30646,7 @@
         <v>4840</v>
       </c>
       <c r="K596" t="n">
-        <v>23.40425531914894</v>
+        <v>21.73913043478261</v>
       </c>
       <c r="L596" t="n">
         <v>5954.5</v>
@@ -30675,7 +30697,7 @@
         <v>4840</v>
       </c>
       <c r="K597" t="n">
-        <v>5.263157894736842</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L597" t="n">
         <v>5957</v>
@@ -30726,7 +30748,7 @@
         <v>4850</v>
       </c>
       <c r="K598" t="n">
-        <v>37.5</v>
+        <v>21.73913043478261</v>
       </c>
       <c r="L598" t="n">
         <v>5960</v>
@@ -30777,7 +30799,7 @@
         <v>4855</v>
       </c>
       <c r="K599" t="n">
-        <v>39.39393939393939</v>
+        <v>21.73913043478261</v>
       </c>
       <c r="L599" t="n">
         <v>5963</v>
@@ -30828,7 +30850,7 @@
         <v>4865</v>
       </c>
       <c r="K600" t="n">
-        <v>35.29411764705883</v>
+        <v>21.73913043478261</v>
       </c>
       <c r="L600" t="n">
         <v>5964.5</v>
@@ -30879,7 +30901,7 @@
         <v>4870</v>
       </c>
       <c r="K601" t="n">
-        <v>37.14285714285715</v>
+        <v>25</v>
       </c>
       <c r="L601" t="n">
         <v>5967.5</v>
@@ -30930,7 +30952,7 @@
         <v>4880</v>
       </c>
       <c r="K602" t="n">
-        <v>40.54054054054054</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L602" t="n">
         <v>5971.5</v>
@@ -30981,7 +31003,7 @@
         <v>4905</v>
       </c>
       <c r="K603" t="n">
-        <v>21.95121951219512</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L603" t="n">
         <v>5971</v>
@@ -31032,7 +31054,7 @@
         <v>4905</v>
       </c>
       <c r="K604" t="n">
-        <v>21.95121951219512</v>
+        <v>-40</v>
       </c>
       <c r="L604" t="n">
         <v>5968.5</v>
@@ -31083,7 +31105,7 @@
         <v>4905</v>
       </c>
       <c r="K605" t="n">
-        <v>17.94871794871795</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L605" t="n">
         <v>5964.5</v>
@@ -31134,7 +31156,7 @@
         <v>4910</v>
       </c>
       <c r="K606" t="n">
-        <v>12.82051282051282</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L606" t="n">
         <v>5963.5</v>
@@ -31185,7 +31207,7 @@
         <v>4910</v>
       </c>
       <c r="K607" t="n">
-        <v>8.108108108108109</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L607" t="n">
         <v>5962.5</v>
@@ -31236,7 +31258,7 @@
         <v>4910</v>
       </c>
       <c r="K608" t="n">
-        <v>5.555555555555555</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L608" t="n">
         <v>5960.5</v>
@@ -31287,7 +31309,7 @@
         <v>4910</v>
       </c>
       <c r="K609" t="n">
-        <v>2.857142857142857</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L609" t="n">
         <v>5958</v>
@@ -31338,7 +31360,7 @@
         <v>4910</v>
       </c>
       <c r="K610" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L610" t="n">
         <v>5956.5</v>
@@ -31389,7 +31411,7 @@
         <v>4910</v>
       </c>
       <c r="K611" t="n">
-        <v>6.25</v>
+        <v>-100</v>
       </c>
       <c r="L611" t="n">
         <v>5954.5</v>
@@ -31440,7 +31462,7 @@
         <v>4910</v>
       </c>
       <c r="K612" t="n">
-        <v>6.25</v>
+        <v>-100</v>
       </c>
       <c r="L612" t="n">
         <v>5951.5</v>
@@ -31491,7 +31513,7 @@
         <v>4910</v>
       </c>
       <c r="K613" t="n">
-        <v>-7.142857142857142</v>
+        <v>-100</v>
       </c>
       <c r="L613" t="n">
         <v>5951</v>
@@ -31542,7 +31564,7 @@
         <v>4910</v>
       </c>
       <c r="K614" t="n">
-        <v>-25</v>
+        <v>-100</v>
       </c>
       <c r="L614" t="n">
         <v>5950.5</v>
@@ -31592,9 +31614,7 @@
       <c r="J615" t="n">
         <v>4910</v>
       </c>
-      <c r="K615" t="n">
-        <v>-42.85714285714285</v>
-      </c>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>5950</v>
       </c>
@@ -31644,7 +31664,7 @@
         <v>4915</v>
       </c>
       <c r="K616" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L616" t="n">
         <v>5949.5</v>
@@ -31695,7 +31715,7 @@
         <v>4920</v>
       </c>
       <c r="K617" t="n">
-        <v>-12.5</v>
+        <v>0</v>
       </c>
       <c r="L617" t="n">
         <v>5949.5</v>
@@ -31746,7 +31766,7 @@
         <v>4920</v>
       </c>
       <c r="K618" t="n">
-        <v>-28.57142857142857</v>
+        <v>0</v>
       </c>
       <c r="L618" t="n">
         <v>5949.5</v>
@@ -31797,7 +31817,7 @@
         <v>4940</v>
       </c>
       <c r="K619" t="n">
-        <v>-52.94117647058824</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L619" t="n">
         <v>5947.5</v>
@@ -31848,7 +31868,7 @@
         <v>4940</v>
       </c>
       <c r="K620" t="n">
-        <v>-46.66666666666666</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L620" t="n">
         <v>5945.5</v>
@@ -31899,7 +31919,7 @@
         <v>4980</v>
       </c>
       <c r="K621" t="n">
-        <v>-72.72727272727273</v>
+        <v>-85.71428571428571</v>
       </c>
       <c r="L621" t="n">
         <v>5939.5</v>
@@ -31950,7 +31970,7 @@
         <v>4990</v>
       </c>
       <c r="K622" t="n">
-        <v>-90.90909090909091</v>
+        <v>-87.5</v>
       </c>
       <c r="L622" t="n">
         <v>5932.5</v>
@@ -32001,7 +32021,7 @@
         <v>4995</v>
       </c>
       <c r="K623" t="n">
-        <v>-88.88888888888889</v>
+        <v>-88.23529411764706</v>
       </c>
       <c r="L623" t="n">
         <v>5925</v>
@@ -32052,7 +32072,7 @@
         <v>5010</v>
       </c>
       <c r="K624" t="n">
-        <v>-90.47619047619048</v>
+        <v>-90</v>
       </c>
       <c r="L624" t="n">
         <v>5916</v>
@@ -32103,7 +32123,7 @@
         <v>5015</v>
       </c>
       <c r="K625" t="n">
-        <v>-81.81818181818183</v>
+        <v>-80</v>
       </c>
       <c r="L625" t="n">
         <v>5907.5</v>
@@ -32154,7 +32174,7 @@
         <v>5020</v>
       </c>
       <c r="K626" t="n">
-        <v>-72.72727272727273</v>
+        <v>-80</v>
       </c>
       <c r="L626" t="n">
         <v>5900</v>
@@ -32205,7 +32225,7 @@
         <v>5030</v>
       </c>
       <c r="K627" t="n">
-        <v>-75</v>
+        <v>-81.81818181818183</v>
       </c>
       <c r="L627" t="n">
         <v>5891</v>
@@ -32256,7 +32276,7 @@
         <v>5035</v>
       </c>
       <c r="K628" t="n">
-        <v>-76</v>
+        <v>-78.94736842105263</v>
       </c>
       <c r="L628" t="n">
         <v>5881.5</v>
@@ -32307,7 +32327,7 @@
         <v>5055</v>
       </c>
       <c r="K629" t="n">
-        <v>-51.72413793103448</v>
+        <v>-47.82608695652174</v>
       </c>
       <c r="L629" t="n">
         <v>5876</v>
@@ -32358,7 +32378,7 @@
         <v>5060</v>
       </c>
       <c r="K630" t="n">
-        <v>-53.33333333333334</v>
+        <v>-25</v>
       </c>
       <c r="L630" t="n">
         <v>5870</v>
@@ -32409,7 +32429,7 @@
         <v>5060</v>
       </c>
       <c r="K631" t="n">
-        <v>-53.33333333333334</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L631" t="n">
         <v>5868</v>
@@ -32460,7 +32480,7 @@
         <v>5065</v>
       </c>
       <c r="K632" t="n">
-        <v>-48.38709677419355</v>
+        <v>0</v>
       </c>
       <c r="L632" t="n">
         <v>5867.5</v>
@@ -32511,7 +32531,7 @@
         <v>5105</v>
       </c>
       <c r="K633" t="n">
-        <v>-58.97435897435898</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L633" t="n">
         <v>5863.5</v>
@@ -32562,7 +32582,7 @@
         <v>5105</v>
       </c>
       <c r="K634" t="n">
-        <v>-58.97435897435898</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L634" t="n">
         <v>5861</v>
@@ -32613,7 +32633,7 @@
         <v>5110</v>
       </c>
       <c r="K635" t="n">
-        <v>-55.00000000000001</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L635" t="n">
         <v>5858.5</v>
@@ -32664,7 +32684,7 @@
         <v>5130</v>
       </c>
       <c r="K636" t="n">
-        <v>-58.13953488372093</v>
+        <v>-40</v>
       </c>
       <c r="L636" t="n">
         <v>5853.5</v>
@@ -32715,7 +32735,7 @@
         <v>5145</v>
       </c>
       <c r="K637" t="n">
-        <v>-51.11111111111111</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L637" t="n">
         <v>5851</v>
@@ -32766,7 +32786,7 @@
         <v>5160</v>
       </c>
       <c r="K638" t="n">
-        <v>-41.66666666666667</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L638" t="n">
         <v>5850.5</v>
@@ -32817,7 +32837,7 @@
         <v>5175</v>
       </c>
       <c r="K639" t="n">
-        <v>-40.42553191489361</v>
+        <v>-30.43478260869566</v>
       </c>
       <c r="L639" t="n">
         <v>5846.5</v>
@@ -32868,7 +32888,7 @@
         <v>5190</v>
       </c>
       <c r="K640" t="n">
-        <v>-44</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L640" t="n">
         <v>5841.5</v>
@@ -32919,7 +32939,7 @@
         <v>5205</v>
       </c>
       <c r="K641" t="n">
-        <v>-24.44444444444444</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L641" t="n">
         <v>5838</v>
@@ -32970,7 +32990,7 @@
         <v>5205</v>
       </c>
       <c r="K642" t="n">
-        <v>-20.93023255813954</v>
+        <v>0</v>
       </c>
       <c r="L642" t="n">
         <v>5834</v>
@@ -33021,7 +33041,7 @@
         <v>5240</v>
       </c>
       <c r="K643" t="n">
-        <v>-30.61224489795918</v>
+        <v>-25.92592592592592</v>
       </c>
       <c r="L643" t="n">
         <v>5830.5</v>
@@ -33072,7 +33092,7 @@
         <v>5250</v>
       </c>
       <c r="K644" t="n">
-        <v>-20.83333333333334</v>
+        <v>-21.42857142857143</v>
       </c>
       <c r="L644" t="n">
         <v>5828</v>
@@ -33123,7 +33143,7 @@
         <v>5255</v>
       </c>
       <c r="K645" t="n">
-        <v>-20.83333333333334</v>
+        <v>-4</v>
       </c>
       <c r="L645" t="n">
         <v>5825.5</v>
@@ -33174,7 +33194,7 @@
         <v>5255</v>
       </c>
       <c r="K646" t="n">
-        <v>-23.40425531914894</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L646" t="n">
         <v>5825</v>
@@ -33225,7 +33245,7 @@
         <v>5260</v>
       </c>
       <c r="K647" t="n">
-        <v>-17.39130434782609</v>
+        <v>-30</v>
       </c>
       <c r="L647" t="n">
         <v>5823.5</v>
@@ -33276,7 +33296,7 @@
         <v>5270</v>
       </c>
       <c r="K648" t="n">
-        <v>-19.14893617021277</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L648" t="n">
         <v>5819.5</v>
@@ -33327,7 +33347,7 @@
         <v>5280</v>
       </c>
       <c r="K649" t="n">
-        <v>-24.44444444444444</v>
+        <v>0</v>
       </c>
       <c r="L649" t="n">
         <v>5818</v>
@@ -33378,7 +33398,7 @@
         <v>5300</v>
       </c>
       <c r="K650" t="n">
-        <v>-29.16666666666667</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L650" t="n">
         <v>5816</v>
@@ -33429,7 +33449,7 @@
         <v>5315</v>
       </c>
       <c r="K651" t="n">
-        <v>-33.33333333333333</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L651" t="n">
         <v>5811</v>
@@ -33480,7 +33500,7 @@
         <v>5325</v>
       </c>
       <c r="K652" t="n">
-        <v>-30.76923076923077</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L652" t="n">
         <v>5807</v>
@@ -33531,7 +33551,7 @@
         <v>5335</v>
       </c>
       <c r="K653" t="n">
-        <v>-13.04347826086956</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L653" t="n">
         <v>5807.5</v>
@@ -33582,7 +33602,7 @@
         <v>5350</v>
       </c>
       <c r="K654" t="n">
-        <v>-6.122448979591836</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L654" t="n">
         <v>5808.5</v>
@@ -33633,7 +33653,7 @@
         <v>5375</v>
       </c>
       <c r="K655" t="n">
-        <v>1.886792452830189</v>
+        <v>25</v>
       </c>
       <c r="L655" t="n">
         <v>5811.5</v>
@@ -33684,7 +33704,7 @@
         <v>5380</v>
       </c>
       <c r="K656" t="n">
-        <v>8</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L656" t="n">
         <v>5814</v>
@@ -33735,7 +33755,7 @@
         <v>5380</v>
       </c>
       <c r="K657" t="n">
-        <v>2.127659574468085</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L657" t="n">
         <v>5816</v>
@@ -33786,7 +33806,7 @@
         <v>5400</v>
       </c>
       <c r="K658" t="n">
-        <v>-12.5</v>
+        <v>0</v>
       </c>
       <c r="L658" t="n">
         <v>5817</v>
@@ -33837,7 +33857,7 @@
         <v>5415</v>
       </c>
       <c r="K659" t="n">
-        <v>0</v>
+        <v>30.43478260869566</v>
       </c>
       <c r="L659" t="n">
         <v>5818.5</v>
@@ -33888,7 +33908,7 @@
         <v>5420</v>
       </c>
       <c r="K660" t="n">
-        <v>8.695652173913043</v>
+        <v>52.38095238095239</v>
       </c>
       <c r="L660" t="n">
         <v>5822.5</v>
@@ -33939,7 +33959,7 @@
         <v>5435</v>
       </c>
       <c r="K661" t="n">
-        <v>8.695652173913043</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="L661" t="n">
         <v>5829.5</v>
@@ -33990,7 +34010,7 @@
         <v>5440</v>
       </c>
       <c r="K662" t="n">
-        <v>6.382978723404255</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L662" t="n">
         <v>5835</v>
@@ -34041,7 +34061,7 @@
         <v>5445</v>
       </c>
       <c r="K663" t="n">
-        <v>26.82926829268293</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L663" t="n">
         <v>5840</v>
@@ -34092,7 +34112,7 @@
         <v>5445</v>
       </c>
       <c r="K664" t="n">
-        <v>23.07692307692308</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L664" t="n">
         <v>5843.5</v>
@@ -34143,7 +34163,7 @@
         <v>5450</v>
       </c>
       <c r="K665" t="n">
-        <v>17.94871794871795</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L665" t="n">
         <v>5844</v>
@@ -34194,7 +34214,7 @@
         <v>5460</v>
       </c>
       <c r="K666" t="n">
-        <v>21.95121951219512</v>
+        <v>25</v>
       </c>
       <c r="L666" t="n">
         <v>5846</v>
@@ -34245,7 +34265,7 @@
         <v>5475</v>
       </c>
       <c r="K667" t="n">
-        <v>25.58139534883721</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="L667" t="n">
         <v>5849.5</v>
@@ -34296,7 +34316,7 @@
         <v>5485</v>
       </c>
       <c r="K668" t="n">
-        <v>25.58139534883721</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L668" t="n">
         <v>5854</v>
@@ -34347,7 +34367,7 @@
         <v>5495</v>
       </c>
       <c r="K669" t="n">
-        <v>16.27906976744186</v>
+        <v>20</v>
       </c>
       <c r="L669" t="n">
         <v>5856</v>
@@ -34398,7 +34418,7 @@
         <v>5495</v>
       </c>
       <c r="K670" t="n">
-        <v>28.2051282051282</v>
+        <v>0</v>
       </c>
       <c r="L670" t="n">
         <v>5857.5</v>

--- a/BackTest/2019-10-10 BackTest ETC.xlsx
+++ b/BackTest/2019-10-10 BackTest ETC.xlsx
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -18476,17 +18476,13 @@
         <v>5905.916666666667</v>
       </c>
       <c r="H517" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I517" t="n">
         <v>0</v>
       </c>
-      <c r="J517" t="n">
-        <v>5855</v>
-      </c>
-      <c r="K517" t="n">
-        <v>5855</v>
-      </c>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="inlineStr"/>
       <c r="M517" t="n">
         <v>1</v>
@@ -18515,22 +18511,14 @@
         <v>5904.333333333333</v>
       </c>
       <c r="H518" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I518" t="n">
         <v>0</v>
       </c>
-      <c r="J518" t="n">
-        <v>5860</v>
-      </c>
-      <c r="K518" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L518" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J518" t="inlineStr"/>
+      <c r="K518" t="inlineStr"/>
+      <c r="L518" t="inlineStr"/>
       <c r="M518" t="n">
         <v>1</v>
       </c>
@@ -18558,22 +18546,14 @@
         <v>5902.416666666667</v>
       </c>
       <c r="H519" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I519" t="n">
         <v>0</v>
       </c>
-      <c r="J519" t="n">
-        <v>5850</v>
-      </c>
-      <c r="K519" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L519" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J519" t="inlineStr"/>
+      <c r="K519" t="inlineStr"/>
+      <c r="L519" t="inlineStr"/>
       <c r="M519" t="n">
         <v>1</v>
       </c>
@@ -18601,22 +18581,14 @@
         <v>5900.666666666667</v>
       </c>
       <c r="H520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I520" t="n">
         <v>0</v>
       </c>
-      <c r="J520" t="n">
-        <v>5865</v>
-      </c>
-      <c r="K520" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J520" t="inlineStr"/>
+      <c r="K520" t="inlineStr"/>
+      <c r="L520" t="inlineStr"/>
       <c r="M520" t="n">
         <v>1</v>
       </c>
@@ -18644,22 +18616,14 @@
         <v>5899.5</v>
       </c>
       <c r="H521" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I521" t="n">
         <v>0</v>
       </c>
-      <c r="J521" t="n">
-        <v>5870</v>
-      </c>
-      <c r="K521" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J521" t="inlineStr"/>
+      <c r="K521" t="inlineStr"/>
+      <c r="L521" t="inlineStr"/>
       <c r="M521" t="n">
         <v>1</v>
       </c>
@@ -18687,22 +18651,14 @@
         <v>5897.583333333333</v>
       </c>
       <c r="H522" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I522" t="n">
         <v>0</v>
       </c>
-      <c r="J522" t="n">
-        <v>5855</v>
-      </c>
-      <c r="K522" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J522" t="inlineStr"/>
+      <c r="K522" t="inlineStr"/>
+      <c r="L522" t="inlineStr"/>
       <c r="M522" t="n">
         <v>1</v>
       </c>
@@ -18730,22 +18686,14 @@
         <v>5895.916666666667</v>
       </c>
       <c r="H523" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I523" t="n">
         <v>0</v>
       </c>
-      <c r="J523" t="n">
-        <v>5875</v>
-      </c>
-      <c r="K523" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J523" t="inlineStr"/>
+      <c r="K523" t="inlineStr"/>
+      <c r="L523" t="inlineStr"/>
       <c r="M523" t="n">
         <v>1</v>
       </c>
@@ -18773,22 +18721,14 @@
         <v>5894.25</v>
       </c>
       <c r="H524" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I524" t="n">
         <v>0</v>
       </c>
-      <c r="J524" t="n">
-        <v>5870</v>
-      </c>
-      <c r="K524" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J524" t="inlineStr"/>
+      <c r="K524" t="inlineStr"/>
+      <c r="L524" t="inlineStr"/>
       <c r="M524" t="n">
         <v>1</v>
       </c>
@@ -18816,22 +18756,14 @@
         <v>5892.5</v>
       </c>
       <c r="H525" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I525" t="n">
         <v>0</v>
       </c>
-      <c r="J525" t="n">
-        <v>5855</v>
-      </c>
-      <c r="K525" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J525" t="inlineStr"/>
+      <c r="K525" t="inlineStr"/>
+      <c r="L525" t="inlineStr"/>
       <c r="M525" t="n">
         <v>1</v>
       </c>
@@ -18859,22 +18791,14 @@
         <v>5890.833333333333</v>
       </c>
       <c r="H526" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I526" t="n">
         <v>0</v>
       </c>
-      <c r="J526" t="n">
-        <v>5845</v>
-      </c>
-      <c r="K526" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J526" t="inlineStr"/>
+      <c r="K526" t="inlineStr"/>
+      <c r="L526" t="inlineStr"/>
       <c r="M526" t="n">
         <v>1</v>
       </c>
@@ -18902,22 +18826,14 @@
         <v>5889</v>
       </c>
       <c r="H527" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I527" t="n">
         <v>0</v>
       </c>
-      <c r="J527" t="n">
-        <v>5840</v>
-      </c>
-      <c r="K527" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J527" t="inlineStr"/>
+      <c r="K527" t="inlineStr"/>
+      <c r="L527" t="inlineStr"/>
       <c r="M527" t="n">
         <v>1</v>
       </c>
@@ -18945,22 +18861,14 @@
         <v>5887.416666666667</v>
       </c>
       <c r="H528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I528" t="n">
         <v>0</v>
       </c>
-      <c r="J528" t="n">
-        <v>5850</v>
-      </c>
-      <c r="K528" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J528" t="inlineStr"/>
+      <c r="K528" t="inlineStr"/>
+      <c r="L528" t="inlineStr"/>
       <c r="M528" t="n">
         <v>1</v>
       </c>
@@ -18988,22 +18896,14 @@
         <v>5885.833333333333</v>
       </c>
       <c r="H529" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I529" t="n">
         <v>0</v>
       </c>
-      <c r="J529" t="n">
-        <v>5850</v>
-      </c>
-      <c r="K529" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J529" t="inlineStr"/>
+      <c r="K529" t="inlineStr"/>
+      <c r="L529" t="inlineStr"/>
       <c r="M529" t="n">
         <v>1</v>
       </c>
@@ -19031,22 +18931,14 @@
         <v>5884.5</v>
       </c>
       <c r="H530" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I530" t="n">
         <v>0</v>
       </c>
-      <c r="J530" t="n">
-        <v>5855</v>
-      </c>
-      <c r="K530" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J530" t="inlineStr"/>
+      <c r="K530" t="inlineStr"/>
+      <c r="L530" t="inlineStr"/>
       <c r="M530" t="n">
         <v>1</v>
       </c>
@@ -19074,22 +18966,14 @@
         <v>5883.25</v>
       </c>
       <c r="H531" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I531" t="n">
         <v>0</v>
       </c>
-      <c r="J531" t="n">
-        <v>5860</v>
-      </c>
-      <c r="K531" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J531" t="inlineStr"/>
+      <c r="K531" t="inlineStr"/>
+      <c r="L531" t="inlineStr"/>
       <c r="M531" t="n">
         <v>1</v>
       </c>
@@ -19117,22 +19001,14 @@
         <v>5882.25</v>
       </c>
       <c r="H532" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I532" t="n">
         <v>0</v>
       </c>
-      <c r="J532" t="n">
-        <v>5860</v>
-      </c>
-      <c r="K532" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J532" t="inlineStr"/>
+      <c r="K532" t="inlineStr"/>
+      <c r="L532" t="inlineStr"/>
       <c r="M532" t="n">
         <v>1</v>
       </c>
@@ -19160,22 +19036,14 @@
         <v>5881.5</v>
       </c>
       <c r="H533" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I533" t="n">
         <v>0</v>
       </c>
-      <c r="J533" t="n">
-        <v>5865</v>
-      </c>
-      <c r="K533" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J533" t="inlineStr"/>
+      <c r="K533" t="inlineStr"/>
+      <c r="L533" t="inlineStr"/>
       <c r="M533" t="n">
         <v>1</v>
       </c>
@@ -19203,22 +19071,14 @@
         <v>5880.916666666667</v>
       </c>
       <c r="H534" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I534" t="n">
         <v>0</v>
       </c>
-      <c r="J534" t="n">
-        <v>5870</v>
-      </c>
-      <c r="K534" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J534" t="inlineStr"/>
+      <c r="K534" t="inlineStr"/>
+      <c r="L534" t="inlineStr"/>
       <c r="M534" t="n">
         <v>1</v>
       </c>
@@ -19246,22 +19106,14 @@
         <v>5880.5</v>
       </c>
       <c r="H535" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I535" t="n">
         <v>0</v>
       </c>
-      <c r="J535" t="n">
-        <v>5870</v>
-      </c>
-      <c r="K535" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J535" t="inlineStr"/>
+      <c r="K535" t="inlineStr"/>
+      <c r="L535" t="inlineStr"/>
       <c r="M535" t="n">
         <v>1</v>
       </c>
@@ -19289,22 +19141,14 @@
         <v>5879.583333333333</v>
       </c>
       <c r="H536" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I536" t="n">
         <v>0</v>
       </c>
-      <c r="J536" t="n">
-        <v>5870</v>
-      </c>
-      <c r="K536" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J536" t="inlineStr"/>
+      <c r="K536" t="inlineStr"/>
+      <c r="L536" t="inlineStr"/>
       <c r="M536" t="n">
         <v>1</v>
       </c>
@@ -19332,22 +19176,14 @@
         <v>5878.75</v>
       </c>
       <c r="H537" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I537" t="n">
         <v>0</v>
       </c>
-      <c r="J537" t="n">
-        <v>5860</v>
-      </c>
-      <c r="K537" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J537" t="inlineStr"/>
+      <c r="K537" t="inlineStr"/>
+      <c r="L537" t="inlineStr"/>
       <c r="M537" t="n">
         <v>1</v>
       </c>
@@ -19375,22 +19211,14 @@
         <v>5877.416666666667</v>
       </c>
       <c r="H538" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I538" t="n">
         <v>0</v>
       </c>
-      <c r="J538" t="n">
-        <v>5860</v>
-      </c>
-      <c r="K538" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J538" t="inlineStr"/>
+      <c r="K538" t="inlineStr"/>
+      <c r="L538" t="inlineStr"/>
       <c r="M538" t="n">
         <v>1</v>
       </c>
@@ -19418,22 +19246,14 @@
         <v>5875.916666666667</v>
       </c>
       <c r="H539" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I539" t="n">
         <v>0</v>
       </c>
-      <c r="J539" t="n">
-        <v>5850</v>
-      </c>
-      <c r="K539" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J539" t="inlineStr"/>
+      <c r="K539" t="inlineStr"/>
+      <c r="L539" t="inlineStr"/>
       <c r="M539" t="n">
         <v>1</v>
       </c>
@@ -19461,22 +19281,14 @@
         <v>5875</v>
       </c>
       <c r="H540" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I540" t="n">
         <v>0</v>
       </c>
-      <c r="J540" t="n">
-        <v>5860</v>
-      </c>
-      <c r="K540" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J540" t="inlineStr"/>
+      <c r="K540" t="inlineStr"/>
+      <c r="L540" t="inlineStr"/>
       <c r="M540" t="n">
         <v>1</v>
       </c>
@@ -19504,22 +19316,14 @@
         <v>5874.25</v>
       </c>
       <c r="H541" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I541" t="n">
         <v>0</v>
       </c>
-      <c r="J541" t="n">
-        <v>5860</v>
-      </c>
-      <c r="K541" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J541" t="inlineStr"/>
+      <c r="K541" t="inlineStr"/>
+      <c r="L541" t="inlineStr"/>
       <c r="M541" t="n">
         <v>1</v>
       </c>
@@ -19547,22 +19351,14 @@
         <v>5873.5</v>
       </c>
       <c r="H542" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I542" t="n">
         <v>0</v>
       </c>
-      <c r="J542" t="n">
-        <v>5865</v>
-      </c>
-      <c r="K542" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J542" t="inlineStr"/>
+      <c r="K542" t="inlineStr"/>
+      <c r="L542" t="inlineStr"/>
       <c r="M542" t="n">
         <v>1</v>
       </c>
@@ -19590,22 +19386,14 @@
         <v>5872.583333333333</v>
       </c>
       <c r="H543" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I543" t="n">
         <v>0</v>
       </c>
-      <c r="J543" t="n">
-        <v>5855</v>
-      </c>
-      <c r="K543" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J543" t="inlineStr"/>
+      <c r="K543" t="inlineStr"/>
+      <c r="L543" t="inlineStr"/>
       <c r="M543" t="n">
         <v>1</v>
       </c>
@@ -19633,22 +19421,14 @@
         <v>5871.583333333333</v>
       </c>
       <c r="H544" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I544" t="n">
         <v>0</v>
       </c>
-      <c r="J544" t="n">
-        <v>5850</v>
-      </c>
-      <c r="K544" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J544" t="inlineStr"/>
+      <c r="K544" t="inlineStr"/>
+      <c r="L544" t="inlineStr"/>
       <c r="M544" t="n">
         <v>1</v>
       </c>
@@ -19676,22 +19456,14 @@
         <v>5870.75</v>
       </c>
       <c r="H545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I545" t="n">
         <v>0</v>
       </c>
-      <c r="J545" t="n">
-        <v>5860</v>
-      </c>
-      <c r="K545" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J545" t="inlineStr"/>
+      <c r="K545" t="inlineStr"/>
+      <c r="L545" t="inlineStr"/>
       <c r="M545" t="n">
         <v>1</v>
       </c>
@@ -19719,22 +19491,14 @@
         <v>5870.083333333333</v>
       </c>
       <c r="H546" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I546" t="n">
         <v>0</v>
       </c>
-      <c r="J546" t="n">
-        <v>5870</v>
-      </c>
-      <c r="K546" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J546" t="inlineStr"/>
+      <c r="K546" t="inlineStr"/>
+      <c r="L546" t="inlineStr"/>
       <c r="M546" t="n">
         <v>1</v>
       </c>
@@ -19762,22 +19526,14 @@
         <v>5869.75</v>
       </c>
       <c r="H547" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I547" t="n">
         <v>0</v>
       </c>
-      <c r="J547" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K547" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J547" t="inlineStr"/>
+      <c r="K547" t="inlineStr"/>
+      <c r="L547" t="inlineStr"/>
       <c r="M547" t="n">
         <v>1</v>
       </c>
@@ -19805,22 +19561,14 @@
         <v>5869.5</v>
       </c>
       <c r="H548" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I548" t="n">
         <v>0</v>
       </c>
-      <c r="J548" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K548" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J548" t="inlineStr"/>
+      <c r="K548" t="inlineStr"/>
+      <c r="L548" t="inlineStr"/>
       <c r="M548" t="n">
         <v>1</v>
       </c>
@@ -19848,22 +19596,14 @@
         <v>5869.25</v>
       </c>
       <c r="H549" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I549" t="n">
         <v>0</v>
       </c>
-      <c r="J549" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K549" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J549" t="inlineStr"/>
+      <c r="K549" t="inlineStr"/>
+      <c r="L549" t="inlineStr"/>
       <c r="M549" t="n">
         <v>1</v>
       </c>
@@ -19891,22 +19631,14 @@
         <v>5868.666666666667</v>
       </c>
       <c r="H550" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I550" t="n">
         <v>0</v>
       </c>
-      <c r="J550" t="n">
-        <v>5870</v>
-      </c>
-      <c r="K550" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J550" t="inlineStr"/>
+      <c r="K550" t="inlineStr"/>
+      <c r="L550" t="inlineStr"/>
       <c r="M550" t="n">
         <v>1</v>
       </c>
@@ -19934,22 +19666,14 @@
         <v>5868.416666666667</v>
       </c>
       <c r="H551" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I551" t="n">
         <v>0</v>
       </c>
-      <c r="J551" t="n">
-        <v>5875</v>
-      </c>
-      <c r="K551" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J551" t="inlineStr"/>
+      <c r="K551" t="inlineStr"/>
+      <c r="L551" t="inlineStr"/>
       <c r="M551" t="n">
         <v>1</v>
       </c>
@@ -19977,22 +19701,14 @@
         <v>5868.5</v>
       </c>
       <c r="H552" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I552" t="n">
         <v>0</v>
       </c>
-      <c r="J552" t="n">
-        <v>5895</v>
-      </c>
-      <c r="K552" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J552" t="inlineStr"/>
+      <c r="K552" t="inlineStr"/>
+      <c r="L552" t="inlineStr"/>
       <c r="M552" t="n">
         <v>1</v>
       </c>
@@ -20020,22 +19736,14 @@
         <v>5868.666666666667</v>
       </c>
       <c r="H553" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I553" t="n">
         <v>0</v>
       </c>
-      <c r="J553" t="n">
-        <v>5895</v>
-      </c>
-      <c r="K553" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J553" t="inlineStr"/>
+      <c r="K553" t="inlineStr"/>
+      <c r="L553" t="inlineStr"/>
       <c r="M553" t="n">
         <v>1</v>
       </c>
@@ -20063,22 +19771,14 @@
         <v>5867.833333333333</v>
       </c>
       <c r="H554" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I554" t="n">
         <v>0</v>
       </c>
-      <c r="J554" t="n">
-        <v>5895</v>
-      </c>
-      <c r="K554" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J554" t="inlineStr"/>
+      <c r="K554" t="inlineStr"/>
+      <c r="L554" t="inlineStr"/>
       <c r="M554" t="n">
         <v>1</v>
       </c>
@@ -20106,22 +19806,14 @@
         <v>5867.75</v>
       </c>
       <c r="H555" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I555" t="n">
         <v>0</v>
       </c>
-      <c r="J555" t="n">
-        <v>5835</v>
-      </c>
-      <c r="K555" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J555" t="inlineStr"/>
+      <c r="K555" t="inlineStr"/>
+      <c r="L555" t="inlineStr"/>
       <c r="M555" t="n">
         <v>1</v>
       </c>
@@ -20149,22 +19841,14 @@
         <v>5867.75</v>
       </c>
       <c r="H556" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I556" t="n">
         <v>0</v>
       </c>
-      <c r="J556" t="n">
-        <v>5850</v>
-      </c>
-      <c r="K556" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J556" t="inlineStr"/>
+      <c r="K556" t="inlineStr"/>
+      <c r="L556" t="inlineStr"/>
       <c r="M556" t="n">
         <v>1</v>
       </c>
@@ -20192,22 +19876,14 @@
         <v>5868</v>
       </c>
       <c r="H557" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I557" t="n">
         <v>0</v>
       </c>
-      <c r="J557" t="n">
-        <v>5885</v>
-      </c>
-      <c r="K557" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J557" t="inlineStr"/>
+      <c r="K557" t="inlineStr"/>
+      <c r="L557" t="inlineStr"/>
       <c r="M557" t="n">
         <v>1</v>
       </c>
@@ -20235,22 +19911,14 @@
         <v>5868.25</v>
       </c>
       <c r="H558" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I558" t="n">
         <v>0</v>
       </c>
-      <c r="J558" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K558" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J558" t="inlineStr"/>
+      <c r="K558" t="inlineStr"/>
+      <c r="L558" t="inlineStr"/>
       <c r="M558" t="n">
         <v>1</v>
       </c>
@@ -20278,22 +19946,14 @@
         <v>5868.5</v>
       </c>
       <c r="H559" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I559" t="n">
         <v>0</v>
       </c>
-      <c r="J559" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K559" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J559" t="inlineStr"/>
+      <c r="K559" t="inlineStr"/>
+      <c r="L559" t="inlineStr"/>
       <c r="M559" t="n">
         <v>1</v>
       </c>
@@ -20321,22 +19981,14 @@
         <v>5868.666666666667</v>
       </c>
       <c r="H560" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I560" t="n">
         <v>0</v>
       </c>
-      <c r="J560" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K560" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J560" t="inlineStr"/>
+      <c r="K560" t="inlineStr"/>
+      <c r="L560" t="inlineStr"/>
       <c r="M560" t="n">
         <v>1</v>
       </c>
@@ -20364,22 +20016,14 @@
         <v>5868.75</v>
       </c>
       <c r="H561" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I561" t="n">
         <v>0</v>
       </c>
-      <c r="J561" t="n">
-        <v>5885</v>
-      </c>
-      <c r="K561" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J561" t="inlineStr"/>
+      <c r="K561" t="inlineStr"/>
+      <c r="L561" t="inlineStr"/>
       <c r="M561" t="n">
         <v>1</v>
       </c>
@@ -20407,22 +20051,14 @@
         <v>5868.416666666667</v>
       </c>
       <c r="H562" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I562" t="n">
         <v>0</v>
       </c>
-      <c r="J562" t="n">
-        <v>5865</v>
-      </c>
-      <c r="K562" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J562" t="inlineStr"/>
+      <c r="K562" t="inlineStr"/>
+      <c r="L562" t="inlineStr"/>
       <c r="M562" t="n">
         <v>1</v>
       </c>
@@ -20450,22 +20086,14 @@
         <v>5868.583333333333</v>
       </c>
       <c r="H563" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I563" t="n">
         <v>0</v>
       </c>
-      <c r="J563" t="n">
-        <v>5885</v>
-      </c>
-      <c r="K563" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J563" t="inlineStr"/>
+      <c r="K563" t="inlineStr"/>
+      <c r="L563" t="inlineStr"/>
       <c r="M563" t="n">
         <v>1</v>
       </c>
@@ -20493,22 +20121,14 @@
         <v>5868.583333333333</v>
       </c>
       <c r="H564" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I564" t="n">
         <v>0</v>
       </c>
-      <c r="J564" t="n">
-        <v>5880</v>
-      </c>
-      <c r="K564" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J564" t="inlineStr"/>
+      <c r="K564" t="inlineStr"/>
+      <c r="L564" t="inlineStr"/>
       <c r="M564" t="n">
         <v>1</v>
       </c>
@@ -20536,22 +20156,14 @@
         <v>5868.583333333333</v>
       </c>
       <c r="H565" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I565" t="n">
         <v>0</v>
       </c>
-      <c r="J565" t="n">
-        <v>5880</v>
-      </c>
-      <c r="K565" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J565" t="inlineStr"/>
+      <c r="K565" t="inlineStr"/>
+      <c r="L565" t="inlineStr"/>
       <c r="M565" t="n">
         <v>1</v>
       </c>
@@ -20579,22 +20191,14 @@
         <v>5868.833333333333</v>
       </c>
       <c r="H566" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I566" t="n">
         <v>0</v>
       </c>
-      <c r="J566" t="n">
-        <v>5895</v>
-      </c>
-      <c r="K566" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J566" t="inlineStr"/>
+      <c r="K566" t="inlineStr"/>
+      <c r="L566" t="inlineStr"/>
       <c r="M566" t="n">
         <v>1</v>
       </c>
@@ -20622,22 +20226,14 @@
         <v>5869.166666666667</v>
       </c>
       <c r="H567" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I567" t="n">
         <v>0</v>
       </c>
-      <c r="J567" t="n">
-        <v>5900</v>
-      </c>
-      <c r="K567" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J567" t="inlineStr"/>
+      <c r="K567" t="inlineStr"/>
+      <c r="L567" t="inlineStr"/>
       <c r="M567" t="n">
         <v>1</v>
       </c>
@@ -20665,22 +20261,14 @@
         <v>5869.333333333333</v>
       </c>
       <c r="H568" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I568" t="n">
         <v>0</v>
       </c>
-      <c r="J568" t="n">
-        <v>5890</v>
-      </c>
-      <c r="K568" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J568" t="inlineStr"/>
+      <c r="K568" t="inlineStr"/>
+      <c r="L568" t="inlineStr"/>
       <c r="M568" t="n">
         <v>1</v>
       </c>
@@ -20714,14 +20302,8 @@
         <v>0</v>
       </c>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K569" t="inlineStr"/>
+      <c r="L569" t="inlineStr"/>
       <c r="M569" t="n">
         <v>1</v>
       </c>
@@ -20755,14 +20337,8 @@
         <v>0</v>
       </c>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K570" t="inlineStr"/>
+      <c r="L570" t="inlineStr"/>
       <c r="M570" t="n">
         <v>1</v>
       </c>
@@ -20796,14 +20372,8 @@
         <v>0</v>
       </c>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K571" t="inlineStr"/>
+      <c r="L571" t="inlineStr"/>
       <c r="M571" t="n">
         <v>1</v>
       </c>
@@ -20831,22 +20401,14 @@
         <v>5870.666666666667</v>
       </c>
       <c r="H572" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I572" t="n">
         <v>0</v>
       </c>
-      <c r="J572" t="n">
-        <v>5900</v>
-      </c>
-      <c r="K572" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J572" t="inlineStr"/>
+      <c r="K572" t="inlineStr"/>
+      <c r="L572" t="inlineStr"/>
       <c r="M572" t="n">
         <v>1</v>
       </c>
@@ -20874,22 +20436,14 @@
         <v>5871.166666666667</v>
       </c>
       <c r="H573" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I573" t="n">
         <v>0</v>
       </c>
-      <c r="J573" t="n">
-        <v>5900</v>
-      </c>
-      <c r="K573" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J573" t="inlineStr"/>
+      <c r="K573" t="inlineStr"/>
+      <c r="L573" t="inlineStr"/>
       <c r="M573" t="n">
         <v>1</v>
       </c>
@@ -20923,14 +20477,8 @@
         <v>0</v>
       </c>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K574" t="inlineStr"/>
+      <c r="L574" t="inlineStr"/>
       <c r="M574" t="n">
         <v>1</v>
       </c>
@@ -20964,14 +20512,8 @@
         <v>0</v>
       </c>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K575" t="inlineStr"/>
+      <c r="L575" t="inlineStr"/>
       <c r="M575" t="n">
         <v>1</v>
       </c>
@@ -21005,14 +20547,8 @@
         <v>0</v>
       </c>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K576" t="inlineStr"/>
+      <c r="L576" t="inlineStr"/>
       <c r="M576" t="n">
         <v>1</v>
       </c>
@@ -21046,14 +20582,8 @@
         <v>0</v>
       </c>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K577" t="inlineStr"/>
+      <c r="L577" t="inlineStr"/>
       <c r="M577" t="n">
         <v>1</v>
       </c>
@@ -21087,14 +20617,8 @@
         <v>0</v>
       </c>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K578" t="inlineStr"/>
+      <c r="L578" t="inlineStr"/>
       <c r="M578" t="n">
         <v>1</v>
       </c>
@@ -21128,14 +20652,8 @@
         <v>0</v>
       </c>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K579" t="inlineStr"/>
+      <c r="L579" t="inlineStr"/>
       <c r="M579" t="n">
         <v>1</v>
       </c>
@@ -21166,17 +20684,11 @@
         <v>0</v>
       </c>
       <c r="I580" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K580" t="inlineStr"/>
+      <c r="L580" t="inlineStr"/>
       <c r="M580" t="n">
         <v>1</v>
       </c>
@@ -21210,14 +20722,8 @@
         <v>0</v>
       </c>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K581" t="inlineStr"/>
+      <c r="L581" t="inlineStr"/>
       <c r="M581" t="n">
         <v>1</v>
       </c>
@@ -21251,14 +20757,8 @@
         <v>0</v>
       </c>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K582" t="inlineStr"/>
+      <c r="L582" t="inlineStr"/>
       <c r="M582" t="n">
         <v>1</v>
       </c>
@@ -21292,14 +20792,8 @@
         <v>0</v>
       </c>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K583" t="inlineStr"/>
+      <c r="L583" t="inlineStr"/>
       <c r="M583" t="n">
         <v>1</v>
       </c>
@@ -21330,19 +20824,13 @@
         <v>0</v>
       </c>
       <c r="I584" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="n">
-        <v>5855</v>
-      </c>
-      <c r="L584" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K584" t="inlineStr"/>
+      <c r="L584" t="inlineStr"/>
       <c r="M584" t="n">
-        <v>1.004393680614859</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585">
@@ -21371,7 +20859,7 @@
         <v>0</v>
       </c>
       <c r="I585" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr"/>
@@ -21616,7 +21104,7 @@
         <v>0</v>
       </c>
       <c r="I592" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr"/>
@@ -21721,7 +21209,7 @@
         <v>0</v>
       </c>
       <c r="I595" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr"/>
@@ -21756,7 +21244,7 @@
         <v>0</v>
       </c>
       <c r="I596" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr"/>
@@ -21791,7 +21279,7 @@
         <v>0</v>
       </c>
       <c r="I597" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr"/>
@@ -21826,7 +21314,7 @@
         <v>0</v>
       </c>
       <c r="I598" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr"/>
@@ -21861,7 +21349,7 @@
         <v>0</v>
       </c>
       <c r="I599" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr"/>
@@ -21896,7 +21384,7 @@
         <v>0</v>
       </c>
       <c r="I600" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr"/>
@@ -21931,7 +21419,7 @@
         <v>0</v>
       </c>
       <c r="I601" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr"/>
@@ -21966,7 +21454,7 @@
         <v>0</v>
       </c>
       <c r="I602" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr"/>
@@ -22001,7 +21489,7 @@
         <v>0</v>
       </c>
       <c r="I603" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr"/>
@@ -22036,7 +21524,7 @@
         <v>0</v>
       </c>
       <c r="I604" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr"/>
@@ -22071,7 +21559,7 @@
         <v>0</v>
       </c>
       <c r="I605" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr"/>
@@ -23118,14 +22606,20 @@
         <v>5924.083333333333</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I635" t="n">
         <v>0</v>
       </c>
-      <c r="J635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>5835</v>
+      </c>
       <c r="K635" t="inlineStr"/>
-      <c r="L635" t="inlineStr"/>
+      <c r="L635" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M635" t="n">
         <v>1</v>
       </c>
@@ -23159,12 +22653,14 @@
         <v>0</v>
       </c>
       <c r="J636" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K636" t="n">
-        <v>5820</v>
-      </c>
-      <c r="L636" t="inlineStr"/>
+        <v>5840</v>
+      </c>
+      <c r="K636" t="inlineStr"/>
+      <c r="L636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M636" t="n">
         <v>1</v>
       </c>
@@ -23192,20 +22688,16 @@
         <v>5920.75</v>
       </c>
       <c r="H637" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I637" t="n">
         <v>0</v>
       </c>
-      <c r="J637" t="n">
-        <v>5830</v>
-      </c>
-      <c r="K637" t="n">
-        <v>5820</v>
-      </c>
+      <c r="J637" t="inlineStr"/>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M637" t="n">
@@ -23235,20 +22727,16 @@
         <v>5919.75</v>
       </c>
       <c r="H638" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I638" t="n">
         <v>0</v>
       </c>
-      <c r="J638" t="n">
-        <v>5850</v>
-      </c>
-      <c r="K638" t="n">
-        <v>5820</v>
-      </c>
+      <c r="J638" t="inlineStr"/>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M638" t="n">
@@ -23278,18 +22766,18 @@
         <v>5918.5</v>
       </c>
       <c r="H639" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I639" t="n">
         <v>0</v>
       </c>
-      <c r="J639" t="n">
-        <v>5835</v>
-      </c>
-      <c r="K639" t="n">
-        <v>5835</v>
-      </c>
-      <c r="L639" t="inlineStr"/>
+      <c r="J639" t="inlineStr"/>
+      <c r="K639" t="inlineStr"/>
+      <c r="L639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M639" t="n">
         <v>1</v>
       </c>
@@ -23317,20 +22805,16 @@
         <v>5917.083333333333</v>
       </c>
       <c r="H640" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I640" t="n">
         <v>0</v>
       </c>
-      <c r="J640" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K640" t="n">
-        <v>5835</v>
-      </c>
+      <c r="J640" t="inlineStr"/>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M640" t="n">
@@ -23360,20 +22844,16 @@
         <v>5915.916666666667</v>
       </c>
       <c r="H641" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I641" t="n">
         <v>0</v>
       </c>
-      <c r="J641" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K641" t="n">
-        <v>5835</v>
-      </c>
+      <c r="J641" t="inlineStr"/>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M641" t="n">
@@ -23403,17 +22883,13 @@
         <v>5914.75</v>
       </c>
       <c r="H642" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I642" t="n">
         <v>0</v>
       </c>
-      <c r="J642" t="n">
-        <v>5835</v>
-      </c>
-      <c r="K642" t="n">
-        <v>5835</v>
-      </c>
+      <c r="J642" t="inlineStr"/>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23446,17 +22922,13 @@
         <v>5912.916666666667</v>
       </c>
       <c r="H643" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I643" t="n">
         <v>0</v>
       </c>
-      <c r="J643" t="n">
-        <v>5805</v>
-      </c>
-      <c r="K643" t="n">
-        <v>5835</v>
-      </c>
+      <c r="J643" t="inlineStr"/>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23489,17 +22961,13 @@
         <v>5911.25</v>
       </c>
       <c r="H644" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I644" t="n">
         <v>0</v>
       </c>
-      <c r="J644" t="n">
-        <v>5800</v>
-      </c>
-      <c r="K644" t="n">
-        <v>5835</v>
-      </c>
+      <c r="J644" t="inlineStr"/>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23532,17 +23000,13 @@
         <v>5909.5</v>
       </c>
       <c r="H645" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I645" t="n">
         <v>0</v>
       </c>
-      <c r="J645" t="n">
-        <v>5815</v>
-      </c>
-      <c r="K645" t="n">
-        <v>5835</v>
-      </c>
+      <c r="J645" t="inlineStr"/>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23581,11 +23045,9 @@
         <v>0</v>
       </c>
       <c r="J646" t="n">
-        <v>5795</v>
-      </c>
-      <c r="K646" t="n">
-        <v>5835</v>
-      </c>
+        <v>5815</v>
+      </c>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23624,11 +23086,9 @@
         <v>0</v>
       </c>
       <c r="J647" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K647" t="n">
-        <v>5835</v>
-      </c>
+        <v>5815</v>
+      </c>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23667,11 +23127,9 @@
         <v>0</v>
       </c>
       <c r="J648" t="n">
-        <v>5810</v>
-      </c>
-      <c r="K648" t="n">
-        <v>5835</v>
-      </c>
+        <v>5820</v>
+      </c>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23710,11 +23168,9 @@
         <v>0</v>
       </c>
       <c r="J649" t="n">
-        <v>5820</v>
-      </c>
-      <c r="K649" t="n">
-        <v>5835</v>
-      </c>
+        <v>5810</v>
+      </c>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2019-10-10 BackTest ETC.xlsx
+++ b/BackTest/2019-10-10 BackTest ETC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>16783.5914</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>16587.9196</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>5880</v>
@@ -523,7 +523,7 @@
         <v>17827.0823</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>5865</v>
@@ -562,11 +562,9 @@
         <v>16679.7698</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
@@ -601,11 +599,9 @@
         <v>17707.9105</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5895</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
@@ -640,11 +636,9 @@
         <v>18176.1991</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
@@ -679,11 +673,9 @@
         <v>18179.6665</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>5905</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
@@ -829,9 +821,11 @@
         <v>19010.40499890848</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5970</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
@@ -1051,9 +1045,11 @@
         <v>21324.40509890848</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5970</v>
+      </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
@@ -1606,7 +1602,7 @@
         <v>28159.06639890848</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1643,7 +1639,7 @@
         <v>28207.81069890848</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1680,7 +1676,7 @@
         <v>28692.43340720791</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1717,7 +1713,7 @@
         <v>30056.9635163062</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1754,7 +1750,7 @@
         <v>31224.3977163062</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1791,7 +1787,7 @@
         <v>28217.12130506122</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1828,18 +1824,16 @@
         <v>24848.91400506123</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
@@ -1865,15 +1859,11 @@
         <v>22177.27140506123</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1902,15 +1892,11 @@
         <v>21961.01340506123</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1939,15 +1925,11 @@
         <v>20763.48370506123</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1976,15 +1958,11 @@
         <v>21507.72920506123</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2013,15 +1991,11 @@
         <v>21286.56726537093</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2050,15 +2024,11 @@
         <v>21128.40986537093</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2087,15 +2057,11 @@
         <v>21285.59676537093</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2124,15 +2090,11 @@
         <v>21305.96916537093</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2161,15 +2123,11 @@
         <v>21186.06086537093</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2198,15 +2156,11 @@
         <v>21186.06086537093</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2235,15 +2189,11 @@
         <v>21186.06086537093</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2272,15 +2222,11 @@
         <v>20347.61256537093</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2309,15 +2255,11 @@
         <v>19627.93916537093</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2346,15 +2288,11 @@
         <v>18397.72416537093</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2383,15 +2321,11 @@
         <v>19628.25126537093</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2420,15 +2354,11 @@
         <v>19628.25126537093</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2457,15 +2387,11 @@
         <v>19452.47496537093</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2494,15 +2420,11 @@
         <v>19429.25766537093</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2531,15 +2453,11 @@
         <v>19431.25766537093</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2568,15 +2486,11 @@
         <v>19175.61686537092</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2605,15 +2519,11 @@
         <v>18929.48746537092</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2642,15 +2552,11 @@
         <v>18924.33736537092</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2679,15 +2585,11 @@
         <v>18833.91336537093</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2716,15 +2618,11 @@
         <v>19356.66206537093</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2753,15 +2651,11 @@
         <v>19348.35526537093</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2790,15 +2684,11 @@
         <v>19841.05656537093</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2827,15 +2717,11 @@
         <v>19841.05656537093</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2864,15 +2750,11 @@
         <v>20410.16136537093</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2905,11 +2787,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2942,11 +2820,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2979,11 +2853,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3016,11 +2886,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3053,11 +2919,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3090,11 +2952,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3127,11 +2985,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3164,11 +3018,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3201,11 +3051,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3234,15 +3080,11 @@
         <v>20471.42066537093</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3271,15 +3113,11 @@
         <v>20571.92066537093</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3308,15 +3146,11 @@
         <v>20621.92066537093</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3345,15 +3179,11 @@
         <v>20321.62156537093</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3382,15 +3212,11 @@
         <v>20206.33966537092</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3419,16 +3245,14 @@
         <v>19360.84626537092</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
       <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
@@ -3454,7 +3278,7 @@
         <v>18216.33806537092</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3487,7 +3311,7 @@
         <v>18206.58726537092</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3520,7 +3344,7 @@
         <v>19270.41636537092</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3553,7 +3377,7 @@
         <v>19268.89566537092</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3586,7 +3410,7 @@
         <v>19713.74146537092</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3619,7 +3443,7 @@
         <v>19658.05876537092</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3652,7 +3476,7 @@
         <v>19658.05876537092</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3685,7 +3509,7 @@
         <v>19679.10376537092</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3718,7 +3542,7 @@
         <v>19629.10376537092</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3751,7 +3575,7 @@
         <v>19639.20376537092</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3784,7 +3608,7 @@
         <v>19302.78496537092</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3817,7 +3641,7 @@
         <v>19302.78496537092</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3850,7 +3674,7 @@
         <v>19300.83006537092</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3883,7 +3707,7 @@
         <v>18943.44236537092</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3916,7 +3740,7 @@
         <v>18943.44236537092</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3949,7 +3773,7 @@
         <v>14780.54136537092</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3982,7 +3806,7 @@
         <v>14780.54136537092</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4015,7 +3839,7 @@
         <v>14169.45856537092</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4048,7 +3872,7 @@
         <v>14432.35856537092</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4081,7 +3905,7 @@
         <v>14432.35856537092</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4114,7 +3938,7 @@
         <v>14694.69656537092</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4147,7 +3971,7 @@
         <v>14694.69656537092</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4180,7 +4004,7 @@
         <v>15851.57799542018</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4213,7 +4037,7 @@
         <v>15749.57799542018</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4246,7 +4070,7 @@
         <v>15549.57799542018</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4279,7 +4103,7 @@
         <v>15652.36999542018</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4312,7 +4136,7 @@
         <v>14738.86339542018</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4345,7 +4169,7 @@
         <v>14738.86339542018</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4378,7 +4202,7 @@
         <v>14738.86339542018</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4411,7 +4235,7 @@
         <v>14771.32209542018</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4444,7 +4268,7 @@
         <v>14728.70889542018</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4477,7 +4301,7 @@
         <v>14728.70889542018</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4510,7 +4334,7 @@
         <v>14561.40579542018</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4543,7 +4367,7 @@
         <v>14788.46149542018</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4576,7 +4400,7 @@
         <v>14790.46149542018</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4609,7 +4433,7 @@
         <v>14632.31529542018</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4642,7 +4466,7 @@
         <v>14795.47109542018</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4675,7 +4499,7 @@
         <v>14735.48459542018</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4708,7 +4532,7 @@
         <v>14735.48459542018</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4741,7 +4565,7 @@
         <v>14735.48459542018</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4774,7 +4598,7 @@
         <v>14735.48459542018</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4807,7 +4631,7 @@
         <v>14980.94999542018</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4840,7 +4664,7 @@
         <v>14980.94999542018</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4873,7 +4697,7 @@
         <v>15761.10719542018</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4906,7 +4730,7 @@
         <v>15761.10719542018</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4939,7 +4763,7 @@
         <v>16172.19749542018</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4972,7 +4796,7 @@
         <v>13684.08939542018</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5005,7 +4829,7 @@
         <v>13526.08939542018</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5038,7 +4862,7 @@
         <v>13526.08939542018</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5071,7 +4895,7 @@
         <v>13526.08939542018</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5104,7 +4928,7 @@
         <v>13526.08939542018</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5137,7 +4961,7 @@
         <v>13526.08939542018</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5170,7 +4994,7 @@
         <v>13526.08939542018</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5203,7 +5027,7 @@
         <v>13526.08939542018</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5236,7 +5060,7 @@
         <v>11954.78549542018</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5269,7 +5093,7 @@
         <v>11930.61879542018</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5302,7 +5126,7 @@
         <v>11930.61879542018</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5566,7 +5390,7 @@
         <v>11504.81222492837</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5698,7 +5522,7 @@
         <v>11745.87002059476</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5731,7 +5555,7 @@
         <v>12139.67812059476</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5764,7 +5588,7 @@
         <v>12238.33392059477</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5797,7 +5621,7 @@
         <v>12254.68796801913</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5830,7 +5654,7 @@
         <v>12254.68796801913</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6094,7 +5918,7 @@
         <v>12518.35906801913</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6127,7 +5951,7 @@
         <v>12518.35906801913</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6160,7 +5984,7 @@
         <v>12869.26476801913</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6193,7 +6017,7 @@
         <v>12886.73506801913</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6226,7 +6050,7 @@
         <v>12300.60937898476</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6259,7 +6083,7 @@
         <v>11776.21347898476</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6292,7 +6116,7 @@
         <v>11676.21347898476</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6325,7 +6149,7 @@
         <v>11656.53737898476</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6391,7 +6215,7 @@
         <v>11415.35307898476</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6589,7 +6413,7 @@
         <v>12815.61948512121</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6622,7 +6446,7 @@
         <v>12831.49918512121</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6688,7 +6512,7 @@
         <v>14162.29048986753</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6754,7 +6578,7 @@
         <v>14162.29048986753</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6787,7 +6611,7 @@
         <v>14162.29048986753</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6886,7 +6710,7 @@
         <v>14575.4903786564</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6919,7 +6743,7 @@
         <v>14575.4903786564</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6952,7 +6776,7 @@
         <v>14575.4903786564</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6985,7 +6809,7 @@
         <v>14837.2653786564</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7018,7 +6842,7 @@
         <v>12283.07090218581</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7051,7 +6875,7 @@
         <v>12283.07090218581</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7084,7 +6908,7 @@
         <v>12283.07090218581</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7117,7 +6941,7 @@
         <v>12730.57219720035</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7150,7 +6974,7 @@
         <v>12568.13739720035</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7249,7 +7073,7 @@
         <v>12428.70339720035</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7282,7 +7106,7 @@
         <v>12428.70339720035</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7315,7 +7139,7 @@
         <v>10438.74809720035</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7348,7 +7172,7 @@
         <v>10613.21049720035</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7381,7 +7205,7 @@
         <v>10610.64919720035</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7414,7 +7238,7 @@
         <v>10610.64919720035</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7447,7 +7271,7 @@
         <v>10610.64919720035</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7480,7 +7304,7 @@
         <v>9785.387957282654</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7513,7 +7337,7 @@
         <v>8202.917557282653</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -15169,7 +14993,7 @@
         <v>10006.97470501186</v>
       </c>
       <c r="H438" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15202,7 +15026,7 @@
         <v>10006.97470501186</v>
       </c>
       <c r="H439" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -15235,7 +15059,7 @@
         <v>9677.693805011862</v>
       </c>
       <c r="H440" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -15268,7 +15092,7 @@
         <v>9705.808905011863</v>
       </c>
       <c r="H441" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -15301,7 +15125,7 @@
         <v>9603.910605011863</v>
       </c>
       <c r="H442" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15334,7 +15158,7 @@
         <v>9603.910605011863</v>
       </c>
       <c r="H443" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15367,7 +15191,7 @@
         <v>9604.280938345197</v>
       </c>
       <c r="H444" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -18370,11 +18194,17 @@
         <v>3329.396036523204</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
-      </c>
-      <c r="I535" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I535" t="n">
+        <v>5900</v>
+      </c>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18403,11 +18233,17 @@
         <v>3331.396036523204</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
-      </c>
-      <c r="I536" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I536" t="n">
+        <v>5910</v>
+      </c>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18436,11 +18272,17 @@
         <v>3348.104736523204</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
-      </c>
-      <c r="I537" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I537" t="n">
+        <v>5915</v>
+      </c>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18473,7 +18315,11 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18506,7 +18352,11 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18539,7 +18389,11 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18572,7 +18426,11 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18605,7 +18463,11 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18638,7 +18500,11 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18671,7 +18537,11 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18704,7 +18574,11 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18737,7 +18611,11 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18766,11 +18644,17 @@
         <v>-2787.343263476796</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
-      </c>
-      <c r="I547" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I547" t="n">
+        <v>5910</v>
+      </c>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18799,11 +18683,17 @@
         <v>-2868.181863476796</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
-      </c>
-      <c r="I548" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I548" t="n">
+        <v>5905</v>
+      </c>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18832,11 +18722,17 @@
         <v>-2843.779063476796</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
-      </c>
-      <c r="I549" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I549" t="n">
+        <v>5895</v>
+      </c>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18865,11 +18761,17 @@
         <v>-2955.908763476796</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
-      </c>
-      <c r="I550" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I550" t="n">
+        <v>5900</v>
+      </c>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18898,11 +18800,17 @@
         <v>-2974.297963476796</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
-      </c>
-      <c r="I551" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I551" t="n">
+        <v>5895</v>
+      </c>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -18931,11 +18839,17 @@
         <v>-3073.168163476796</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
-      </c>
-      <c r="I552" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I552" t="n">
+        <v>5890</v>
+      </c>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -18964,11 +18878,17 @@
         <v>-3073.168163476796</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
-      </c>
-      <c r="I553" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I553" t="n">
+        <v>5885</v>
+      </c>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -18997,11 +18917,17 @@
         <v>-3626.565263476796</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
-      </c>
-      <c r="I554" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I554" t="n">
+        <v>5885</v>
+      </c>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19030,11 +18956,17 @@
         <v>-3567.381463476796</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
-      </c>
-      <c r="I555" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I555" t="n">
+        <v>5860</v>
+      </c>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19063,11 +18995,17 @@
         <v>-4202.941063476796</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
-      </c>
-      <c r="I556" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I556" t="n">
+        <v>5880</v>
+      </c>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19096,11 +19034,17 @@
         <v>-4202.941063476796</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
-      </c>
-      <c r="I557" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I557" t="n">
+        <v>5875</v>
+      </c>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19129,11 +19073,17 @@
         <v>-4202.941063476796</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
-      </c>
-      <c r="I558" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I558" t="n">
+        <v>5875</v>
+      </c>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19162,11 +19112,17 @@
         <v>-4015.398163476797</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
-      </c>
-      <c r="I559" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I559" t="n">
+        <v>5875</v>
+      </c>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19195,11 +19151,17 @@
         <v>-4015.398163476797</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
-      </c>
-      <c r="I560" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I560" t="n">
+        <v>5880</v>
+      </c>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19232,7 +19194,11 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19265,7 +19231,11 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19298,7 +19268,11 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19331,7 +19305,11 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19360,11 +19338,17 @@
         <v>-3471.686963476796</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
-      </c>
-      <c r="I565" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I565" t="n">
+        <v>5880</v>
+      </c>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19393,11 +19377,17 @@
         <v>-3471.686963476796</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
-      </c>
-      <c r="I566" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I566" t="n">
+        <v>5880</v>
+      </c>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19426,11 +19416,17 @@
         <v>-3471.686963476796</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
-      </c>
-      <c r="I567" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I567" t="n">
+        <v>5880</v>
+      </c>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19459,7 +19455,7 @@
         <v>-3924.046363476796</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I568" t="n">
         <v>5880</v>
@@ -19467,7 +19463,7 @@
       <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L568" t="n">
@@ -19498,9 +19494,11 @@
         <v>-3924.046363476796</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
-      </c>
-      <c r="I569" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I569" t="n">
+        <v>5870</v>
+      </c>
       <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr">
         <is>
@@ -19535,9 +19533,11 @@
         <v>-3964.140863476796</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
-      </c>
-      <c r="I570" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I570" t="n">
+        <v>5870</v>
+      </c>
       <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr">
         <is>
@@ -19572,7 +19572,7 @@
         <v>-3914.636663476796</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I571" t="n">
         <v>5855</v>
@@ -19611,9 +19611,11 @@
         <v>-3914.636663476796</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
-      </c>
-      <c r="I572" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I572" t="n">
+        <v>5870</v>
+      </c>
       <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr">
         <is>
@@ -19648,9 +19650,11 @@
         <v>-3914.636663476796</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
-      </c>
-      <c r="I573" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I573" t="n">
+        <v>5870</v>
+      </c>
       <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr">
         <is>
@@ -19685,9 +19689,11 @@
         <v>-4117.748863476796</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
-      </c>
-      <c r="I574" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I574" t="n">
+        <v>5870</v>
+      </c>
       <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr">
         <is>
@@ -19759,9 +19765,11 @@
         <v>-4118.748863476796</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
-      </c>
-      <c r="I576" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I576" t="n">
+        <v>5865</v>
+      </c>
       <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr">
         <is>
@@ -19796,9 +19804,11 @@
         <v>-4116.996863476796</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
-      </c>
-      <c r="I577" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I577" t="n">
+        <v>5855</v>
+      </c>
       <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr">
         <is>
@@ -19833,9 +19843,11 @@
         <v>-4367.931363476796</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
-      </c>
-      <c r="I578" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I578" t="n">
+        <v>5860</v>
+      </c>
       <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr">
         <is>
@@ -19870,9 +19882,11 @@
         <v>-4108.748863476796</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
-      </c>
-      <c r="I579" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I579" t="n">
+        <v>5845</v>
+      </c>
       <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr">
         <is>
@@ -19907,9 +19921,11 @@
         <v>-3890.889463476796</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
-      </c>
-      <c r="I580" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I580" t="n">
+        <v>5865</v>
+      </c>
       <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr">
         <is>
@@ -19944,9 +19960,11 @@
         <v>-3922.112163476796</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
-      </c>
-      <c r="I581" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I581" t="n">
+        <v>5870</v>
+      </c>
       <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr">
         <is>
@@ -19981,9 +19999,11 @@
         <v>-3919.008363476796</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
-      </c>
-      <c r="I582" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I582" t="n">
+        <v>5855</v>
+      </c>
       <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr">
         <is>
@@ -20018,9 +20038,11 @@
         <v>-3925.997963476796</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
-      </c>
-      <c r="I583" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I583" t="n">
+        <v>5875</v>
+      </c>
       <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr">
         <is>
@@ -20055,7 +20077,7 @@
         <v>-4063.310963476796</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I584" t="n">
         <v>5870</v>
@@ -20094,7 +20116,7 @@
         <v>-4250.422363476796</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I585" t="n">
         <v>5855</v>
@@ -20133,7 +20155,7 @@
         <v>-4250.422363476796</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I586" t="n">
         <v>5850</v>
@@ -20172,7 +20194,7 @@
         <v>-4250.422363476796</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I587" t="n">
         <v>5850</v>
@@ -20211,9 +20233,11 @@
         <v>-4250.422363476796</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
-      </c>
-      <c r="I588" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I588" t="n">
+        <v>5850</v>
+      </c>
       <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr">
         <is>
@@ -20248,9 +20272,11 @@
         <v>-4056.680363476796</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
-      </c>
-      <c r="I589" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I589" t="n">
+        <v>5850</v>
+      </c>
       <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr">
         <is>
@@ -20285,9 +20311,11 @@
         <v>-4056.680363476796</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
-      </c>
-      <c r="I590" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I590" t="n">
+        <v>5860</v>
+      </c>
       <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr">
         <is>
@@ -20322,9 +20350,11 @@
         <v>-3871.987463476796</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
-      </c>
-      <c r="I591" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I591" t="n">
+        <v>5860</v>
+      </c>
       <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr">
         <is>
@@ -20359,7 +20389,7 @@
         <v>-3765.690563476796</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I592" t="n">
         <v>5865</v>
@@ -20398,7 +20428,7 @@
         <v>-3765.690563476796</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I593" t="n">
         <v>5870</v>
@@ -20437,7 +20467,7 @@
         <v>-3481.644063476796</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I594" t="n">
         <v>5870</v>
@@ -20476,7 +20506,7 @@
         <v>-4244.459363476796</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I595" t="n">
         <v>5875</v>
@@ -20515,7 +20545,7 @@
         <v>-4237.638130654972</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I596" t="n">
         <v>5855</v>
@@ -20554,9 +20584,11 @@
         <v>-4242.343230654972</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
-      </c>
-      <c r="I597" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I597" t="n">
+        <v>5865</v>
+      </c>
       <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr">
         <is>
@@ -20591,7 +20623,7 @@
         <v>-4243.880630654972</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I598" t="n">
         <v>5860</v>
@@ -20630,7 +20662,7 @@
         <v>-4019.128630654972</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I599" t="n">
         <v>5850</v>
@@ -20669,7 +20701,7 @@
         <v>-3891.071830654972</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I600" t="n">
         <v>5860</v>
@@ -20708,11 +20740,9 @@
         <v>-3891.071830654972</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
-      </c>
-      <c r="I601" t="n">
-        <v>5865</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr">
         <is>
@@ -20747,11 +20777,9 @@
         <v>-3926.671730654973</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
-      </c>
-      <c r="I602" t="n">
-        <v>5865</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr">
         <is>
@@ -20786,7 +20814,7 @@
         <v>-3927.808930654973</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I603" t="n">
         <v>5855</v>
@@ -20825,7 +20853,7 @@
         <v>-3910.008930654973</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I604" t="n">
         <v>5850</v>
@@ -20864,7 +20892,7 @@
         <v>-3908.008930654973</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I605" t="n">
         <v>5860</v>
@@ -20903,7 +20931,7 @@
         <v>-3857.078930654973</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I606" t="n">
         <v>5870</v>
@@ -20942,7 +20970,7 @@
         <v>-3857.078930654973</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I607" t="n">
         <v>5890</v>
@@ -20981,7 +21009,7 @@
         <v>-4198.248330654973</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I608" t="n">
         <v>5890</v>
@@ -21020,7 +21048,7 @@
         <v>-4580.291530654973</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I609" t="n">
         <v>5880</v>
@@ -21096,11 +21124,9 @@
         <v>-4156.470030654973</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
-      </c>
-      <c r="I611" t="n">
-        <v>5880</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr">
         <is>
@@ -21172,11 +21198,9 @@
         <v>-4227.593730654973</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
-      </c>
-      <c r="I613" t="n">
-        <v>5895</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr">
         <is>
@@ -21211,7 +21235,7 @@
         <v>-1459.418630654973</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I614" t="n">
         <v>5835</v>
@@ -21250,7 +21274,7 @@
         <v>-164.1940204854811</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I615" t="n">
         <v>5855</v>
@@ -21289,7 +21313,7 @@
         <v>617.2279795145189</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I616" t="n">
         <v>5880</v>
@@ -21328,7 +21352,7 @@
         <v>617.2279795145189</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I617" t="n">
         <v>5890</v>
@@ -21367,7 +21391,7 @@
         <v>617.2279795145189</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I618" t="n">
         <v>5890</v>
@@ -21406,7 +21430,7 @@
         <v>617.2279795145189</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I619" t="n">
         <v>5890</v>
@@ -21445,7 +21469,7 @@
         <v>464.4254795145189</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I620" t="n">
         <v>5890</v>
@@ -21484,7 +21508,7 @@
         <v>450.0050795145189</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I621" t="n">
         <v>5885</v>
@@ -21523,7 +21547,7 @@
         <v>2765.472408328078</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I622" t="n">
         <v>5865</v>
@@ -21562,7 +21586,7 @@
         <v>2668.072408328078</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I623" t="n">
         <v>5900</v>
@@ -21601,11 +21625,9 @@
         <v>2668.072408328078</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
-      </c>
-      <c r="I624" t="n">
-        <v>5880</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr">
         <is>
@@ -21640,7 +21662,7 @@
         <v>2768.072408328078</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I625" t="n">
         <v>5880</v>
@@ -21679,11 +21701,9 @@
         <v>2769.072408328078</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
-      </c>
-      <c r="I626" t="n">
-        <v>5895</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr">
         <is>
@@ -21718,11 +21738,9 @@
         <v>2480.932108328078</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
-      </c>
-      <c r="I627" t="n">
-        <v>5900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr">
         <is>
@@ -21757,11 +21775,9 @@
         <v>2480.932108328078</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
-      </c>
-      <c r="I628" t="n">
-        <v>5890</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr">
         <is>
@@ -21796,7 +21812,7 @@
         <v>2252.126908328078</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I629" t="n">
         <v>5890</v>
@@ -21835,7 +21851,7 @@
         <v>2401.126808328077</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I630" t="n">
         <v>5875</v>
@@ -21874,7 +21890,7 @@
         <v>2991.576108328078</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I631" t="n">
         <v>5880</v>
@@ -21913,7 +21929,7 @@
         <v>2991.576108328078</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I632" t="n">
         <v>5900</v>
@@ -21952,7 +21968,7 @@
         <v>2991.576108328078</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I633" t="n">
         <v>5900</v>
@@ -21991,11 +22007,9 @@
         <v>2991.576108328078</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
-      </c>
-      <c r="I634" t="n">
-        <v>5900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr">
         <is>
@@ -22030,7 +22044,7 @@
         <v>3697.099804774778</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I635" t="n">
         <v>5900</v>
@@ -22069,11 +22083,9 @@
         <v>14485.66397922856</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
-      </c>
-      <c r="I636" t="n">
-        <v>5905</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr">
         <is>
@@ -22108,11 +22120,9 @@
         <v>14429.14437922856</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
-      </c>
-      <c r="I637" t="n">
-        <v>5950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr">
         <is>
@@ -22147,11 +22157,9 @@
         <v>14429.14437922856</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
-      </c>
-      <c r="I638" t="n">
-        <v>5910</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr">
         <is>
@@ -22186,11 +22194,9 @@
         <v>14379.14437922856</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
-      </c>
-      <c r="I639" t="n">
-        <v>5910</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr">
         <is>
@@ -22225,11 +22231,9 @@
         <v>14379.14437922856</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
-      </c>
-      <c r="I640" t="n">
-        <v>5905</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr">
         <is>
@@ -22264,11 +22268,9 @@
         <v>14379.14437922856</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
-      </c>
-      <c r="I641" t="n">
-        <v>5905</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr">
         <is>
@@ -22303,11 +22305,9 @@
         <v>14564.87937922856</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
-      </c>
-      <c r="I642" t="n">
-        <v>5905</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr">
         <is>
@@ -22342,11 +22342,9 @@
         <v>14564.87937922856</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
-      </c>
-      <c r="I643" t="n">
-        <v>5910</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr">
         <is>
@@ -22381,11 +22379,9 @@
         <v>14639.97617922856</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
-      </c>
-      <c r="I644" t="n">
-        <v>5910</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr">
         <is>
@@ -22420,11 +22416,9 @@
         <v>14820.08607922856</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
-      </c>
-      <c r="I645" t="n">
-        <v>5920</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr">
         <is>
@@ -22718,16 +22712,18 @@
         <v>16657.18271452763</v>
       </c>
       <c r="H653" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L653" t="inlineStr"/>
+      <c r="L653" t="n">
+        <v>1</v>
+      </c>
       <c r="M653" t="inlineStr"/>
     </row>
     <row r="654">
@@ -22753,11 +22749,15 @@
         <v>17265.95491452763</v>
       </c>
       <c r="H654" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22786,11 +22786,15 @@
         <v>15019.00391452763</v>
       </c>
       <c r="H655" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22823,7 +22827,11 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22852,11 +22860,15 @@
         <v>15169.78391452763</v>
       </c>
       <c r="H657" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22889,7 +22901,11 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22918,11 +22934,15 @@
         <v>14807.14321452763</v>
       </c>
       <c r="H659" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22955,7 +22975,11 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22988,7 +23012,11 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -23021,7 +23049,11 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -23054,7 +23086,11 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23087,7 +23123,11 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23120,7 +23160,11 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23153,7 +23197,11 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23186,7 +23234,11 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23219,7 +23271,11 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23252,7 +23308,11 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23285,7 +23345,11 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -23318,7 +23382,11 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23351,7 +23419,11 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23384,7 +23456,11 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23417,7 +23493,11 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23450,7 +23530,11 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23483,7 +23567,11 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23516,7 +23604,11 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23549,7 +23641,11 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23582,7 +23678,11 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23615,7 +23715,11 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23648,7 +23752,11 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23681,7 +23789,11 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23714,7 +23826,11 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23747,7 +23863,11 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23780,7 +23900,11 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23813,7 +23937,11 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23846,7 +23974,11 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23879,7 +24011,11 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23912,7 +24048,11 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23945,7 +24085,11 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23978,7 +24122,11 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -24011,7 +24159,11 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -24044,7 +24196,11 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -24077,7 +24233,11 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -24110,7 +24270,11 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -24143,7 +24307,11 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -24176,7 +24344,11 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -24209,7 +24381,11 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -24242,7 +24418,11 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -24275,7 +24455,11 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -24308,7 +24492,11 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -24341,7 +24529,11 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -24374,7 +24566,11 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -24407,7 +24603,11 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -24440,7 +24640,11 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -24473,7 +24677,11 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -24506,7 +24714,11 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -24539,7 +24751,11 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -24572,7 +24788,11 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -24605,7 +24825,11 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -24638,7 +24862,11 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -24671,7 +24899,11 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -24704,7 +24936,11 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -24737,7 +24973,11 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -24770,7 +25010,11 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24803,7 +25047,11 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -24836,7 +25084,11 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -24869,13 +25121,17 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
       <c r="M718" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-10 BackTest ETC.xlsx
+++ b/BackTest/2019-10-10 BackTest ETC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>16783.5914</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,17 +484,11 @@
         <v>16587.9196</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5880</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -523,17 +517,11 @@
         <v>17827.0823</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5865</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -566,11 +554,7 @@
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,11 +587,7 @@
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -640,11 +620,7 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -677,11 +653,7 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -714,11 +686,7 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -747,15 +715,11 @@
         <v>18534.7314</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -784,15 +748,11 @@
         <v>18538.45289890848</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -821,17 +781,11 @@
         <v>19010.40499890848</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>5970</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -860,15 +814,11 @@
         <v>19932.22899890848</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -897,15 +847,11 @@
         <v>19137.49769890848</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -934,15 +880,11 @@
         <v>20650.28469890848</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -971,15 +913,11 @@
         <v>20211.07359890848</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1008,15 +946,11 @@
         <v>19978.18709890848</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1045,17 +979,11 @@
         <v>21324.40509890848</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>5970</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1084,15 +1012,11 @@
         <v>21223.30569890848</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1121,15 +1045,11 @@
         <v>21223.30569890848</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1158,15 +1078,11 @@
         <v>21223.30569890848</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1195,15 +1111,11 @@
         <v>21955.16319890848</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1232,15 +1144,11 @@
         <v>22452.63249890848</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1269,15 +1177,11 @@
         <v>23110.76679890848</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1306,15 +1210,11 @@
         <v>22015.67059890848</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1343,15 +1243,11 @@
         <v>22530.54768148487</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1380,15 +1276,11 @@
         <v>25590.52299890848</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1421,11 +1313,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1458,11 +1346,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1495,11 +1379,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1532,11 +1412,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1569,11 +1445,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1478,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1643,11 +1511,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1680,11 +1544,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1717,11 +1577,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1754,11 +1610,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1791,11 +1643,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1824,16 +1672,14 @@
         <v>24848.91400506123</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
       <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
@@ -1859,7 +1705,7 @@
         <v>22177.27140506123</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1892,7 +1738,7 @@
         <v>21961.01340506123</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1925,7 +1771,7 @@
         <v>20763.48370506123</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1958,7 +1804,7 @@
         <v>21507.72920506123</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1991,7 +1837,7 @@
         <v>21286.56726537093</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2024,7 +1870,7 @@
         <v>21128.40986537093</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2057,7 +1903,7 @@
         <v>21285.59676537093</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2090,7 +1936,7 @@
         <v>21305.96916537093</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2123,7 +1969,7 @@
         <v>21186.06086537093</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2156,7 +2002,7 @@
         <v>21186.06086537093</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2189,7 +2035,7 @@
         <v>21186.06086537093</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2222,7 +2068,7 @@
         <v>20347.61256537093</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2255,7 +2101,7 @@
         <v>19627.93916537093</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2288,7 +2134,7 @@
         <v>18397.72416537093</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2321,7 +2167,7 @@
         <v>19628.25126537093</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2354,7 +2200,7 @@
         <v>19628.25126537093</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2387,7 +2233,7 @@
         <v>19452.47496537093</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2420,7 +2266,7 @@
         <v>19429.25766537093</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2453,7 +2299,7 @@
         <v>19431.25766537093</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2486,7 +2332,7 @@
         <v>19175.61686537092</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2519,7 +2365,7 @@
         <v>18929.48746537092</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2552,7 +2398,7 @@
         <v>18924.33736537092</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2585,7 +2431,7 @@
         <v>18833.91336537093</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2618,7 +2464,7 @@
         <v>19356.66206537093</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2651,7 +2497,7 @@
         <v>19348.35526537093</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2684,7 +2530,7 @@
         <v>19841.05656537093</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2717,7 +2563,7 @@
         <v>19841.05656537093</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2750,7 +2596,7 @@
         <v>20410.16136537093</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -3080,7 +2926,7 @@
         <v>20471.42066537093</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3113,7 +2959,7 @@
         <v>20571.92066537093</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3146,7 +2992,7 @@
         <v>20621.92066537093</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3179,7 +3025,7 @@
         <v>20321.62156537093</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3212,7 +3058,7 @@
         <v>20206.33966537092</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3245,7 +3091,7 @@
         <v>19360.84626537092</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3278,7 +3124,7 @@
         <v>18216.33806537092</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3311,7 +3157,7 @@
         <v>18206.58726537092</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3344,7 +3190,7 @@
         <v>19270.41636537092</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3377,7 +3223,7 @@
         <v>19268.89566537092</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3410,7 +3256,7 @@
         <v>19713.74146537092</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3443,7 +3289,7 @@
         <v>19658.05876537092</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3476,7 +3322,7 @@
         <v>19658.05876537092</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3509,7 +3355,7 @@
         <v>19679.10376537092</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3542,7 +3388,7 @@
         <v>19629.10376537092</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3575,7 +3421,7 @@
         <v>19639.20376537092</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3608,7 +3454,7 @@
         <v>19302.78496537092</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3641,7 +3487,7 @@
         <v>19302.78496537092</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3674,7 +3520,7 @@
         <v>19300.83006537092</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3707,7 +3553,7 @@
         <v>18943.44236537092</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3740,7 +3586,7 @@
         <v>18943.44236537092</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3773,7 +3619,7 @@
         <v>14780.54136537092</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3806,7 +3652,7 @@
         <v>14780.54136537092</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3839,7 +3685,7 @@
         <v>14169.45856537092</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3872,7 +3718,7 @@
         <v>14432.35856537092</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3905,7 +3751,7 @@
         <v>14432.35856537092</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3938,7 +3784,7 @@
         <v>14694.69656537092</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3971,7 +3817,7 @@
         <v>14694.69656537092</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4004,7 +3850,7 @@
         <v>15851.57799542018</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4037,7 +3883,7 @@
         <v>15749.57799542018</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4070,7 +3916,7 @@
         <v>15549.57799542018</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4103,7 +3949,7 @@
         <v>15652.36999542018</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4136,7 +3982,7 @@
         <v>14738.86339542018</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4169,7 +4015,7 @@
         <v>14738.86339542018</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4202,7 +4048,7 @@
         <v>14738.86339542018</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4235,7 +4081,7 @@
         <v>14771.32209542018</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4268,7 +4114,7 @@
         <v>14728.70889542018</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4301,7 +4147,7 @@
         <v>14728.70889542018</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4334,7 +4180,7 @@
         <v>14561.40579542018</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4367,7 +4213,7 @@
         <v>14788.46149542018</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4400,7 +4246,7 @@
         <v>14790.46149542018</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4433,7 +4279,7 @@
         <v>14632.31529542018</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4466,7 +4312,7 @@
         <v>14795.47109542018</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4499,7 +4345,7 @@
         <v>14735.48459542018</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4532,7 +4378,7 @@
         <v>14735.48459542018</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4565,7 +4411,7 @@
         <v>14735.48459542018</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4598,7 +4444,7 @@
         <v>14735.48459542018</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4631,7 +4477,7 @@
         <v>14980.94999542018</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4664,7 +4510,7 @@
         <v>14980.94999542018</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4697,7 +4543,7 @@
         <v>15761.10719542018</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4730,7 +4576,7 @@
         <v>15761.10719542018</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4763,7 +4609,7 @@
         <v>16172.19749542018</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4796,7 +4642,7 @@
         <v>13684.08939542018</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4829,7 +4675,7 @@
         <v>13526.08939542018</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4862,7 +4708,7 @@
         <v>13526.08939542018</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4895,7 +4741,7 @@
         <v>13526.08939542018</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4928,7 +4774,7 @@
         <v>13526.08939542018</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4961,7 +4807,7 @@
         <v>13526.08939542018</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4994,7 +4840,7 @@
         <v>13526.08939542018</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5027,7 +4873,7 @@
         <v>13526.08939542018</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5060,7 +4906,7 @@
         <v>11954.78549542018</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5093,7 +4939,7 @@
         <v>11930.61879542018</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5126,7 +4972,7 @@
         <v>11930.61879542018</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5390,7 +5236,7 @@
         <v>11504.81222492837</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5522,7 +5368,7 @@
         <v>11745.87002059476</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5555,7 +5401,7 @@
         <v>12139.67812059476</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5588,7 +5434,7 @@
         <v>12238.33392059477</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5621,7 +5467,7 @@
         <v>12254.68796801913</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5654,7 +5500,7 @@
         <v>12254.68796801913</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5918,7 +5764,7 @@
         <v>12518.35906801913</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5951,7 +5797,7 @@
         <v>12518.35906801913</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5984,7 +5830,7 @@
         <v>12869.26476801913</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6017,7 +5863,7 @@
         <v>12886.73506801913</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6050,7 +5896,7 @@
         <v>12300.60937898476</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6083,7 +5929,7 @@
         <v>11776.21347898476</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6116,7 +5962,7 @@
         <v>11676.21347898476</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6149,7 +5995,7 @@
         <v>11656.53737898476</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6215,7 +6061,7 @@
         <v>11415.35307898476</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6413,7 +6259,7 @@
         <v>12815.61948512121</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6446,7 +6292,7 @@
         <v>12831.49918512121</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6512,7 +6358,7 @@
         <v>14162.29048986753</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6578,7 +6424,7 @@
         <v>14162.29048986753</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6611,7 +6457,7 @@
         <v>14162.29048986753</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6710,7 +6556,7 @@
         <v>14575.4903786564</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6743,7 +6589,7 @@
         <v>14575.4903786564</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6776,7 +6622,7 @@
         <v>14575.4903786564</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6809,7 +6655,7 @@
         <v>14837.2653786564</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6842,7 +6688,7 @@
         <v>12283.07090218581</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6875,7 +6721,7 @@
         <v>12283.07090218581</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6908,7 +6754,7 @@
         <v>12283.07090218581</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6941,7 +6787,7 @@
         <v>12730.57219720035</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6974,7 +6820,7 @@
         <v>12568.13739720035</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7073,7 +6919,7 @@
         <v>12428.70339720035</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7106,7 +6952,7 @@
         <v>12428.70339720035</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7139,7 +6985,7 @@
         <v>10438.74809720035</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7172,7 +7018,7 @@
         <v>10613.21049720035</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7205,7 +7051,7 @@
         <v>10610.64919720035</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7238,7 +7084,7 @@
         <v>10610.64919720035</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7271,7 +7117,7 @@
         <v>10610.64919720035</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7304,7 +7150,7 @@
         <v>9785.387957282654</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7337,7 +7183,7 @@
         <v>8202.917557282653</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -18194,3019 +18040,2605 @@
         <v>3329.396036523204</v>
       </c>
       <c r="H535" t="n">
-        <v>1</v>
-      </c>
-      <c r="I535" t="n">
+        <v>0</v>
+      </c>
+      <c r="I535" t="inlineStr"/>
+      <c r="J535" t="inlineStr"/>
+      <c r="K535" t="inlineStr"/>
+      <c r="L535" t="n">
+        <v>1</v>
+      </c>
+      <c r="M535" t="inlineStr"/>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="n">
+        <v>534</v>
+      </c>
+      <c r="B536" t="n">
+        <v>5915</v>
+      </c>
+      <c r="C536" t="n">
+        <v>5915</v>
+      </c>
+      <c r="D536" t="n">
+        <v>5915</v>
+      </c>
+      <c r="E536" t="n">
+        <v>5915</v>
+      </c>
+      <c r="F536" t="n">
+        <v>2</v>
+      </c>
+      <c r="G536" t="n">
+        <v>3331.396036523204</v>
+      </c>
+      <c r="H536" t="n">
+        <v>0</v>
+      </c>
+      <c r="I536" t="inlineStr"/>
+      <c r="J536" t="inlineStr"/>
+      <c r="K536" t="inlineStr"/>
+      <c r="L536" t="n">
+        <v>1</v>
+      </c>
+      <c r="M536" t="inlineStr"/>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="n">
+        <v>535</v>
+      </c>
+      <c r="B537" t="n">
+        <v>5940</v>
+      </c>
+      <c r="C537" t="n">
+        <v>5940</v>
+      </c>
+      <c r="D537" t="n">
+        <v>5940</v>
+      </c>
+      <c r="E537" t="n">
+        <v>5940</v>
+      </c>
+      <c r="F537" t="n">
+        <v>16.7087</v>
+      </c>
+      <c r="G537" t="n">
+        <v>3348.104736523204</v>
+      </c>
+      <c r="H537" t="n">
+        <v>0</v>
+      </c>
+      <c r="I537" t="inlineStr"/>
+      <c r="J537" t="inlineStr"/>
+      <c r="K537" t="inlineStr"/>
+      <c r="L537" t="n">
+        <v>1</v>
+      </c>
+      <c r="M537" t="inlineStr"/>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="n">
+        <v>536</v>
+      </c>
+      <c r="B538" t="n">
+        <v>5940</v>
+      </c>
+      <c r="C538" t="n">
+        <v>5940</v>
+      </c>
+      <c r="D538" t="n">
+        <v>5940</v>
+      </c>
+      <c r="E538" t="n">
+        <v>5940</v>
+      </c>
+      <c r="F538" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G538" t="n">
+        <v>3348.104736523204</v>
+      </c>
+      <c r="H538" t="n">
+        <v>0</v>
+      </c>
+      <c r="I538" t="inlineStr"/>
+      <c r="J538" t="inlineStr"/>
+      <c r="K538" t="inlineStr"/>
+      <c r="L538" t="n">
+        <v>1</v>
+      </c>
+      <c r="M538" t="inlineStr"/>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="n">
+        <v>537</v>
+      </c>
+      <c r="B539" t="n">
+        <v>5920</v>
+      </c>
+      <c r="C539" t="n">
+        <v>5915</v>
+      </c>
+      <c r="D539" t="n">
+        <v>5920</v>
+      </c>
+      <c r="E539" t="n">
+        <v>5905</v>
+      </c>
+      <c r="F539" t="n">
+        <v>2146.9656</v>
+      </c>
+      <c r="G539" t="n">
+        <v>1201.139136523204</v>
+      </c>
+      <c r="H539" t="n">
+        <v>0</v>
+      </c>
+      <c r="I539" t="inlineStr"/>
+      <c r="J539" t="inlineStr"/>
+      <c r="K539" t="inlineStr"/>
+      <c r="L539" t="n">
+        <v>1</v>
+      </c>
+      <c r="M539" t="inlineStr"/>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="n">
+        <v>538</v>
+      </c>
+      <c r="B540" t="n">
+        <v>5930</v>
+      </c>
+      <c r="C540" t="n">
+        <v>5910</v>
+      </c>
+      <c r="D540" t="n">
+        <v>5930</v>
+      </c>
+      <c r="E540" t="n">
+        <v>5895</v>
+      </c>
+      <c r="F540" t="n">
+        <v>3988.3824</v>
+      </c>
+      <c r="G540" t="n">
+        <v>-2787.243263476796</v>
+      </c>
+      <c r="H540" t="n">
+        <v>0</v>
+      </c>
+      <c r="I540" t="inlineStr"/>
+      <c r="J540" t="inlineStr"/>
+      <c r="K540" t="inlineStr"/>
+      <c r="L540" t="n">
+        <v>1</v>
+      </c>
+      <c r="M540" t="inlineStr"/>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="n">
+        <v>539</v>
+      </c>
+      <c r="B541" t="n">
+        <v>5910</v>
+      </c>
+      <c r="C541" t="n">
+        <v>5910</v>
+      </c>
+      <c r="D541" t="n">
+        <v>5910</v>
+      </c>
+      <c r="E541" t="n">
+        <v>5910</v>
+      </c>
+      <c r="F541" t="n">
+        <v>317.2618</v>
+      </c>
+      <c r="G541" t="n">
+        <v>-2787.243263476796</v>
+      </c>
+      <c r="H541" t="n">
+        <v>0</v>
+      </c>
+      <c r="I541" t="inlineStr"/>
+      <c r="J541" t="inlineStr"/>
+      <c r="K541" t="inlineStr"/>
+      <c r="L541" t="n">
+        <v>1</v>
+      </c>
+      <c r="M541" t="inlineStr"/>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="n">
+        <v>540</v>
+      </c>
+      <c r="B542" t="n">
+        <v>5910</v>
+      </c>
+      <c r="C542" t="n">
+        <v>5910</v>
+      </c>
+      <c r="D542" t="n">
+        <v>5910</v>
+      </c>
+      <c r="E542" t="n">
+        <v>5910</v>
+      </c>
+      <c r="F542" t="n">
+        <v>18.8879</v>
+      </c>
+      <c r="G542" t="n">
+        <v>-2787.243263476796</v>
+      </c>
+      <c r="H542" t="n">
+        <v>0</v>
+      </c>
+      <c r="I542" t="inlineStr"/>
+      <c r="J542" t="inlineStr"/>
+      <c r="K542" t="inlineStr"/>
+      <c r="L542" t="n">
+        <v>1</v>
+      </c>
+      <c r="M542" t="inlineStr"/>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="n">
+        <v>541</v>
+      </c>
+      <c r="B543" t="n">
+        <v>5910</v>
+      </c>
+      <c r="C543" t="n">
+        <v>5910</v>
+      </c>
+      <c r="D543" t="n">
+        <v>5910</v>
+      </c>
+      <c r="E543" t="n">
+        <v>5910</v>
+      </c>
+      <c r="F543" t="n">
+        <v>33.3822</v>
+      </c>
+      <c r="G543" t="n">
+        <v>-2787.243263476796</v>
+      </c>
+      <c r="H543" t="n">
+        <v>0</v>
+      </c>
+      <c r="I543" t="inlineStr"/>
+      <c r="J543" t="inlineStr"/>
+      <c r="K543" t="inlineStr"/>
+      <c r="L543" t="n">
+        <v>1</v>
+      </c>
+      <c r="M543" t="inlineStr"/>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="n">
+        <v>542</v>
+      </c>
+      <c r="B544" t="n">
+        <v>5910</v>
+      </c>
+      <c r="C544" t="n">
+        <v>5910</v>
+      </c>
+      <c r="D544" t="n">
+        <v>5910</v>
+      </c>
+      <c r="E544" t="n">
+        <v>5910</v>
+      </c>
+      <c r="F544" t="n">
+        <v>50.35</v>
+      </c>
+      <c r="G544" t="n">
+        <v>-2787.243263476796</v>
+      </c>
+      <c r="H544" t="n">
+        <v>0</v>
+      </c>
+      <c r="I544" t="inlineStr"/>
+      <c r="J544" t="inlineStr"/>
+      <c r="K544" t="inlineStr"/>
+      <c r="L544" t="n">
+        <v>1</v>
+      </c>
+      <c r="M544" t="inlineStr"/>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="n">
+        <v>543</v>
+      </c>
+      <c r="B545" t="n">
+        <v>5910</v>
+      </c>
+      <c r="C545" t="n">
+        <v>5910</v>
+      </c>
+      <c r="D545" t="n">
+        <v>5910</v>
+      </c>
+      <c r="E545" t="n">
+        <v>5910</v>
+      </c>
+      <c r="F545" t="n">
+        <v>2</v>
+      </c>
+      <c r="G545" t="n">
+        <v>-2787.243263476796</v>
+      </c>
+      <c r="H545" t="n">
+        <v>0</v>
+      </c>
+      <c r="I545" t="inlineStr"/>
+      <c r="J545" t="inlineStr"/>
+      <c r="K545" t="inlineStr"/>
+      <c r="L545" t="n">
+        <v>1</v>
+      </c>
+      <c r="M545" t="inlineStr"/>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="n">
+        <v>544</v>
+      </c>
+      <c r="B546" t="n">
+        <v>5905</v>
+      </c>
+      <c r="C546" t="n">
+        <v>5910</v>
+      </c>
+      <c r="D546" t="n">
+        <v>5915</v>
+      </c>
+      <c r="E546" t="n">
+        <v>5905</v>
+      </c>
+      <c r="F546" t="n">
+        <v>610.5111000000001</v>
+      </c>
+      <c r="G546" t="n">
+        <v>-2787.243263476796</v>
+      </c>
+      <c r="H546" t="n">
+        <v>0</v>
+      </c>
+      <c r="I546" t="inlineStr"/>
+      <c r="J546" t="inlineStr"/>
+      <c r="K546" t="inlineStr"/>
+      <c r="L546" t="n">
+        <v>1</v>
+      </c>
+      <c r="M546" t="inlineStr"/>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="n">
+        <v>545</v>
+      </c>
+      <c r="B547" t="n">
+        <v>5905</v>
+      </c>
+      <c r="C547" t="n">
+        <v>5905</v>
+      </c>
+      <c r="D547" t="n">
+        <v>5905</v>
+      </c>
+      <c r="E547" t="n">
+        <v>5905</v>
+      </c>
+      <c r="F547" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G547" t="n">
+        <v>-2787.343263476796</v>
+      </c>
+      <c r="H547" t="n">
+        <v>0</v>
+      </c>
+      <c r="I547" t="inlineStr"/>
+      <c r="J547" t="inlineStr"/>
+      <c r="K547" t="inlineStr"/>
+      <c r="L547" t="n">
+        <v>1</v>
+      </c>
+      <c r="M547" t="inlineStr"/>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="n">
+        <v>546</v>
+      </c>
+      <c r="B548" t="n">
+        <v>5895</v>
+      </c>
+      <c r="C548" t="n">
+        <v>5895</v>
+      </c>
+      <c r="D548" t="n">
+        <v>5895</v>
+      </c>
+      <c r="E548" t="n">
+        <v>5895</v>
+      </c>
+      <c r="F548" t="n">
+        <v>80.8386</v>
+      </c>
+      <c r="G548" t="n">
+        <v>-2868.181863476796</v>
+      </c>
+      <c r="H548" t="n">
+        <v>0</v>
+      </c>
+      <c r="I548" t="inlineStr"/>
+      <c r="J548" t="inlineStr"/>
+      <c r="K548" t="inlineStr"/>
+      <c r="L548" t="n">
+        <v>1</v>
+      </c>
+      <c r="M548" t="inlineStr"/>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="n">
+        <v>547</v>
+      </c>
+      <c r="B549" t="n">
         <v>5900</v>
       </c>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr">
+      <c r="C549" t="n">
+        <v>5900</v>
+      </c>
+      <c r="D549" t="n">
+        <v>5900</v>
+      </c>
+      <c r="E549" t="n">
+        <v>5890</v>
+      </c>
+      <c r="F549" t="n">
+        <v>24.4028</v>
+      </c>
+      <c r="G549" t="n">
+        <v>-2843.779063476796</v>
+      </c>
+      <c r="H549" t="n">
+        <v>0</v>
+      </c>
+      <c r="I549" t="inlineStr"/>
+      <c r="J549" t="inlineStr"/>
+      <c r="K549" t="inlineStr"/>
+      <c r="L549" t="n">
+        <v>1</v>
+      </c>
+      <c r="M549" t="inlineStr"/>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="n">
+        <v>548</v>
+      </c>
+      <c r="B550" t="n">
+        <v>5895</v>
+      </c>
+      <c r="C550" t="n">
+        <v>5895</v>
+      </c>
+      <c r="D550" t="n">
+        <v>5895</v>
+      </c>
+      <c r="E550" t="n">
+        <v>5895</v>
+      </c>
+      <c r="F550" t="n">
+        <v>112.1297</v>
+      </c>
+      <c r="G550" t="n">
+        <v>-2955.908763476796</v>
+      </c>
+      <c r="H550" t="n">
+        <v>0</v>
+      </c>
+      <c r="I550" t="inlineStr"/>
+      <c r="J550" t="inlineStr"/>
+      <c r="K550" t="inlineStr"/>
+      <c r="L550" t="n">
+        <v>1</v>
+      </c>
+      <c r="M550" t="inlineStr"/>
+    </row>
+    <row r="551">
+      <c r="A551" s="1" t="n">
+        <v>549</v>
+      </c>
+      <c r="B551" t="n">
+        <v>5890</v>
+      </c>
+      <c r="C551" t="n">
+        <v>5890</v>
+      </c>
+      <c r="D551" t="n">
+        <v>5890</v>
+      </c>
+      <c r="E551" t="n">
+        <v>5890</v>
+      </c>
+      <c r="F551" t="n">
+        <v>18.3892</v>
+      </c>
+      <c r="G551" t="n">
+        <v>-2974.297963476796</v>
+      </c>
+      <c r="H551" t="n">
+        <v>0</v>
+      </c>
+      <c r="I551" t="inlineStr"/>
+      <c r="J551" t="inlineStr"/>
+      <c r="K551" t="inlineStr"/>
+      <c r="L551" t="n">
+        <v>1</v>
+      </c>
+      <c r="M551" t="inlineStr"/>
+    </row>
+    <row r="552">
+      <c r="A552" s="1" t="n">
+        <v>550</v>
+      </c>
+      <c r="B552" t="n">
+        <v>5890</v>
+      </c>
+      <c r="C552" t="n">
+        <v>5885</v>
+      </c>
+      <c r="D552" t="n">
+        <v>5890</v>
+      </c>
+      <c r="E552" t="n">
+        <v>5885</v>
+      </c>
+      <c r="F552" t="n">
+        <v>98.8702</v>
+      </c>
+      <c r="G552" t="n">
+        <v>-3073.168163476796</v>
+      </c>
+      <c r="H552" t="n">
+        <v>0</v>
+      </c>
+      <c r="I552" t="inlineStr"/>
+      <c r="J552" t="inlineStr"/>
+      <c r="K552" t="inlineStr"/>
+      <c r="L552" t="n">
+        <v>1</v>
+      </c>
+      <c r="M552" t="inlineStr"/>
+    </row>
+    <row r="553">
+      <c r="A553" s="1" t="n">
+        <v>551</v>
+      </c>
+      <c r="B553" t="n">
+        <v>5885</v>
+      </c>
+      <c r="C553" t="n">
+        <v>5885</v>
+      </c>
+      <c r="D553" t="n">
+        <v>5885</v>
+      </c>
+      <c r="E553" t="n">
+        <v>5885</v>
+      </c>
+      <c r="F553" t="n">
+        <v>16.9113</v>
+      </c>
+      <c r="G553" t="n">
+        <v>-3073.168163476796</v>
+      </c>
+      <c r="H553" t="n">
+        <v>0</v>
+      </c>
+      <c r="I553" t="inlineStr"/>
+      <c r="J553" t="inlineStr"/>
+      <c r="K553" t="inlineStr"/>
+      <c r="L553" t="n">
+        <v>1</v>
+      </c>
+      <c r="M553" t="inlineStr"/>
+    </row>
+    <row r="554">
+      <c r="A554" s="1" t="n">
+        <v>552</v>
+      </c>
+      <c r="B554" t="n">
+        <v>5880</v>
+      </c>
+      <c r="C554" t="n">
+        <v>5860</v>
+      </c>
+      <c r="D554" t="n">
+        <v>5880</v>
+      </c>
+      <c r="E554" t="n">
+        <v>5860</v>
+      </c>
+      <c r="F554" t="n">
+        <v>553.3971</v>
+      </c>
+      <c r="G554" t="n">
+        <v>-3626.565263476796</v>
+      </c>
+      <c r="H554" t="n">
+        <v>0</v>
+      </c>
+      <c r="I554" t="inlineStr"/>
+      <c r="J554" t="inlineStr"/>
+      <c r="K554" t="inlineStr"/>
+      <c r="L554" t="n">
+        <v>1</v>
+      </c>
+      <c r="M554" t="inlineStr"/>
+    </row>
+    <row r="555">
+      <c r="A555" s="1" t="n">
+        <v>553</v>
+      </c>
+      <c r="B555" t="n">
+        <v>5865</v>
+      </c>
+      <c r="C555" t="n">
+        <v>5880</v>
+      </c>
+      <c r="D555" t="n">
+        <v>5880</v>
+      </c>
+      <c r="E555" t="n">
+        <v>5865</v>
+      </c>
+      <c r="F555" t="n">
+        <v>59.1838</v>
+      </c>
+      <c r="G555" t="n">
+        <v>-3567.381463476796</v>
+      </c>
+      <c r="H555" t="n">
+        <v>0</v>
+      </c>
+      <c r="I555" t="inlineStr"/>
+      <c r="J555" t="inlineStr"/>
+      <c r="K555" t="inlineStr"/>
+      <c r="L555" t="n">
+        <v>1</v>
+      </c>
+      <c r="M555" t="inlineStr"/>
+    </row>
+    <row r="556">
+      <c r="A556" s="1" t="n">
+        <v>554</v>
+      </c>
+      <c r="B556" t="n">
+        <v>5880</v>
+      </c>
+      <c r="C556" t="n">
+        <v>5875</v>
+      </c>
+      <c r="D556" t="n">
+        <v>5880</v>
+      </c>
+      <c r="E556" t="n">
+        <v>5860</v>
+      </c>
+      <c r="F556" t="n">
+        <v>635.5596</v>
+      </c>
+      <c r="G556" t="n">
+        <v>-4202.941063476796</v>
+      </c>
+      <c r="H556" t="n">
+        <v>0</v>
+      </c>
+      <c r="I556" t="inlineStr"/>
+      <c r="J556" t="inlineStr"/>
+      <c r="K556" t="inlineStr"/>
+      <c r="L556" t="n">
+        <v>1</v>
+      </c>
+      <c r="M556" t="inlineStr"/>
+    </row>
+    <row r="557">
+      <c r="A557" s="1" t="n">
+        <v>555</v>
+      </c>
+      <c r="B557" t="n">
+        <v>5875</v>
+      </c>
+      <c r="C557" t="n">
+        <v>5875</v>
+      </c>
+      <c r="D557" t="n">
+        <v>5875</v>
+      </c>
+      <c r="E557" t="n">
+        <v>5875</v>
+      </c>
+      <c r="F557" t="n">
+        <v>85.3642</v>
+      </c>
+      <c r="G557" t="n">
+        <v>-4202.941063476796</v>
+      </c>
+      <c r="H557" t="n">
+        <v>0</v>
+      </c>
+      <c r="I557" t="inlineStr"/>
+      <c r="J557" t="inlineStr"/>
+      <c r="K557" t="inlineStr"/>
+      <c r="L557" t="n">
+        <v>1</v>
+      </c>
+      <c r="M557" t="inlineStr"/>
+    </row>
+    <row r="558">
+      <c r="A558" s="1" t="n">
+        <v>556</v>
+      </c>
+      <c r="B558" t="n">
+        <v>5875</v>
+      </c>
+      <c r="C558" t="n">
+        <v>5875</v>
+      </c>
+      <c r="D558" t="n">
+        <v>5875</v>
+      </c>
+      <c r="E558" t="n">
+        <v>5875</v>
+      </c>
+      <c r="F558" t="n">
+        <v>34.5668</v>
+      </c>
+      <c r="G558" t="n">
+        <v>-4202.941063476796</v>
+      </c>
+      <c r="H558" t="n">
+        <v>0</v>
+      </c>
+      <c r="I558" t="inlineStr"/>
+      <c r="J558" t="inlineStr"/>
+      <c r="K558" t="inlineStr"/>
+      <c r="L558" t="n">
+        <v>1</v>
+      </c>
+      <c r="M558" t="inlineStr"/>
+    </row>
+    <row r="559">
+      <c r="A559" s="1" t="n">
+        <v>557</v>
+      </c>
+      <c r="B559" t="n">
+        <v>5890</v>
+      </c>
+      <c r="C559" t="n">
+        <v>5880</v>
+      </c>
+      <c r="D559" t="n">
+        <v>5890</v>
+      </c>
+      <c r="E559" t="n">
+        <v>5880</v>
+      </c>
+      <c r="F559" t="n">
+        <v>187.5429</v>
+      </c>
+      <c r="G559" t="n">
+        <v>-4015.398163476797</v>
+      </c>
+      <c r="H559" t="n">
+        <v>0</v>
+      </c>
+      <c r="I559" t="inlineStr"/>
+      <c r="J559" t="inlineStr"/>
+      <c r="K559" t="inlineStr"/>
+      <c r="L559" t="n">
+        <v>1</v>
+      </c>
+      <c r="M559" t="inlineStr"/>
+    </row>
+    <row r="560">
+      <c r="A560" s="1" t="n">
+        <v>558</v>
+      </c>
+      <c r="B560" t="n">
+        <v>5880</v>
+      </c>
+      <c r="C560" t="n">
+        <v>5880</v>
+      </c>
+      <c r="D560" t="n">
+        <v>5885</v>
+      </c>
+      <c r="E560" t="n">
+        <v>5800</v>
+      </c>
+      <c r="F560" t="n">
+        <v>11006.1488</v>
+      </c>
+      <c r="G560" t="n">
+        <v>-4015.398163476797</v>
+      </c>
+      <c r="H560" t="n">
+        <v>0</v>
+      </c>
+      <c r="I560" t="inlineStr"/>
+      <c r="J560" t="inlineStr"/>
+      <c r="K560" t="inlineStr"/>
+      <c r="L560" t="n">
+        <v>1</v>
+      </c>
+      <c r="M560" t="inlineStr"/>
+    </row>
+    <row r="561">
+      <c r="A561" s="1" t="n">
+        <v>559</v>
+      </c>
+      <c r="B561" t="n">
+        <v>5885</v>
+      </c>
+      <c r="C561" t="n">
+        <v>5885</v>
+      </c>
+      <c r="D561" t="n">
+        <v>5895</v>
+      </c>
+      <c r="E561" t="n">
+        <v>5885</v>
+      </c>
+      <c r="F561" t="n">
+        <v>398.3717</v>
+      </c>
+      <c r="G561" t="n">
+        <v>-3617.026463476796</v>
+      </c>
+      <c r="H561" t="n">
+        <v>0</v>
+      </c>
+      <c r="I561" t="inlineStr"/>
+      <c r="J561" t="inlineStr"/>
+      <c r="K561" t="inlineStr"/>
+      <c r="L561" t="n">
+        <v>1</v>
+      </c>
+      <c r="M561" t="inlineStr"/>
+    </row>
+    <row r="562">
+      <c r="A562" s="1" t="n">
+        <v>560</v>
+      </c>
+      <c r="B562" t="n">
+        <v>5885</v>
+      </c>
+      <c r="C562" t="n">
+        <v>5890</v>
+      </c>
+      <c r="D562" t="n">
+        <v>5890</v>
+      </c>
+      <c r="E562" t="n">
+        <v>5885</v>
+      </c>
+      <c r="F562" t="n">
+        <v>405.7097</v>
+      </c>
+      <c r="G562" t="n">
+        <v>-3211.316763476796</v>
+      </c>
+      <c r="H562" t="n">
+        <v>0</v>
+      </c>
+      <c r="I562" t="inlineStr"/>
+      <c r="J562" t="inlineStr"/>
+      <c r="K562" t="inlineStr"/>
+      <c r="L562" t="n">
+        <v>1</v>
+      </c>
+      <c r="M562" t="inlineStr"/>
+    </row>
+    <row r="563">
+      <c r="A563" s="1" t="n">
+        <v>561</v>
+      </c>
+      <c r="B563" t="n">
+        <v>5885</v>
+      </c>
+      <c r="C563" t="n">
+        <v>5880</v>
+      </c>
+      <c r="D563" t="n">
+        <v>5885</v>
+      </c>
+      <c r="E563" t="n">
+        <v>5880</v>
+      </c>
+      <c r="F563" t="n">
+        <v>260.3702</v>
+      </c>
+      <c r="G563" t="n">
+        <v>-3471.686963476796</v>
+      </c>
+      <c r="H563" t="n">
+        <v>0</v>
+      </c>
+      <c r="I563" t="inlineStr"/>
+      <c r="J563" t="inlineStr"/>
+      <c r="K563" t="inlineStr"/>
+      <c r="L563" t="n">
+        <v>1</v>
+      </c>
+      <c r="M563" t="inlineStr"/>
+    </row>
+    <row r="564">
+      <c r="A564" s="1" t="n">
+        <v>562</v>
+      </c>
+      <c r="B564" t="n">
+        <v>5880</v>
+      </c>
+      <c r="C564" t="n">
+        <v>5880</v>
+      </c>
+      <c r="D564" t="n">
+        <v>5880</v>
+      </c>
+      <c r="E564" t="n">
+        <v>5875</v>
+      </c>
+      <c r="F564" t="n">
+        <v>380.0526</v>
+      </c>
+      <c r="G564" t="n">
+        <v>-3471.686963476796</v>
+      </c>
+      <c r="H564" t="n">
+        <v>0</v>
+      </c>
+      <c r="I564" t="inlineStr"/>
+      <c r="J564" t="inlineStr"/>
+      <c r="K564" t="inlineStr"/>
+      <c r="L564" t="n">
+        <v>1</v>
+      </c>
+      <c r="M564" t="inlineStr"/>
+    </row>
+    <row r="565">
+      <c r="A565" s="1" t="n">
+        <v>563</v>
+      </c>
+      <c r="B565" t="n">
+        <v>5880</v>
+      </c>
+      <c r="C565" t="n">
+        <v>5880</v>
+      </c>
+      <c r="D565" t="n">
+        <v>5880</v>
+      </c>
+      <c r="E565" t="n">
+        <v>5880</v>
+      </c>
+      <c r="F565" t="n">
+        <v>375.9385</v>
+      </c>
+      <c r="G565" t="n">
+        <v>-3471.686963476796</v>
+      </c>
+      <c r="H565" t="n">
+        <v>0</v>
+      </c>
+      <c r="I565" t="inlineStr"/>
+      <c r="J565" t="inlineStr"/>
+      <c r="K565" t="inlineStr"/>
+      <c r="L565" t="n">
+        <v>1</v>
+      </c>
+      <c r="M565" t="inlineStr"/>
+    </row>
+    <row r="566">
+      <c r="A566" s="1" t="n">
+        <v>564</v>
+      </c>
+      <c r="B566" t="n">
+        <v>5880</v>
+      </c>
+      <c r="C566" t="n">
+        <v>5880</v>
+      </c>
+      <c r="D566" t="n">
+        <v>5880</v>
+      </c>
+      <c r="E566" t="n">
+        <v>5880</v>
+      </c>
+      <c r="F566" t="n">
+        <v>155.2969</v>
+      </c>
+      <c r="G566" t="n">
+        <v>-3471.686963476796</v>
+      </c>
+      <c r="H566" t="n">
+        <v>0</v>
+      </c>
+      <c r="I566" t="inlineStr"/>
+      <c r="J566" t="inlineStr"/>
+      <c r="K566" t="inlineStr"/>
+      <c r="L566" t="n">
+        <v>1</v>
+      </c>
+      <c r="M566" t="inlineStr"/>
+    </row>
+    <row r="567">
+      <c r="A567" s="1" t="n">
+        <v>565</v>
+      </c>
+      <c r="B567" t="n">
+        <v>5880</v>
+      </c>
+      <c r="C567" t="n">
+        <v>5880</v>
+      </c>
+      <c r="D567" t="n">
+        <v>5880</v>
+      </c>
+      <c r="E567" t="n">
+        <v>5880</v>
+      </c>
+      <c r="F567" t="n">
+        <v>551.671</v>
+      </c>
+      <c r="G567" t="n">
+        <v>-3471.686963476796</v>
+      </c>
+      <c r="H567" t="n">
+        <v>0</v>
+      </c>
+      <c r="I567" t="inlineStr"/>
+      <c r="J567" t="inlineStr"/>
+      <c r="K567" t="inlineStr"/>
+      <c r="L567" t="n">
+        <v>1</v>
+      </c>
+      <c r="M567" t="inlineStr"/>
+    </row>
+    <row r="568">
+      <c r="A568" s="1" t="n">
+        <v>566</v>
+      </c>
+      <c r="B568" t="n">
+        <v>5870</v>
+      </c>
+      <c r="C568" t="n">
+        <v>5870</v>
+      </c>
+      <c r="D568" t="n">
+        <v>5870</v>
+      </c>
+      <c r="E568" t="n">
+        <v>5865</v>
+      </c>
+      <c r="F568" t="n">
+        <v>452.3594</v>
+      </c>
+      <c r="G568" t="n">
+        <v>-3924.046363476796</v>
+      </c>
+      <c r="H568" t="n">
+        <v>0</v>
+      </c>
+      <c r="I568" t="inlineStr"/>
+      <c r="J568" t="inlineStr"/>
+      <c r="K568" t="inlineStr"/>
+      <c r="L568" t="n">
+        <v>1</v>
+      </c>
+      <c r="M568" t="inlineStr"/>
+    </row>
+    <row r="569">
+      <c r="A569" s="1" t="n">
+        <v>567</v>
+      </c>
+      <c r="B569" t="n">
+        <v>5870</v>
+      </c>
+      <c r="C569" t="n">
+        <v>5870</v>
+      </c>
+      <c r="D569" t="n">
+        <v>5870</v>
+      </c>
+      <c r="E569" t="n">
+        <v>5870</v>
+      </c>
+      <c r="F569" t="n">
+        <v>500</v>
+      </c>
+      <c r="G569" t="n">
+        <v>-3924.046363476796</v>
+      </c>
+      <c r="H569" t="n">
+        <v>0</v>
+      </c>
+      <c r="I569" t="inlineStr"/>
+      <c r="J569" t="inlineStr"/>
+      <c r="K569" t="inlineStr"/>
+      <c r="L569" t="n">
+        <v>1</v>
+      </c>
+      <c r="M569" t="inlineStr"/>
+    </row>
+    <row r="570">
+      <c r="A570" s="1" t="n">
+        <v>568</v>
+      </c>
+      <c r="B570" t="n">
+        <v>5860</v>
+      </c>
+      <c r="C570" t="n">
+        <v>5855</v>
+      </c>
+      <c r="D570" t="n">
+        <v>5860</v>
+      </c>
+      <c r="E570" t="n">
+        <v>5855</v>
+      </c>
+      <c r="F570" t="n">
+        <v>40.0945</v>
+      </c>
+      <c r="G570" t="n">
+        <v>-3964.140863476796</v>
+      </c>
+      <c r="H570" t="n">
+        <v>0</v>
+      </c>
+      <c r="I570" t="inlineStr"/>
+      <c r="J570" t="inlineStr"/>
+      <c r="K570" t="inlineStr"/>
+      <c r="L570" t="n">
+        <v>1</v>
+      </c>
+      <c r="M570" t="inlineStr"/>
+    </row>
+    <row r="571">
+      <c r="A571" s="1" t="n">
+        <v>569</v>
+      </c>
+      <c r="B571" t="n">
+        <v>5870</v>
+      </c>
+      <c r="C571" t="n">
+        <v>5870</v>
+      </c>
+      <c r="D571" t="n">
+        <v>5870</v>
+      </c>
+      <c r="E571" t="n">
+        <v>5870</v>
+      </c>
+      <c r="F571" t="n">
+        <v>49.5042</v>
+      </c>
+      <c r="G571" t="n">
+        <v>-3914.636663476796</v>
+      </c>
+      <c r="H571" t="n">
+        <v>0</v>
+      </c>
+      <c r="I571" t="inlineStr"/>
+      <c r="J571" t="inlineStr"/>
+      <c r="K571" t="inlineStr"/>
+      <c r="L571" t="n">
+        <v>1</v>
+      </c>
+      <c r="M571" t="inlineStr"/>
+    </row>
+    <row r="572">
+      <c r="A572" s="1" t="n">
+        <v>570</v>
+      </c>
+      <c r="B572" t="n">
+        <v>5870</v>
+      </c>
+      <c r="C572" t="n">
+        <v>5870</v>
+      </c>
+      <c r="D572" t="n">
+        <v>5870</v>
+      </c>
+      <c r="E572" t="n">
+        <v>5870</v>
+      </c>
+      <c r="F572" t="n">
+        <v>20.697</v>
+      </c>
+      <c r="G572" t="n">
+        <v>-3914.636663476796</v>
+      </c>
+      <c r="H572" t="n">
+        <v>0</v>
+      </c>
+      <c r="I572" t="inlineStr"/>
+      <c r="J572" t="inlineStr"/>
+      <c r="K572" t="inlineStr"/>
+      <c r="L572" t="n">
+        <v>1</v>
+      </c>
+      <c r="M572" t="inlineStr"/>
+    </row>
+    <row r="573">
+      <c r="A573" s="1" t="n">
+        <v>571</v>
+      </c>
+      <c r="B573" t="n">
+        <v>5870</v>
+      </c>
+      <c r="C573" t="n">
+        <v>5870</v>
+      </c>
+      <c r="D573" t="n">
+        <v>5870</v>
+      </c>
+      <c r="E573" t="n">
+        <v>5870</v>
+      </c>
+      <c r="F573" t="n">
+        <v>458.945</v>
+      </c>
+      <c r="G573" t="n">
+        <v>-3914.636663476796</v>
+      </c>
+      <c r="H573" t="n">
+        <v>0</v>
+      </c>
+      <c r="I573" t="inlineStr"/>
+      <c r="J573" t="inlineStr"/>
+      <c r="K573" t="inlineStr"/>
+      <c r="L573" t="n">
+        <v>1</v>
+      </c>
+      <c r="M573" t="inlineStr"/>
+    </row>
+    <row r="574">
+      <c r="A574" s="1" t="n">
+        <v>572</v>
+      </c>
+      <c r="B574" t="n">
+        <v>5870</v>
+      </c>
+      <c r="C574" t="n">
+        <v>5865</v>
+      </c>
+      <c r="D574" t="n">
+        <v>5870</v>
+      </c>
+      <c r="E574" t="n">
+        <v>5865</v>
+      </c>
+      <c r="F574" t="n">
+        <v>203.1122</v>
+      </c>
+      <c r="G574" t="n">
+        <v>-4117.748863476796</v>
+      </c>
+      <c r="H574" t="n">
+        <v>0</v>
+      </c>
+      <c r="I574" t="inlineStr"/>
+      <c r="J574" t="inlineStr"/>
+      <c r="K574" t="inlineStr"/>
+      <c r="L574" t="n">
+        <v>1</v>
+      </c>
+      <c r="M574" t="inlineStr"/>
+    </row>
+    <row r="575">
+      <c r="A575" s="1" t="n">
+        <v>573</v>
+      </c>
+      <c r="B575" t="n">
+        <v>5865</v>
+      </c>
+      <c r="C575" t="n">
+        <v>5865</v>
+      </c>
+      <c r="D575" t="n">
+        <v>5865</v>
+      </c>
+      <c r="E575" t="n">
+        <v>5865</v>
+      </c>
+      <c r="F575" t="n">
+        <v>50.0151</v>
+      </c>
+      <c r="G575" t="n">
+        <v>-4117.748863476796</v>
+      </c>
+      <c r="H575" t="n">
+        <v>0</v>
+      </c>
+      <c r="I575" t="inlineStr"/>
+      <c r="J575" t="inlineStr"/>
+      <c r="K575" t="inlineStr"/>
+      <c r="L575" t="n">
+        <v>1</v>
+      </c>
+      <c r="M575" t="inlineStr"/>
+    </row>
+    <row r="576">
+      <c r="A576" s="1" t="n">
+        <v>574</v>
+      </c>
+      <c r="B576" t="n">
+        <v>5855</v>
+      </c>
+      <c r="C576" t="n">
+        <v>5855</v>
+      </c>
+      <c r="D576" t="n">
+        <v>5855</v>
+      </c>
+      <c r="E576" t="n">
+        <v>5855</v>
+      </c>
+      <c r="F576" t="n">
+        <v>1</v>
+      </c>
+      <c r="G576" t="n">
+        <v>-4118.748863476796</v>
+      </c>
+      <c r="H576" t="n">
+        <v>0</v>
+      </c>
+      <c r="I576" t="inlineStr"/>
+      <c r="J576" t="inlineStr"/>
+      <c r="K576" t="inlineStr"/>
+      <c r="L576" t="n">
+        <v>1</v>
+      </c>
+      <c r="M576" t="inlineStr"/>
+    </row>
+    <row r="577">
+      <c r="A577" s="1" t="n">
+        <v>575</v>
+      </c>
+      <c r="B577" t="n">
+        <v>5860</v>
+      </c>
+      <c r="C577" t="n">
+        <v>5860</v>
+      </c>
+      <c r="D577" t="n">
+        <v>5860</v>
+      </c>
+      <c r="E577" t="n">
+        <v>5860</v>
+      </c>
+      <c r="F577" t="n">
+        <v>1.752</v>
+      </c>
+      <c r="G577" t="n">
+        <v>-4116.996863476796</v>
+      </c>
+      <c r="H577" t="n">
+        <v>0</v>
+      </c>
+      <c r="I577" t="inlineStr"/>
+      <c r="J577" t="inlineStr"/>
+      <c r="K577" t="inlineStr"/>
+      <c r="L577" t="n">
+        <v>1</v>
+      </c>
+      <c r="M577" t="inlineStr"/>
+    </row>
+    <row r="578">
+      <c r="A578" s="1" t="n">
+        <v>576</v>
+      </c>
+      <c r="B578" t="n">
+        <v>5850</v>
+      </c>
+      <c r="C578" t="n">
+        <v>5845</v>
+      </c>
+      <c r="D578" t="n">
+        <v>5850</v>
+      </c>
+      <c r="E578" t="n">
+        <v>5845</v>
+      </c>
+      <c r="F578" t="n">
+        <v>250.9345</v>
+      </c>
+      <c r="G578" t="n">
+        <v>-4367.931363476796</v>
+      </c>
+      <c r="H578" t="n">
+        <v>0</v>
+      </c>
+      <c r="I578" t="inlineStr"/>
+      <c r="J578" t="inlineStr"/>
+      <c r="K578" t="inlineStr"/>
+      <c r="L578" t="n">
+        <v>1</v>
+      </c>
+      <c r="M578" t="inlineStr"/>
+    </row>
+    <row r="579">
+      <c r="A579" s="1" t="n">
+        <v>577</v>
+      </c>
+      <c r="B579" t="n">
+        <v>5865</v>
+      </c>
+      <c r="C579" t="n">
+        <v>5865</v>
+      </c>
+      <c r="D579" t="n">
+        <v>5865</v>
+      </c>
+      <c r="E579" t="n">
+        <v>5865</v>
+      </c>
+      <c r="F579" t="n">
+        <v>259.1825</v>
+      </c>
+      <c r="G579" t="n">
+        <v>-4108.748863476796</v>
+      </c>
+      <c r="H579" t="n">
+        <v>0</v>
+      </c>
+      <c r="I579" t="inlineStr"/>
+      <c r="J579" t="inlineStr"/>
+      <c r="K579" t="inlineStr"/>
+      <c r="L579" t="n">
+        <v>1</v>
+      </c>
+      <c r="M579" t="inlineStr"/>
+    </row>
+    <row r="580">
+      <c r="A580" s="1" t="n">
+        <v>578</v>
+      </c>
+      <c r="B580" t="n">
+        <v>5870</v>
+      </c>
+      <c r="C580" t="n">
+        <v>5870</v>
+      </c>
+      <c r="D580" t="n">
+        <v>5870</v>
+      </c>
+      <c r="E580" t="n">
+        <v>5870</v>
+      </c>
+      <c r="F580" t="n">
+        <v>217.8594</v>
+      </c>
+      <c r="G580" t="n">
+        <v>-3890.889463476796</v>
+      </c>
+      <c r="H580" t="n">
+        <v>0</v>
+      </c>
+      <c r="I580" t="inlineStr"/>
+      <c r="J580" t="inlineStr"/>
+      <c r="K580" t="inlineStr"/>
+      <c r="L580" t="n">
+        <v>1</v>
+      </c>
+      <c r="M580" t="inlineStr"/>
+    </row>
+    <row r="581">
+      <c r="A581" s="1" t="n">
+        <v>579</v>
+      </c>
+      <c r="B581" t="n">
+        <v>5855</v>
+      </c>
+      <c r="C581" t="n">
+        <v>5855</v>
+      </c>
+      <c r="D581" t="n">
+        <v>5855</v>
+      </c>
+      <c r="E581" t="n">
+        <v>5855</v>
+      </c>
+      <c r="F581" t="n">
+        <v>31.2227</v>
+      </c>
+      <c r="G581" t="n">
+        <v>-3922.112163476796</v>
+      </c>
+      <c r="H581" t="n">
+        <v>0</v>
+      </c>
+      <c r="I581" t="inlineStr"/>
+      <c r="J581" t="inlineStr"/>
+      <c r="K581" t="inlineStr"/>
+      <c r="L581" t="n">
+        <v>1</v>
+      </c>
+      <c r="M581" t="inlineStr"/>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="n">
+        <v>580</v>
+      </c>
+      <c r="B582" t="n">
+        <v>5875</v>
+      </c>
+      <c r="C582" t="n">
+        <v>5875</v>
+      </c>
+      <c r="D582" t="n">
+        <v>5875</v>
+      </c>
+      <c r="E582" t="n">
+        <v>5875</v>
+      </c>
+      <c r="F582" t="n">
+        <v>3.1038</v>
+      </c>
+      <c r="G582" t="n">
+        <v>-3919.008363476796</v>
+      </c>
+      <c r="H582" t="n">
+        <v>0</v>
+      </c>
+      <c r="I582" t="inlineStr"/>
+      <c r="J582" t="inlineStr"/>
+      <c r="K582" t="inlineStr"/>
+      <c r="L582" t="n">
+        <v>1</v>
+      </c>
+      <c r="M582" t="inlineStr"/>
+    </row>
+    <row r="583">
+      <c r="A583" s="1" t="n">
+        <v>581</v>
+      </c>
+      <c r="B583" t="n">
+        <v>5870</v>
+      </c>
+      <c r="C583" t="n">
+        <v>5870</v>
+      </c>
+      <c r="D583" t="n">
+        <v>5870</v>
+      </c>
+      <c r="E583" t="n">
+        <v>5870</v>
+      </c>
+      <c r="F583" t="n">
+        <v>6.9896</v>
+      </c>
+      <c r="G583" t="n">
+        <v>-3925.997963476796</v>
+      </c>
+      <c r="H583" t="n">
+        <v>0</v>
+      </c>
+      <c r="I583" t="inlineStr"/>
+      <c r="J583" t="inlineStr"/>
+      <c r="K583" t="inlineStr"/>
+      <c r="L583" t="n">
+        <v>1</v>
+      </c>
+      <c r="M583" t="inlineStr"/>
+    </row>
+    <row r="584">
+      <c r="A584" s="1" t="n">
+        <v>582</v>
+      </c>
+      <c r="B584" t="n">
+        <v>5855</v>
+      </c>
+      <c r="C584" t="n">
+        <v>5855</v>
+      </c>
+      <c r="D584" t="n">
+        <v>5855</v>
+      </c>
+      <c r="E584" t="n">
+        <v>5855</v>
+      </c>
+      <c r="F584" t="n">
+        <v>137.313</v>
+      </c>
+      <c r="G584" t="n">
+        <v>-4063.310963476796</v>
+      </c>
+      <c r="H584" t="n">
+        <v>0</v>
+      </c>
+      <c r="I584" t="inlineStr"/>
+      <c r="J584" t="inlineStr"/>
+      <c r="K584" t="inlineStr"/>
+      <c r="L584" t="n">
+        <v>1</v>
+      </c>
+      <c r="M584" t="inlineStr"/>
+    </row>
+    <row r="585">
+      <c r="A585" s="1" t="n">
+        <v>583</v>
+      </c>
+      <c r="B585" t="n">
+        <v>5845</v>
+      </c>
+      <c r="C585" t="n">
+        <v>5850</v>
+      </c>
+      <c r="D585" t="n">
+        <v>5850</v>
+      </c>
+      <c r="E585" t="n">
+        <v>5845</v>
+      </c>
+      <c r="F585" t="n">
+        <v>187.1114</v>
+      </c>
+      <c r="G585" t="n">
+        <v>-4250.422363476796</v>
+      </c>
+      <c r="H585" t="n">
+        <v>0</v>
+      </c>
+      <c r="I585" t="inlineStr"/>
+      <c r="J585" t="inlineStr"/>
+      <c r="K585" t="inlineStr"/>
+      <c r="L585" t="n">
+        <v>1</v>
+      </c>
+      <c r="M585" t="inlineStr"/>
+    </row>
+    <row r="586">
+      <c r="A586" s="1" t="n">
+        <v>584</v>
+      </c>
+      <c r="B586" t="n">
+        <v>5840</v>
+      </c>
+      <c r="C586" t="n">
+        <v>5850</v>
+      </c>
+      <c r="D586" t="n">
+        <v>5850</v>
+      </c>
+      <c r="E586" t="n">
+        <v>5835</v>
+      </c>
+      <c r="F586" t="n">
+        <v>189.7917</v>
+      </c>
+      <c r="G586" t="n">
+        <v>-4250.422363476796</v>
+      </c>
+      <c r="H586" t="n">
+        <v>0</v>
+      </c>
+      <c r="I586" t="inlineStr"/>
+      <c r="J586" t="inlineStr"/>
+      <c r="K586" t="inlineStr"/>
+      <c r="L586" t="n">
+        <v>1</v>
+      </c>
+      <c r="M586" t="inlineStr"/>
+    </row>
+    <row r="587">
+      <c r="A587" s="1" t="n">
+        <v>585</v>
+      </c>
+      <c r="B587" t="n">
+        <v>5850</v>
+      </c>
+      <c r="C587" t="n">
+        <v>5850</v>
+      </c>
+      <c r="D587" t="n">
+        <v>5850</v>
+      </c>
+      <c r="E587" t="n">
+        <v>5850</v>
+      </c>
+      <c r="F587" t="n">
+        <v>85.47</v>
+      </c>
+      <c r="G587" t="n">
+        <v>-4250.422363476796</v>
+      </c>
+      <c r="H587" t="n">
+        <v>0</v>
+      </c>
+      <c r="I587" t="inlineStr"/>
+      <c r="J587" t="inlineStr"/>
+      <c r="K587" t="inlineStr"/>
+      <c r="L587" t="n">
+        <v>1</v>
+      </c>
+      <c r="M587" t="inlineStr"/>
+    </row>
+    <row r="588">
+      <c r="A588" s="1" t="n">
+        <v>586</v>
+      </c>
+      <c r="B588" t="n">
+        <v>5850</v>
+      </c>
+      <c r="C588" t="n">
+        <v>5850</v>
+      </c>
+      <c r="D588" t="n">
+        <v>5850</v>
+      </c>
+      <c r="E588" t="n">
+        <v>5850</v>
+      </c>
+      <c r="F588" t="n">
+        <v>47.4294</v>
+      </c>
+      <c r="G588" t="n">
+        <v>-4250.422363476796</v>
+      </c>
+      <c r="H588" t="n">
+        <v>0</v>
+      </c>
+      <c r="I588" t="inlineStr"/>
+      <c r="J588" t="inlineStr"/>
+      <c r="K588" t="inlineStr"/>
+      <c r="L588" t="n">
+        <v>1</v>
+      </c>
+      <c r="M588" t="inlineStr"/>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="n">
+        <v>587</v>
+      </c>
+      <c r="B589" t="n">
+        <v>5855</v>
+      </c>
+      <c r="C589" t="n">
+        <v>5860</v>
+      </c>
+      <c r="D589" t="n">
+        <v>5860</v>
+      </c>
+      <c r="E589" t="n">
+        <v>5855</v>
+      </c>
+      <c r="F589" t="n">
+        <v>193.742</v>
+      </c>
+      <c r="G589" t="n">
+        <v>-4056.680363476796</v>
+      </c>
+      <c r="H589" t="n">
+        <v>0</v>
+      </c>
+      <c r="I589" t="inlineStr"/>
+      <c r="J589" t="inlineStr"/>
+      <c r="K589" t="inlineStr"/>
+      <c r="L589" t="n">
+        <v>1</v>
+      </c>
+      <c r="M589" t="inlineStr"/>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="n">
+        <v>588</v>
+      </c>
+      <c r="B590" t="n">
+        <v>5860</v>
+      </c>
+      <c r="C590" t="n">
+        <v>5860</v>
+      </c>
+      <c r="D590" t="n">
+        <v>5860</v>
+      </c>
+      <c r="E590" t="n">
+        <v>5860</v>
+      </c>
+      <c r="F590" t="n">
+        <v>436.9816</v>
+      </c>
+      <c r="G590" t="n">
+        <v>-4056.680363476796</v>
+      </c>
+      <c r="H590" t="n">
+        <v>0</v>
+      </c>
+      <c r="I590" t="inlineStr"/>
+      <c r="J590" t="inlineStr"/>
+      <c r="K590" t="inlineStr"/>
+      <c r="L590" t="n">
+        <v>1</v>
+      </c>
+      <c r="M590" t="inlineStr"/>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="n">
+        <v>589</v>
+      </c>
+      <c r="B591" t="n">
+        <v>5860</v>
+      </c>
+      <c r="C591" t="n">
+        <v>5865</v>
+      </c>
+      <c r="D591" t="n">
+        <v>5865</v>
+      </c>
+      <c r="E591" t="n">
+        <v>5860</v>
+      </c>
+      <c r="F591" t="n">
+        <v>184.6929</v>
+      </c>
+      <c r="G591" t="n">
+        <v>-3871.987463476796</v>
+      </c>
+      <c r="H591" t="n">
+        <v>0</v>
+      </c>
+      <c r="I591" t="inlineStr"/>
+      <c r="J591" t="inlineStr"/>
+      <c r="K591" t="inlineStr"/>
+      <c r="L591" t="n">
+        <v>1</v>
+      </c>
+      <c r="M591" t="inlineStr"/>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="n">
+        <v>590</v>
+      </c>
+      <c r="B592" t="n">
+        <v>5865</v>
+      </c>
+      <c r="C592" t="n">
+        <v>5870</v>
+      </c>
+      <c r="D592" t="n">
+        <v>5870</v>
+      </c>
+      <c r="E592" t="n">
+        <v>5865</v>
+      </c>
+      <c r="F592" t="n">
+        <v>106.2969</v>
+      </c>
+      <c r="G592" t="n">
+        <v>-3765.690563476796</v>
+      </c>
+      <c r="H592" t="n">
+        <v>0</v>
+      </c>
+      <c r="I592" t="inlineStr"/>
+      <c r="J592" t="inlineStr"/>
+      <c r="K592" t="inlineStr"/>
+      <c r="L592" t="n">
+        <v>1</v>
+      </c>
+      <c r="M592" t="inlineStr"/>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="n">
+        <v>591</v>
+      </c>
+      <c r="B593" t="n">
+        <v>5870</v>
+      </c>
+      <c r="C593" t="n">
+        <v>5870</v>
+      </c>
+      <c r="D593" t="n">
+        <v>5870</v>
+      </c>
+      <c r="E593" t="n">
+        <v>5870</v>
+      </c>
+      <c r="F593" t="n">
+        <v>68.1681</v>
+      </c>
+      <c r="G593" t="n">
+        <v>-3765.690563476796</v>
+      </c>
+      <c r="H593" t="n">
+        <v>0</v>
+      </c>
+      <c r="I593" t="inlineStr"/>
+      <c r="J593" t="inlineStr"/>
+      <c r="K593" t="inlineStr"/>
+      <c r="L593" t="n">
+        <v>1</v>
+      </c>
+      <c r="M593" t="inlineStr"/>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="n">
+        <v>592</v>
+      </c>
+      <c r="B594" t="n">
+        <v>5870</v>
+      </c>
+      <c r="C594" t="n">
+        <v>5875</v>
+      </c>
+      <c r="D594" t="n">
+        <v>5875</v>
+      </c>
+      <c r="E594" t="n">
+        <v>5870</v>
+      </c>
+      <c r="F594" t="n">
+        <v>284.0465</v>
+      </c>
+      <c r="G594" t="n">
+        <v>-3481.644063476796</v>
+      </c>
+      <c r="H594" t="n">
+        <v>0</v>
+      </c>
+      <c r="I594" t="inlineStr"/>
+      <c r="J594" t="inlineStr"/>
+      <c r="K594" t="inlineStr"/>
+      <c r="L594" t="n">
+        <v>1</v>
+      </c>
+      <c r="M594" t="inlineStr"/>
+    </row>
+    <row r="595">
+      <c r="A595" s="1" t="n">
+        <v>593</v>
+      </c>
+      <c r="B595" t="n">
+        <v>5870</v>
+      </c>
+      <c r="C595" t="n">
+        <v>5855</v>
+      </c>
+      <c r="D595" t="n">
+        <v>5875</v>
+      </c>
+      <c r="E595" t="n">
+        <v>5855</v>
+      </c>
+      <c r="F595" t="n">
+        <v>762.8153</v>
+      </c>
+      <c r="G595" t="n">
+        <v>-4244.459363476796</v>
+      </c>
+      <c r="H595" t="n">
+        <v>0</v>
+      </c>
+      <c r="I595" t="inlineStr"/>
+      <c r="J595" t="inlineStr"/>
+      <c r="K595" t="inlineStr"/>
+      <c r="L595" t="n">
+        <v>1</v>
+      </c>
+      <c r="M595" t="inlineStr"/>
+    </row>
+    <row r="596">
+      <c r="A596" s="1" t="n">
+        <v>594</v>
+      </c>
+      <c r="B596" t="n">
+        <v>5860</v>
+      </c>
+      <c r="C596" t="n">
+        <v>5865</v>
+      </c>
+      <c r="D596" t="n">
+        <v>5865</v>
+      </c>
+      <c r="E596" t="n">
+        <v>5860</v>
+      </c>
+      <c r="F596" t="n">
+        <v>6.821232821824382</v>
+      </c>
+      <c r="G596" t="n">
+        <v>-4237.638130654972</v>
+      </c>
+      <c r="H596" t="n">
+        <v>0</v>
+      </c>
+      <c r="I596" t="inlineStr"/>
+      <c r="J596" t="inlineStr"/>
+      <c r="K596" t="inlineStr"/>
+      <c r="L596" t="n">
+        <v>1</v>
+      </c>
+      <c r="M596" t="inlineStr"/>
+    </row>
+    <row r="597">
+      <c r="A597" s="1" t="n">
+        <v>595</v>
+      </c>
+      <c r="B597" t="n">
+        <v>5860</v>
+      </c>
+      <c r="C597" t="n">
+        <v>5860</v>
+      </c>
+      <c r="D597" t="n">
+        <v>5860</v>
+      </c>
+      <c r="E597" t="n">
+        <v>5860</v>
+      </c>
+      <c r="F597" t="n">
+        <v>4.7051</v>
+      </c>
+      <c r="G597" t="n">
+        <v>-4242.343230654972</v>
+      </c>
+      <c r="H597" t="n">
+        <v>0</v>
+      </c>
+      <c r="I597" t="inlineStr"/>
+      <c r="J597" t="inlineStr"/>
+      <c r="K597" t="inlineStr"/>
+      <c r="L597" t="n">
+        <v>1</v>
+      </c>
+      <c r="M597" t="inlineStr"/>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="n">
+        <v>596</v>
+      </c>
+      <c r="B598" t="n">
+        <v>5850</v>
+      </c>
+      <c r="C598" t="n">
+        <v>5850</v>
+      </c>
+      <c r="D598" t="n">
+        <v>5850</v>
+      </c>
+      <c r="E598" t="n">
+        <v>5850</v>
+      </c>
+      <c r="F598" t="n">
+        <v>1.5374</v>
+      </c>
+      <c r="G598" t="n">
+        <v>-4243.880630654972</v>
+      </c>
+      <c r="H598" t="n">
+        <v>0</v>
+      </c>
+      <c r="I598" t="inlineStr"/>
+      <c r="J598" t="inlineStr"/>
+      <c r="K598" t="inlineStr"/>
+      <c r="L598" t="n">
+        <v>1</v>
+      </c>
+      <c r="M598" t="inlineStr"/>
+    </row>
+    <row r="599">
+      <c r="A599" s="1" t="n">
+        <v>597</v>
+      </c>
+      <c r="B599" t="n">
+        <v>5860</v>
+      </c>
+      <c r="C599" t="n">
+        <v>5860</v>
+      </c>
+      <c r="D599" t="n">
+        <v>5860</v>
+      </c>
+      <c r="E599" t="n">
+        <v>5860</v>
+      </c>
+      <c r="F599" t="n">
+        <v>224.752</v>
+      </c>
+      <c r="G599" t="n">
+        <v>-4019.128630654972</v>
+      </c>
+      <c r="H599" t="n">
+        <v>0</v>
+      </c>
+      <c r="I599" t="inlineStr"/>
+      <c r="J599" t="inlineStr"/>
+      <c r="K599" t="inlineStr"/>
+      <c r="L599" t="n">
+        <v>1</v>
+      </c>
+      <c r="M599" t="inlineStr"/>
+    </row>
+    <row r="600">
+      <c r="A600" s="1" t="n">
+        <v>598</v>
+      </c>
+      <c r="B600" t="n">
+        <v>5860</v>
+      </c>
+      <c r="C600" t="n">
+        <v>5865</v>
+      </c>
+      <c r="D600" t="n">
+        <v>5865</v>
+      </c>
+      <c r="E600" t="n">
+        <v>5860</v>
+      </c>
+      <c r="F600" t="n">
+        <v>128.0568</v>
+      </c>
+      <c r="G600" t="n">
+        <v>-3891.071830654972</v>
+      </c>
+      <c r="H600" t="n">
+        <v>0</v>
+      </c>
+      <c r="I600" t="inlineStr"/>
+      <c r="J600" t="inlineStr"/>
+      <c r="K600" t="inlineStr"/>
+      <c r="L600" t="n">
+        <v>1</v>
+      </c>
+      <c r="M600" t="inlineStr"/>
+    </row>
+    <row r="601">
+      <c r="A601" s="1" t="n">
+        <v>599</v>
+      </c>
+      <c r="B601" t="n">
+        <v>5865</v>
+      </c>
+      <c r="C601" t="n">
+        <v>5865</v>
+      </c>
+      <c r="D601" t="n">
+        <v>5865</v>
+      </c>
+      <c r="E601" t="n">
+        <v>5865</v>
+      </c>
+      <c r="F601" t="n">
+        <v>27.284</v>
+      </c>
+      <c r="G601" t="n">
+        <v>-3891.071830654972</v>
+      </c>
+      <c r="H601" t="n">
+        <v>0</v>
+      </c>
+      <c r="I601" t="inlineStr"/>
+      <c r="J601" t="inlineStr"/>
+      <c r="K601" t="inlineStr"/>
+      <c r="L601" t="n">
+        <v>1</v>
+      </c>
+      <c r="M601" t="inlineStr"/>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="B602" t="n">
+        <v>5855</v>
+      </c>
+      <c r="C602" t="n">
+        <v>5855</v>
+      </c>
+      <c r="D602" t="n">
+        <v>5855</v>
+      </c>
+      <c r="E602" t="n">
+        <v>5855</v>
+      </c>
+      <c r="F602" t="n">
+        <v>35.5999</v>
+      </c>
+      <c r="G602" t="n">
+        <v>-3926.671730654973</v>
+      </c>
+      <c r="H602" t="n">
+        <v>0</v>
+      </c>
+      <c r="I602" t="inlineStr"/>
+      <c r="J602" t="inlineStr"/>
+      <c r="K602" t="inlineStr"/>
+      <c r="L602" t="n">
+        <v>1</v>
+      </c>
+      <c r="M602" t="inlineStr"/>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="n">
+        <v>601</v>
+      </c>
+      <c r="B603" t="n">
+        <v>5850</v>
+      </c>
+      <c r="C603" t="n">
+        <v>5850</v>
+      </c>
+      <c r="D603" t="n">
+        <v>5850</v>
+      </c>
+      <c r="E603" t="n">
+        <v>5850</v>
+      </c>
+      <c r="F603" t="n">
+        <v>1.1372</v>
+      </c>
+      <c r="G603" t="n">
+        <v>-3927.808930654973</v>
+      </c>
+      <c r="H603" t="n">
+        <v>0</v>
+      </c>
+      <c r="I603" t="inlineStr"/>
+      <c r="J603" t="inlineStr"/>
+      <c r="K603" t="inlineStr"/>
+      <c r="L603" t="n">
+        <v>1</v>
+      </c>
+      <c r="M603" t="inlineStr"/>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="n">
+        <v>602</v>
+      </c>
+      <c r="B604" t="n">
+        <v>5860</v>
+      </c>
+      <c r="C604" t="n">
+        <v>5860</v>
+      </c>
+      <c r="D604" t="n">
+        <v>5860</v>
+      </c>
+      <c r="E604" t="n">
+        <v>5860</v>
+      </c>
+      <c r="F604" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="G604" t="n">
+        <v>-3910.008930654973</v>
+      </c>
+      <c r="H604" t="n">
+        <v>0</v>
+      </c>
+      <c r="I604" t="inlineStr"/>
+      <c r="J604" t="inlineStr"/>
+      <c r="K604" t="inlineStr"/>
+      <c r="L604" t="n">
+        <v>1</v>
+      </c>
+      <c r="M604" t="inlineStr"/>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="n">
+        <v>603</v>
+      </c>
+      <c r="B605" t="n">
+        <v>5870</v>
+      </c>
+      <c r="C605" t="n">
+        <v>5870</v>
+      </c>
+      <c r="D605" t="n">
+        <v>5870</v>
+      </c>
+      <c r="E605" t="n">
+        <v>5870</v>
+      </c>
+      <c r="F605" t="n">
+        <v>2</v>
+      </c>
+      <c r="G605" t="n">
+        <v>-3908.008930654973</v>
+      </c>
+      <c r="H605" t="n">
+        <v>0</v>
+      </c>
+      <c r="I605" t="inlineStr"/>
+      <c r="J605" t="inlineStr"/>
+      <c r="K605" t="inlineStr"/>
+      <c r="L605" t="n">
+        <v>1</v>
+      </c>
+      <c r="M605" t="inlineStr"/>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="n">
+        <v>604</v>
+      </c>
+      <c r="B606" t="n">
+        <v>5890</v>
+      </c>
+      <c r="C606" t="n">
+        <v>5890</v>
+      </c>
+      <c r="D606" t="n">
+        <v>5890</v>
+      </c>
+      <c r="E606" t="n">
+        <v>5890</v>
+      </c>
+      <c r="F606" t="n">
+        <v>50.93</v>
+      </c>
+      <c r="G606" t="n">
+        <v>-3857.078930654973</v>
+      </c>
+      <c r="H606" t="n">
+        <v>0</v>
+      </c>
+      <c r="I606" t="inlineStr"/>
+      <c r="J606" t="inlineStr"/>
+      <c r="K606" t="inlineStr"/>
+      <c r="L606" t="n">
+        <v>1</v>
+      </c>
+      <c r="M606" t="inlineStr"/>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="n">
+        <v>605</v>
+      </c>
+      <c r="B607" t="n">
+        <v>5890</v>
+      </c>
+      <c r="C607" t="n">
+        <v>5890</v>
+      </c>
+      <c r="D607" t="n">
+        <v>5890</v>
+      </c>
+      <c r="E607" t="n">
+        <v>5890</v>
+      </c>
+      <c r="F607" t="n">
+        <v>46.0539</v>
+      </c>
+      <c r="G607" t="n">
+        <v>-3857.078930654973</v>
+      </c>
+      <c r="H607" t="n">
+        <v>0</v>
+      </c>
+      <c r="I607" t="inlineStr"/>
+      <c r="J607" t="inlineStr"/>
+      <c r="K607" t="inlineStr"/>
+      <c r="L607" t="n">
+        <v>1</v>
+      </c>
+      <c r="M607" t="inlineStr"/>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="n">
+        <v>606</v>
+      </c>
+      <c r="B608" t="n">
+        <v>5890</v>
+      </c>
+      <c r="C608" t="n">
+        <v>5880</v>
+      </c>
+      <c r="D608" t="n">
+        <v>5890</v>
+      </c>
+      <c r="E608" t="n">
+        <v>5880</v>
+      </c>
+      <c r="F608" t="n">
+        <v>341.1694</v>
+      </c>
+      <c r="G608" t="n">
+        <v>-4198.248330654973</v>
+      </c>
+      <c r="H608" t="n">
+        <v>0</v>
+      </c>
+      <c r="I608" t="inlineStr"/>
+      <c r="J608" t="inlineStr"/>
+      <c r="K608" t="inlineStr"/>
+      <c r="L608" t="n">
+        <v>1</v>
+      </c>
+      <c r="M608" t="inlineStr"/>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="n">
+        <v>607</v>
+      </c>
+      <c r="B609" t="n">
+        <v>5870</v>
+      </c>
+      <c r="C609" t="n">
+        <v>5865</v>
+      </c>
+      <c r="D609" t="n">
+        <v>5870</v>
+      </c>
+      <c r="E609" t="n">
+        <v>5865</v>
+      </c>
+      <c r="F609" t="n">
+        <v>382.0432</v>
+      </c>
+      <c r="G609" t="n">
+        <v>-4580.291530654973</v>
+      </c>
+      <c r="H609" t="n">
+        <v>0</v>
+      </c>
+      <c r="I609" t="inlineStr"/>
+      <c r="J609" t="inlineStr"/>
+      <c r="K609" t="inlineStr"/>
+      <c r="L609" t="n">
+        <v>1</v>
+      </c>
+      <c r="M609" t="inlineStr"/>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="n">
+        <v>608</v>
+      </c>
+      <c r="B610" t="n">
+        <v>5875</v>
+      </c>
+      <c r="C610" t="n">
+        <v>5880</v>
+      </c>
+      <c r="D610" t="n">
+        <v>5880</v>
+      </c>
+      <c r="E610" t="n">
+        <v>5875</v>
+      </c>
+      <c r="F610" t="n">
+        <v>40.7128</v>
+      </c>
+      <c r="G610" t="n">
+        <v>-4539.578730654973</v>
+      </c>
+      <c r="H610" t="n">
+        <v>0</v>
+      </c>
+      <c r="I610" t="inlineStr"/>
+      <c r="J610" t="inlineStr"/>
+      <c r="K610" t="inlineStr"/>
+      <c r="L610" t="n">
+        <v>1</v>
+      </c>
+      <c r="M610" t="inlineStr"/>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="n">
+        <v>609</v>
+      </c>
+      <c r="B611" t="n">
+        <v>5895</v>
+      </c>
+      <c r="C611" t="n">
+        <v>5895</v>
+      </c>
+      <c r="D611" t="n">
+        <v>5895</v>
+      </c>
+      <c r="E611" t="n">
+        <v>5895</v>
+      </c>
+      <c r="F611" t="n">
+        <v>383.1087</v>
+      </c>
+      <c r="G611" t="n">
+        <v>-4156.470030654973</v>
+      </c>
+      <c r="H611" t="n">
+        <v>1</v>
+      </c>
+      <c r="I611" t="n">
+        <v>5880</v>
+      </c>
+      <c r="J611" t="n">
+        <v>5880</v>
+      </c>
+      <c r="K611" t="inlineStr"/>
+      <c r="L611" t="n">
+        <v>1</v>
+      </c>
+      <c r="M611" t="inlineStr"/>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="n">
+        <v>610</v>
+      </c>
+      <c r="B612" t="n">
+        <v>5895</v>
+      </c>
+      <c r="C612" t="n">
+        <v>5895</v>
+      </c>
+      <c r="D612" t="n">
+        <v>5895</v>
+      </c>
+      <c r="E612" t="n">
+        <v>5895</v>
+      </c>
+      <c r="F612" t="n">
+        <v>96.467</v>
+      </c>
+      <c r="G612" t="n">
+        <v>-4156.470030654973</v>
+      </c>
+      <c r="H612" t="n">
+        <v>1</v>
+      </c>
+      <c r="I612" t="n">
+        <v>5895</v>
+      </c>
+      <c r="J612" t="n">
+        <v>5880</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L612" t="n">
+        <v>1</v>
+      </c>
+      <c r="M612" t="inlineStr"/>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="n">
+        <v>611</v>
+      </c>
+      <c r="B613" t="n">
+        <v>5895</v>
+      </c>
+      <c r="C613" t="n">
+        <v>5835</v>
+      </c>
+      <c r="D613" t="n">
+        <v>5895</v>
+      </c>
+      <c r="E613" t="n">
+        <v>5835</v>
+      </c>
+      <c r="F613" t="n">
+        <v>71.1237</v>
+      </c>
+      <c r="G613" t="n">
+        <v>-4227.593730654973</v>
+      </c>
+      <c r="H613" t="n">
+        <v>1</v>
+      </c>
+      <c r="I613" t="n">
+        <v>5895</v>
+      </c>
+      <c r="J613" t="n">
+        <v>5880</v>
+      </c>
+      <c r="K613" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L535" t="n">
-        <v>1</v>
-      </c>
-      <c r="M535" t="inlineStr"/>
-    </row>
-    <row r="536">
-      <c r="A536" s="1" t="n">
-        <v>534</v>
-      </c>
-      <c r="B536" t="n">
-        <v>5915</v>
-      </c>
-      <c r="C536" t="n">
-        <v>5915</v>
-      </c>
-      <c r="D536" t="n">
-        <v>5915</v>
-      </c>
-      <c r="E536" t="n">
-        <v>5915</v>
-      </c>
-      <c r="F536" t="n">
-        <v>2</v>
-      </c>
-      <c r="G536" t="n">
-        <v>3331.396036523204</v>
-      </c>
-      <c r="H536" t="n">
-        <v>1</v>
-      </c>
-      <c r="I536" t="n">
-        <v>5910</v>
-      </c>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L536" t="n">
-        <v>1</v>
-      </c>
-      <c r="M536" t="inlineStr"/>
-    </row>
-    <row r="537">
-      <c r="A537" s="1" t="n">
-        <v>535</v>
-      </c>
-      <c r="B537" t="n">
-        <v>5940</v>
-      </c>
-      <c r="C537" t="n">
-        <v>5940</v>
-      </c>
-      <c r="D537" t="n">
-        <v>5940</v>
-      </c>
-      <c r="E537" t="n">
-        <v>5940</v>
-      </c>
-      <c r="F537" t="n">
-        <v>16.7087</v>
-      </c>
-      <c r="G537" t="n">
-        <v>3348.104736523204</v>
-      </c>
-      <c r="H537" t="n">
-        <v>1</v>
-      </c>
-      <c r="I537" t="n">
-        <v>5915</v>
-      </c>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L537" t="n">
-        <v>1</v>
-      </c>
-      <c r="M537" t="inlineStr"/>
-    </row>
-    <row r="538">
-      <c r="A538" s="1" t="n">
-        <v>536</v>
-      </c>
-      <c r="B538" t="n">
-        <v>5940</v>
-      </c>
-      <c r="C538" t="n">
-        <v>5940</v>
-      </c>
-      <c r="D538" t="n">
-        <v>5940</v>
-      </c>
-      <c r="E538" t="n">
-        <v>5940</v>
-      </c>
-      <c r="F538" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G538" t="n">
-        <v>3348.104736523204</v>
-      </c>
-      <c r="H538" t="n">
-        <v>0</v>
-      </c>
-      <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L538" t="n">
-        <v>1</v>
-      </c>
-      <c r="M538" t="inlineStr"/>
-    </row>
-    <row r="539">
-      <c r="A539" s="1" t="n">
-        <v>537</v>
-      </c>
-      <c r="B539" t="n">
-        <v>5920</v>
-      </c>
-      <c r="C539" t="n">
-        <v>5915</v>
-      </c>
-      <c r="D539" t="n">
-        <v>5920</v>
-      </c>
-      <c r="E539" t="n">
-        <v>5905</v>
-      </c>
-      <c r="F539" t="n">
-        <v>2146.9656</v>
-      </c>
-      <c r="G539" t="n">
-        <v>1201.139136523204</v>
-      </c>
-      <c r="H539" t="n">
-        <v>0</v>
-      </c>
-      <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L539" t="n">
-        <v>1</v>
-      </c>
-      <c r="M539" t="inlineStr"/>
-    </row>
-    <row r="540">
-      <c r="A540" s="1" t="n">
-        <v>538</v>
-      </c>
-      <c r="B540" t="n">
-        <v>5930</v>
-      </c>
-      <c r="C540" t="n">
-        <v>5910</v>
-      </c>
-      <c r="D540" t="n">
-        <v>5930</v>
-      </c>
-      <c r="E540" t="n">
-        <v>5895</v>
-      </c>
-      <c r="F540" t="n">
-        <v>3988.3824</v>
-      </c>
-      <c r="G540" t="n">
-        <v>-2787.243263476796</v>
-      </c>
-      <c r="H540" t="n">
-        <v>0</v>
-      </c>
-      <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L540" t="n">
-        <v>1</v>
-      </c>
-      <c r="M540" t="inlineStr"/>
-    </row>
-    <row r="541">
-      <c r="A541" s="1" t="n">
-        <v>539</v>
-      </c>
-      <c r="B541" t="n">
-        <v>5910</v>
-      </c>
-      <c r="C541" t="n">
-        <v>5910</v>
-      </c>
-      <c r="D541" t="n">
-        <v>5910</v>
-      </c>
-      <c r="E541" t="n">
-        <v>5910</v>
-      </c>
-      <c r="F541" t="n">
-        <v>317.2618</v>
-      </c>
-      <c r="G541" t="n">
-        <v>-2787.243263476796</v>
-      </c>
-      <c r="H541" t="n">
-        <v>0</v>
-      </c>
-      <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L541" t="n">
-        <v>1</v>
-      </c>
-      <c r="M541" t="inlineStr"/>
-    </row>
-    <row r="542">
-      <c r="A542" s="1" t="n">
-        <v>540</v>
-      </c>
-      <c r="B542" t="n">
-        <v>5910</v>
-      </c>
-      <c r="C542" t="n">
-        <v>5910</v>
-      </c>
-      <c r="D542" t="n">
-        <v>5910</v>
-      </c>
-      <c r="E542" t="n">
-        <v>5910</v>
-      </c>
-      <c r="F542" t="n">
-        <v>18.8879</v>
-      </c>
-      <c r="G542" t="n">
-        <v>-2787.243263476796</v>
-      </c>
-      <c r="H542" t="n">
-        <v>0</v>
-      </c>
-      <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L542" t="n">
-        <v>1</v>
-      </c>
-      <c r="M542" t="inlineStr"/>
-    </row>
-    <row r="543">
-      <c r="A543" s="1" t="n">
-        <v>541</v>
-      </c>
-      <c r="B543" t="n">
-        <v>5910</v>
-      </c>
-      <c r="C543" t="n">
-        <v>5910</v>
-      </c>
-      <c r="D543" t="n">
-        <v>5910</v>
-      </c>
-      <c r="E543" t="n">
-        <v>5910</v>
-      </c>
-      <c r="F543" t="n">
-        <v>33.3822</v>
-      </c>
-      <c r="G543" t="n">
-        <v>-2787.243263476796</v>
-      </c>
-      <c r="H543" t="n">
-        <v>0</v>
-      </c>
-      <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L543" t="n">
-        <v>1</v>
-      </c>
-      <c r="M543" t="inlineStr"/>
-    </row>
-    <row r="544">
-      <c r="A544" s="1" t="n">
-        <v>542</v>
-      </c>
-      <c r="B544" t="n">
-        <v>5910</v>
-      </c>
-      <c r="C544" t="n">
-        <v>5910</v>
-      </c>
-      <c r="D544" t="n">
-        <v>5910</v>
-      </c>
-      <c r="E544" t="n">
-        <v>5910</v>
-      </c>
-      <c r="F544" t="n">
-        <v>50.35</v>
-      </c>
-      <c r="G544" t="n">
-        <v>-2787.243263476796</v>
-      </c>
-      <c r="H544" t="n">
-        <v>0</v>
-      </c>
-      <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L544" t="n">
-        <v>1</v>
-      </c>
-      <c r="M544" t="inlineStr"/>
-    </row>
-    <row r="545">
-      <c r="A545" s="1" t="n">
-        <v>543</v>
-      </c>
-      <c r="B545" t="n">
-        <v>5910</v>
-      </c>
-      <c r="C545" t="n">
-        <v>5910</v>
-      </c>
-      <c r="D545" t="n">
-        <v>5910</v>
-      </c>
-      <c r="E545" t="n">
-        <v>5910</v>
-      </c>
-      <c r="F545" t="n">
-        <v>2</v>
-      </c>
-      <c r="G545" t="n">
-        <v>-2787.243263476796</v>
-      </c>
-      <c r="H545" t="n">
-        <v>0</v>
-      </c>
-      <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L545" t="n">
-        <v>1</v>
-      </c>
-      <c r="M545" t="inlineStr"/>
-    </row>
-    <row r="546">
-      <c r="A546" s="1" t="n">
-        <v>544</v>
-      </c>
-      <c r="B546" t="n">
-        <v>5905</v>
-      </c>
-      <c r="C546" t="n">
-        <v>5910</v>
-      </c>
-      <c r="D546" t="n">
-        <v>5915</v>
-      </c>
-      <c r="E546" t="n">
-        <v>5905</v>
-      </c>
-      <c r="F546" t="n">
-        <v>610.5111000000001</v>
-      </c>
-      <c r="G546" t="n">
-        <v>-2787.243263476796</v>
-      </c>
-      <c r="H546" t="n">
-        <v>0</v>
-      </c>
-      <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L546" t="n">
-        <v>1</v>
-      </c>
-      <c r="M546" t="inlineStr"/>
-    </row>
-    <row r="547">
-      <c r="A547" s="1" t="n">
-        <v>545</v>
-      </c>
-      <c r="B547" t="n">
-        <v>5905</v>
-      </c>
-      <c r="C547" t="n">
-        <v>5905</v>
-      </c>
-      <c r="D547" t="n">
-        <v>5905</v>
-      </c>
-      <c r="E547" t="n">
-        <v>5905</v>
-      </c>
-      <c r="F547" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G547" t="n">
-        <v>-2787.343263476796</v>
-      </c>
-      <c r="H547" t="n">
-        <v>1</v>
-      </c>
-      <c r="I547" t="n">
-        <v>5910</v>
-      </c>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L547" t="n">
-        <v>1</v>
-      </c>
-      <c r="M547" t="inlineStr"/>
-    </row>
-    <row r="548">
-      <c r="A548" s="1" t="n">
-        <v>546</v>
-      </c>
-      <c r="B548" t="n">
-        <v>5895</v>
-      </c>
-      <c r="C548" t="n">
-        <v>5895</v>
-      </c>
-      <c r="D548" t="n">
-        <v>5895</v>
-      </c>
-      <c r="E548" t="n">
-        <v>5895</v>
-      </c>
-      <c r="F548" t="n">
-        <v>80.8386</v>
-      </c>
-      <c r="G548" t="n">
-        <v>-2868.181863476796</v>
-      </c>
-      <c r="H548" t="n">
-        <v>1</v>
-      </c>
-      <c r="I548" t="n">
-        <v>5905</v>
-      </c>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L548" t="n">
-        <v>1</v>
-      </c>
-      <c r="M548" t="inlineStr"/>
-    </row>
-    <row r="549">
-      <c r="A549" s="1" t="n">
-        <v>547</v>
-      </c>
-      <c r="B549" t="n">
-        <v>5900</v>
-      </c>
-      <c r="C549" t="n">
-        <v>5900</v>
-      </c>
-      <c r="D549" t="n">
-        <v>5900</v>
-      </c>
-      <c r="E549" t="n">
-        <v>5890</v>
-      </c>
-      <c r="F549" t="n">
-        <v>24.4028</v>
-      </c>
-      <c r="G549" t="n">
-        <v>-2843.779063476796</v>
-      </c>
-      <c r="H549" t="n">
-        <v>1</v>
-      </c>
-      <c r="I549" t="n">
-        <v>5895</v>
-      </c>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L549" t="n">
-        <v>1</v>
-      </c>
-      <c r="M549" t="inlineStr"/>
-    </row>
-    <row r="550">
-      <c r="A550" s="1" t="n">
-        <v>548</v>
-      </c>
-      <c r="B550" t="n">
-        <v>5895</v>
-      </c>
-      <c r="C550" t="n">
-        <v>5895</v>
-      </c>
-      <c r="D550" t="n">
-        <v>5895</v>
-      </c>
-      <c r="E550" t="n">
-        <v>5895</v>
-      </c>
-      <c r="F550" t="n">
-        <v>112.1297</v>
-      </c>
-      <c r="G550" t="n">
-        <v>-2955.908763476796</v>
-      </c>
-      <c r="H550" t="n">
-        <v>1</v>
-      </c>
-      <c r="I550" t="n">
-        <v>5900</v>
-      </c>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L550" t="n">
-        <v>1</v>
-      </c>
-      <c r="M550" t="inlineStr"/>
-    </row>
-    <row r="551">
-      <c r="A551" s="1" t="n">
-        <v>549</v>
-      </c>
-      <c r="B551" t="n">
-        <v>5890</v>
-      </c>
-      <c r="C551" t="n">
-        <v>5890</v>
-      </c>
-      <c r="D551" t="n">
-        <v>5890</v>
-      </c>
-      <c r="E551" t="n">
-        <v>5890</v>
-      </c>
-      <c r="F551" t="n">
-        <v>18.3892</v>
-      </c>
-      <c r="G551" t="n">
-        <v>-2974.297963476796</v>
-      </c>
-      <c r="H551" t="n">
-        <v>1</v>
-      </c>
-      <c r="I551" t="n">
-        <v>5895</v>
-      </c>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L551" t="n">
-        <v>1</v>
-      </c>
-      <c r="M551" t="inlineStr"/>
-    </row>
-    <row r="552">
-      <c r="A552" s="1" t="n">
-        <v>550</v>
-      </c>
-      <c r="B552" t="n">
-        <v>5890</v>
-      </c>
-      <c r="C552" t="n">
-        <v>5885</v>
-      </c>
-      <c r="D552" t="n">
-        <v>5890</v>
-      </c>
-      <c r="E552" t="n">
-        <v>5885</v>
-      </c>
-      <c r="F552" t="n">
-        <v>98.8702</v>
-      </c>
-      <c r="G552" t="n">
-        <v>-3073.168163476796</v>
-      </c>
-      <c r="H552" t="n">
-        <v>1</v>
-      </c>
-      <c r="I552" t="n">
-        <v>5890</v>
-      </c>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L552" t="n">
-        <v>1</v>
-      </c>
-      <c r="M552" t="inlineStr"/>
-    </row>
-    <row r="553">
-      <c r="A553" s="1" t="n">
-        <v>551</v>
-      </c>
-      <c r="B553" t="n">
-        <v>5885</v>
-      </c>
-      <c r="C553" t="n">
-        <v>5885</v>
-      </c>
-      <c r="D553" t="n">
-        <v>5885</v>
-      </c>
-      <c r="E553" t="n">
-        <v>5885</v>
-      </c>
-      <c r="F553" t="n">
-        <v>16.9113</v>
-      </c>
-      <c r="G553" t="n">
-        <v>-3073.168163476796</v>
-      </c>
-      <c r="H553" t="n">
-        <v>1</v>
-      </c>
-      <c r="I553" t="n">
-        <v>5885</v>
-      </c>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L553" t="n">
-        <v>1</v>
-      </c>
-      <c r="M553" t="inlineStr"/>
-    </row>
-    <row r="554">
-      <c r="A554" s="1" t="n">
-        <v>552</v>
-      </c>
-      <c r="B554" t="n">
-        <v>5880</v>
-      </c>
-      <c r="C554" t="n">
-        <v>5860</v>
-      </c>
-      <c r="D554" t="n">
-        <v>5880</v>
-      </c>
-      <c r="E554" t="n">
-        <v>5860</v>
-      </c>
-      <c r="F554" t="n">
-        <v>553.3971</v>
-      </c>
-      <c r="G554" t="n">
-        <v>-3626.565263476796</v>
-      </c>
-      <c r="H554" t="n">
-        <v>1</v>
-      </c>
-      <c r="I554" t="n">
-        <v>5885</v>
-      </c>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L554" t="n">
-        <v>1</v>
-      </c>
-      <c r="M554" t="inlineStr"/>
-    </row>
-    <row r="555">
-      <c r="A555" s="1" t="n">
-        <v>553</v>
-      </c>
-      <c r="B555" t="n">
-        <v>5865</v>
-      </c>
-      <c r="C555" t="n">
-        <v>5880</v>
-      </c>
-      <c r="D555" t="n">
-        <v>5880</v>
-      </c>
-      <c r="E555" t="n">
-        <v>5865</v>
-      </c>
-      <c r="F555" t="n">
-        <v>59.1838</v>
-      </c>
-      <c r="G555" t="n">
-        <v>-3567.381463476796</v>
-      </c>
-      <c r="H555" t="n">
-        <v>1</v>
-      </c>
-      <c r="I555" t="n">
-        <v>5860</v>
-      </c>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L555" t="n">
-        <v>1</v>
-      </c>
-      <c r="M555" t="inlineStr"/>
-    </row>
-    <row r="556">
-      <c r="A556" s="1" t="n">
-        <v>554</v>
-      </c>
-      <c r="B556" t="n">
-        <v>5880</v>
-      </c>
-      <c r="C556" t="n">
-        <v>5875</v>
-      </c>
-      <c r="D556" t="n">
-        <v>5880</v>
-      </c>
-      <c r="E556" t="n">
-        <v>5860</v>
-      </c>
-      <c r="F556" t="n">
-        <v>635.5596</v>
-      </c>
-      <c r="G556" t="n">
-        <v>-4202.941063476796</v>
-      </c>
-      <c r="H556" t="n">
-        <v>1</v>
-      </c>
-      <c r="I556" t="n">
-        <v>5880</v>
-      </c>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L556" t="n">
-        <v>1</v>
-      </c>
-      <c r="M556" t="inlineStr"/>
-    </row>
-    <row r="557">
-      <c r="A557" s="1" t="n">
-        <v>555</v>
-      </c>
-      <c r="B557" t="n">
-        <v>5875</v>
-      </c>
-      <c r="C557" t="n">
-        <v>5875</v>
-      </c>
-      <c r="D557" t="n">
-        <v>5875</v>
-      </c>
-      <c r="E557" t="n">
-        <v>5875</v>
-      </c>
-      <c r="F557" t="n">
-        <v>85.3642</v>
-      </c>
-      <c r="G557" t="n">
-        <v>-4202.941063476796</v>
-      </c>
-      <c r="H557" t="n">
-        <v>1</v>
-      </c>
-      <c r="I557" t="n">
-        <v>5875</v>
-      </c>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L557" t="n">
-        <v>1</v>
-      </c>
-      <c r="M557" t="inlineStr"/>
-    </row>
-    <row r="558">
-      <c r="A558" s="1" t="n">
-        <v>556</v>
-      </c>
-      <c r="B558" t="n">
-        <v>5875</v>
-      </c>
-      <c r="C558" t="n">
-        <v>5875</v>
-      </c>
-      <c r="D558" t="n">
-        <v>5875</v>
-      </c>
-      <c r="E558" t="n">
-        <v>5875</v>
-      </c>
-      <c r="F558" t="n">
-        <v>34.5668</v>
-      </c>
-      <c r="G558" t="n">
-        <v>-4202.941063476796</v>
-      </c>
-      <c r="H558" t="n">
-        <v>1</v>
-      </c>
-      <c r="I558" t="n">
-        <v>5875</v>
-      </c>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L558" t="n">
-        <v>1</v>
-      </c>
-      <c r="M558" t="inlineStr"/>
-    </row>
-    <row r="559">
-      <c r="A559" s="1" t="n">
-        <v>557</v>
-      </c>
-      <c r="B559" t="n">
-        <v>5890</v>
-      </c>
-      <c r="C559" t="n">
-        <v>5880</v>
-      </c>
-      <c r="D559" t="n">
-        <v>5890</v>
-      </c>
-      <c r="E559" t="n">
-        <v>5880</v>
-      </c>
-      <c r="F559" t="n">
-        <v>187.5429</v>
-      </c>
-      <c r="G559" t="n">
-        <v>-4015.398163476797</v>
-      </c>
-      <c r="H559" t="n">
-        <v>1</v>
-      </c>
-      <c r="I559" t="n">
-        <v>5875</v>
-      </c>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L559" t="n">
-        <v>1</v>
-      </c>
-      <c r="M559" t="inlineStr"/>
-    </row>
-    <row r="560">
-      <c r="A560" s="1" t="n">
-        <v>558</v>
-      </c>
-      <c r="B560" t="n">
-        <v>5880</v>
-      </c>
-      <c r="C560" t="n">
-        <v>5880</v>
-      </c>
-      <c r="D560" t="n">
-        <v>5885</v>
-      </c>
-      <c r="E560" t="n">
-        <v>5800</v>
-      </c>
-      <c r="F560" t="n">
-        <v>11006.1488</v>
-      </c>
-      <c r="G560" t="n">
-        <v>-4015.398163476797</v>
-      </c>
-      <c r="H560" t="n">
-        <v>1</v>
-      </c>
-      <c r="I560" t="n">
-        <v>5880</v>
-      </c>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L560" t="n">
-        <v>1</v>
-      </c>
-      <c r="M560" t="inlineStr"/>
-    </row>
-    <row r="561">
-      <c r="A561" s="1" t="n">
-        <v>559</v>
-      </c>
-      <c r="B561" t="n">
-        <v>5885</v>
-      </c>
-      <c r="C561" t="n">
-        <v>5885</v>
-      </c>
-      <c r="D561" t="n">
-        <v>5895</v>
-      </c>
-      <c r="E561" t="n">
-        <v>5885</v>
-      </c>
-      <c r="F561" t="n">
-        <v>398.3717</v>
-      </c>
-      <c r="G561" t="n">
-        <v>-3617.026463476796</v>
-      </c>
-      <c r="H561" t="n">
-        <v>0</v>
-      </c>
-      <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L561" t="n">
-        <v>1</v>
-      </c>
-      <c r="M561" t="inlineStr"/>
-    </row>
-    <row r="562">
-      <c r="A562" s="1" t="n">
-        <v>560</v>
-      </c>
-      <c r="B562" t="n">
-        <v>5885</v>
-      </c>
-      <c r="C562" t="n">
-        <v>5890</v>
-      </c>
-      <c r="D562" t="n">
-        <v>5890</v>
-      </c>
-      <c r="E562" t="n">
-        <v>5885</v>
-      </c>
-      <c r="F562" t="n">
-        <v>405.7097</v>
-      </c>
-      <c r="G562" t="n">
-        <v>-3211.316763476796</v>
-      </c>
-      <c r="H562" t="n">
-        <v>0</v>
-      </c>
-      <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L562" t="n">
-        <v>1</v>
-      </c>
-      <c r="M562" t="inlineStr"/>
-    </row>
-    <row r="563">
-      <c r="A563" s="1" t="n">
-        <v>561</v>
-      </c>
-      <c r="B563" t="n">
-        <v>5885</v>
-      </c>
-      <c r="C563" t="n">
-        <v>5880</v>
-      </c>
-      <c r="D563" t="n">
-        <v>5885</v>
-      </c>
-      <c r="E563" t="n">
-        <v>5880</v>
-      </c>
-      <c r="F563" t="n">
-        <v>260.3702</v>
-      </c>
-      <c r="G563" t="n">
-        <v>-3471.686963476796</v>
-      </c>
-      <c r="H563" t="n">
-        <v>0</v>
-      </c>
-      <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L563" t="n">
-        <v>1</v>
-      </c>
-      <c r="M563" t="inlineStr"/>
-    </row>
-    <row r="564">
-      <c r="A564" s="1" t="n">
-        <v>562</v>
-      </c>
-      <c r="B564" t="n">
-        <v>5880</v>
-      </c>
-      <c r="C564" t="n">
-        <v>5880</v>
-      </c>
-      <c r="D564" t="n">
-        <v>5880</v>
-      </c>
-      <c r="E564" t="n">
-        <v>5875</v>
-      </c>
-      <c r="F564" t="n">
-        <v>380.0526</v>
-      </c>
-      <c r="G564" t="n">
-        <v>-3471.686963476796</v>
-      </c>
-      <c r="H564" t="n">
-        <v>0</v>
-      </c>
-      <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L564" t="n">
-        <v>1</v>
-      </c>
-      <c r="M564" t="inlineStr"/>
-    </row>
-    <row r="565">
-      <c r="A565" s="1" t="n">
-        <v>563</v>
-      </c>
-      <c r="B565" t="n">
-        <v>5880</v>
-      </c>
-      <c r="C565" t="n">
-        <v>5880</v>
-      </c>
-      <c r="D565" t="n">
-        <v>5880</v>
-      </c>
-      <c r="E565" t="n">
-        <v>5880</v>
-      </c>
-      <c r="F565" t="n">
-        <v>375.9385</v>
-      </c>
-      <c r="G565" t="n">
-        <v>-3471.686963476796</v>
-      </c>
-      <c r="H565" t="n">
-        <v>1</v>
-      </c>
-      <c r="I565" t="n">
-        <v>5880</v>
-      </c>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L565" t="n">
-        <v>1</v>
-      </c>
-      <c r="M565" t="inlineStr"/>
-    </row>
-    <row r="566">
-      <c r="A566" s="1" t="n">
-        <v>564</v>
-      </c>
-      <c r="B566" t="n">
-        <v>5880</v>
-      </c>
-      <c r="C566" t="n">
-        <v>5880</v>
-      </c>
-      <c r="D566" t="n">
-        <v>5880</v>
-      </c>
-      <c r="E566" t="n">
-        <v>5880</v>
-      </c>
-      <c r="F566" t="n">
-        <v>155.2969</v>
-      </c>
-      <c r="G566" t="n">
-        <v>-3471.686963476796</v>
-      </c>
-      <c r="H566" t="n">
-        <v>1</v>
-      </c>
-      <c r="I566" t="n">
-        <v>5880</v>
-      </c>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L566" t="n">
-        <v>1</v>
-      </c>
-      <c r="M566" t="inlineStr"/>
-    </row>
-    <row r="567">
-      <c r="A567" s="1" t="n">
-        <v>565</v>
-      </c>
-      <c r="B567" t="n">
-        <v>5880</v>
-      </c>
-      <c r="C567" t="n">
-        <v>5880</v>
-      </c>
-      <c r="D567" t="n">
-        <v>5880</v>
-      </c>
-      <c r="E567" t="n">
-        <v>5880</v>
-      </c>
-      <c r="F567" t="n">
-        <v>551.671</v>
-      </c>
-      <c r="G567" t="n">
-        <v>-3471.686963476796</v>
-      </c>
-      <c r="H567" t="n">
-        <v>1</v>
-      </c>
-      <c r="I567" t="n">
-        <v>5880</v>
-      </c>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L567" t="n">
-        <v>1</v>
-      </c>
-      <c r="M567" t="inlineStr"/>
-    </row>
-    <row r="568">
-      <c r="A568" s="1" t="n">
-        <v>566</v>
-      </c>
-      <c r="B568" t="n">
-        <v>5870</v>
-      </c>
-      <c r="C568" t="n">
-        <v>5870</v>
-      </c>
-      <c r="D568" t="n">
-        <v>5870</v>
-      </c>
-      <c r="E568" t="n">
-        <v>5865</v>
-      </c>
-      <c r="F568" t="n">
-        <v>452.3594</v>
-      </c>
-      <c r="G568" t="n">
-        <v>-3924.046363476796</v>
-      </c>
-      <c r="H568" t="n">
-        <v>1</v>
-      </c>
-      <c r="I568" t="n">
-        <v>5880</v>
-      </c>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L568" t="n">
-        <v>1</v>
-      </c>
-      <c r="M568" t="inlineStr"/>
-    </row>
-    <row r="569">
-      <c r="A569" s="1" t="n">
-        <v>567</v>
-      </c>
-      <c r="B569" t="n">
-        <v>5870</v>
-      </c>
-      <c r="C569" t="n">
-        <v>5870</v>
-      </c>
-      <c r="D569" t="n">
-        <v>5870</v>
-      </c>
-      <c r="E569" t="n">
-        <v>5870</v>
-      </c>
-      <c r="F569" t="n">
-        <v>500</v>
-      </c>
-      <c r="G569" t="n">
-        <v>-3924.046363476796</v>
-      </c>
-      <c r="H569" t="n">
-        <v>1</v>
-      </c>
-      <c r="I569" t="n">
-        <v>5870</v>
-      </c>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L569" t="n">
-        <v>1</v>
-      </c>
-      <c r="M569" t="inlineStr"/>
-    </row>
-    <row r="570">
-      <c r="A570" s="1" t="n">
-        <v>568</v>
-      </c>
-      <c r="B570" t="n">
-        <v>5860</v>
-      </c>
-      <c r="C570" t="n">
-        <v>5855</v>
-      </c>
-      <c r="D570" t="n">
-        <v>5860</v>
-      </c>
-      <c r="E570" t="n">
-        <v>5855</v>
-      </c>
-      <c r="F570" t="n">
-        <v>40.0945</v>
-      </c>
-      <c r="G570" t="n">
-        <v>-3964.140863476796</v>
-      </c>
-      <c r="H570" t="n">
-        <v>1</v>
-      </c>
-      <c r="I570" t="n">
-        <v>5870</v>
-      </c>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L570" t="n">
-        <v>1</v>
-      </c>
-      <c r="M570" t="inlineStr"/>
-    </row>
-    <row r="571">
-      <c r="A571" s="1" t="n">
-        <v>569</v>
-      </c>
-      <c r="B571" t="n">
-        <v>5870</v>
-      </c>
-      <c r="C571" t="n">
-        <v>5870</v>
-      </c>
-      <c r="D571" t="n">
-        <v>5870</v>
-      </c>
-      <c r="E571" t="n">
-        <v>5870</v>
-      </c>
-      <c r="F571" t="n">
-        <v>49.5042</v>
-      </c>
-      <c r="G571" t="n">
-        <v>-3914.636663476796</v>
-      </c>
-      <c r="H571" t="n">
-        <v>1</v>
-      </c>
-      <c r="I571" t="n">
-        <v>5855</v>
-      </c>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L571" t="n">
-        <v>1</v>
-      </c>
-      <c r="M571" t="inlineStr"/>
-    </row>
-    <row r="572">
-      <c r="A572" s="1" t="n">
-        <v>570</v>
-      </c>
-      <c r="B572" t="n">
-        <v>5870</v>
-      </c>
-      <c r="C572" t="n">
-        <v>5870</v>
-      </c>
-      <c r="D572" t="n">
-        <v>5870</v>
-      </c>
-      <c r="E572" t="n">
-        <v>5870</v>
-      </c>
-      <c r="F572" t="n">
-        <v>20.697</v>
-      </c>
-      <c r="G572" t="n">
-        <v>-3914.636663476796</v>
-      </c>
-      <c r="H572" t="n">
-        <v>1</v>
-      </c>
-      <c r="I572" t="n">
-        <v>5870</v>
-      </c>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L572" t="n">
-        <v>1</v>
-      </c>
-      <c r="M572" t="inlineStr"/>
-    </row>
-    <row r="573">
-      <c r="A573" s="1" t="n">
-        <v>571</v>
-      </c>
-      <c r="B573" t="n">
-        <v>5870</v>
-      </c>
-      <c r="C573" t="n">
-        <v>5870</v>
-      </c>
-      <c r="D573" t="n">
-        <v>5870</v>
-      </c>
-      <c r="E573" t="n">
-        <v>5870</v>
-      </c>
-      <c r="F573" t="n">
-        <v>458.945</v>
-      </c>
-      <c r="G573" t="n">
-        <v>-3914.636663476796</v>
-      </c>
-      <c r="H573" t="n">
-        <v>1</v>
-      </c>
-      <c r="I573" t="n">
-        <v>5870</v>
-      </c>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L573" t="n">
-        <v>1</v>
-      </c>
-      <c r="M573" t="inlineStr"/>
-    </row>
-    <row r="574">
-      <c r="A574" s="1" t="n">
-        <v>572</v>
-      </c>
-      <c r="B574" t="n">
-        <v>5870</v>
-      </c>
-      <c r="C574" t="n">
-        <v>5865</v>
-      </c>
-      <c r="D574" t="n">
-        <v>5870</v>
-      </c>
-      <c r="E574" t="n">
-        <v>5865</v>
-      </c>
-      <c r="F574" t="n">
-        <v>203.1122</v>
-      </c>
-      <c r="G574" t="n">
-        <v>-4117.748863476796</v>
-      </c>
-      <c r="H574" t="n">
-        <v>1</v>
-      </c>
-      <c r="I574" t="n">
-        <v>5870</v>
-      </c>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L574" t="n">
-        <v>1</v>
-      </c>
-      <c r="M574" t="inlineStr"/>
-    </row>
-    <row r="575">
-      <c r="A575" s="1" t="n">
-        <v>573</v>
-      </c>
-      <c r="B575" t="n">
-        <v>5865</v>
-      </c>
-      <c r="C575" t="n">
-        <v>5865</v>
-      </c>
-      <c r="D575" t="n">
-        <v>5865</v>
-      </c>
-      <c r="E575" t="n">
-        <v>5865</v>
-      </c>
-      <c r="F575" t="n">
-        <v>50.0151</v>
-      </c>
-      <c r="G575" t="n">
-        <v>-4117.748863476796</v>
-      </c>
-      <c r="H575" t="n">
-        <v>0</v>
-      </c>
-      <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L575" t="n">
-        <v>1</v>
-      </c>
-      <c r="M575" t="inlineStr"/>
-    </row>
-    <row r="576">
-      <c r="A576" s="1" t="n">
-        <v>574</v>
-      </c>
-      <c r="B576" t="n">
-        <v>5855</v>
-      </c>
-      <c r="C576" t="n">
-        <v>5855</v>
-      </c>
-      <c r="D576" t="n">
-        <v>5855</v>
-      </c>
-      <c r="E576" t="n">
-        <v>5855</v>
-      </c>
-      <c r="F576" t="n">
-        <v>1</v>
-      </c>
-      <c r="G576" t="n">
-        <v>-4118.748863476796</v>
-      </c>
-      <c r="H576" t="n">
-        <v>1</v>
-      </c>
-      <c r="I576" t="n">
-        <v>5865</v>
-      </c>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L576" t="n">
-        <v>1</v>
-      </c>
-      <c r="M576" t="inlineStr"/>
-    </row>
-    <row r="577">
-      <c r="A577" s="1" t="n">
-        <v>575</v>
-      </c>
-      <c r="B577" t="n">
-        <v>5860</v>
-      </c>
-      <c r="C577" t="n">
-        <v>5860</v>
-      </c>
-      <c r="D577" t="n">
-        <v>5860</v>
-      </c>
-      <c r="E577" t="n">
-        <v>5860</v>
-      </c>
-      <c r="F577" t="n">
-        <v>1.752</v>
-      </c>
-      <c r="G577" t="n">
-        <v>-4116.996863476796</v>
-      </c>
-      <c r="H577" t="n">
-        <v>1</v>
-      </c>
-      <c r="I577" t="n">
-        <v>5855</v>
-      </c>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L577" t="n">
-        <v>1</v>
-      </c>
-      <c r="M577" t="inlineStr"/>
-    </row>
-    <row r="578">
-      <c r="A578" s="1" t="n">
-        <v>576</v>
-      </c>
-      <c r="B578" t="n">
-        <v>5850</v>
-      </c>
-      <c r="C578" t="n">
-        <v>5845</v>
-      </c>
-      <c r="D578" t="n">
-        <v>5850</v>
-      </c>
-      <c r="E578" t="n">
-        <v>5845</v>
-      </c>
-      <c r="F578" t="n">
-        <v>250.9345</v>
-      </c>
-      <c r="G578" t="n">
-        <v>-4367.931363476796</v>
-      </c>
-      <c r="H578" t="n">
-        <v>1</v>
-      </c>
-      <c r="I578" t="n">
-        <v>5860</v>
-      </c>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L578" t="n">
-        <v>1</v>
-      </c>
-      <c r="M578" t="inlineStr"/>
-    </row>
-    <row r="579">
-      <c r="A579" s="1" t="n">
-        <v>577</v>
-      </c>
-      <c r="B579" t="n">
-        <v>5865</v>
-      </c>
-      <c r="C579" t="n">
-        <v>5865</v>
-      </c>
-      <c r="D579" t="n">
-        <v>5865</v>
-      </c>
-      <c r="E579" t="n">
-        <v>5865</v>
-      </c>
-      <c r="F579" t="n">
-        <v>259.1825</v>
-      </c>
-      <c r="G579" t="n">
-        <v>-4108.748863476796</v>
-      </c>
-      <c r="H579" t="n">
-        <v>1</v>
-      </c>
-      <c r="I579" t="n">
-        <v>5845</v>
-      </c>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L579" t="n">
-        <v>1</v>
-      </c>
-      <c r="M579" t="inlineStr"/>
-    </row>
-    <row r="580">
-      <c r="A580" s="1" t="n">
-        <v>578</v>
-      </c>
-      <c r="B580" t="n">
-        <v>5870</v>
-      </c>
-      <c r="C580" t="n">
-        <v>5870</v>
-      </c>
-      <c r="D580" t="n">
-        <v>5870</v>
-      </c>
-      <c r="E580" t="n">
-        <v>5870</v>
-      </c>
-      <c r="F580" t="n">
-        <v>217.8594</v>
-      </c>
-      <c r="G580" t="n">
-        <v>-3890.889463476796</v>
-      </c>
-      <c r="H580" t="n">
-        <v>1</v>
-      </c>
-      <c r="I580" t="n">
-        <v>5865</v>
-      </c>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L580" t="n">
-        <v>1</v>
-      </c>
-      <c r="M580" t="inlineStr"/>
-    </row>
-    <row r="581">
-      <c r="A581" s="1" t="n">
-        <v>579</v>
-      </c>
-      <c r="B581" t="n">
-        <v>5855</v>
-      </c>
-      <c r="C581" t="n">
-        <v>5855</v>
-      </c>
-      <c r="D581" t="n">
-        <v>5855</v>
-      </c>
-      <c r="E581" t="n">
-        <v>5855</v>
-      </c>
-      <c r="F581" t="n">
-        <v>31.2227</v>
-      </c>
-      <c r="G581" t="n">
-        <v>-3922.112163476796</v>
-      </c>
-      <c r="H581" t="n">
-        <v>1</v>
-      </c>
-      <c r="I581" t="n">
-        <v>5870</v>
-      </c>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L581" t="n">
-        <v>1</v>
-      </c>
-      <c r="M581" t="inlineStr"/>
-    </row>
-    <row r="582">
-      <c r="A582" s="1" t="n">
-        <v>580</v>
-      </c>
-      <c r="B582" t="n">
-        <v>5875</v>
-      </c>
-      <c r="C582" t="n">
-        <v>5875</v>
-      </c>
-      <c r="D582" t="n">
-        <v>5875</v>
-      </c>
-      <c r="E582" t="n">
-        <v>5875</v>
-      </c>
-      <c r="F582" t="n">
-        <v>3.1038</v>
-      </c>
-      <c r="G582" t="n">
-        <v>-3919.008363476796</v>
-      </c>
-      <c r="H582" t="n">
-        <v>1</v>
-      </c>
-      <c r="I582" t="n">
-        <v>5855</v>
-      </c>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L582" t="n">
-        <v>1</v>
-      </c>
-      <c r="M582" t="inlineStr"/>
-    </row>
-    <row r="583">
-      <c r="A583" s="1" t="n">
-        <v>581</v>
-      </c>
-      <c r="B583" t="n">
-        <v>5870</v>
-      </c>
-      <c r="C583" t="n">
-        <v>5870</v>
-      </c>
-      <c r="D583" t="n">
-        <v>5870</v>
-      </c>
-      <c r="E583" t="n">
-        <v>5870</v>
-      </c>
-      <c r="F583" t="n">
-        <v>6.9896</v>
-      </c>
-      <c r="G583" t="n">
-        <v>-3925.997963476796</v>
-      </c>
-      <c r="H583" t="n">
-        <v>1</v>
-      </c>
-      <c r="I583" t="n">
-        <v>5875</v>
-      </c>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L583" t="n">
-        <v>1</v>
-      </c>
-      <c r="M583" t="inlineStr"/>
-    </row>
-    <row r="584">
-      <c r="A584" s="1" t="n">
-        <v>582</v>
-      </c>
-      <c r="B584" t="n">
-        <v>5855</v>
-      </c>
-      <c r="C584" t="n">
-        <v>5855</v>
-      </c>
-      <c r="D584" t="n">
-        <v>5855</v>
-      </c>
-      <c r="E584" t="n">
-        <v>5855</v>
-      </c>
-      <c r="F584" t="n">
-        <v>137.313</v>
-      </c>
-      <c r="G584" t="n">
-        <v>-4063.310963476796</v>
-      </c>
-      <c r="H584" t="n">
-        <v>1</v>
-      </c>
-      <c r="I584" t="n">
-        <v>5870</v>
-      </c>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L584" t="n">
-        <v>1</v>
-      </c>
-      <c r="M584" t="inlineStr"/>
-    </row>
-    <row r="585">
-      <c r="A585" s="1" t="n">
-        <v>583</v>
-      </c>
-      <c r="B585" t="n">
-        <v>5845</v>
-      </c>
-      <c r="C585" t="n">
-        <v>5850</v>
-      </c>
-      <c r="D585" t="n">
-        <v>5850</v>
-      </c>
-      <c r="E585" t="n">
-        <v>5845</v>
-      </c>
-      <c r="F585" t="n">
-        <v>187.1114</v>
-      </c>
-      <c r="G585" t="n">
-        <v>-4250.422363476796</v>
-      </c>
-      <c r="H585" t="n">
-        <v>1</v>
-      </c>
-      <c r="I585" t="n">
-        <v>5855</v>
-      </c>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L585" t="n">
-        <v>1</v>
-      </c>
-      <c r="M585" t="inlineStr"/>
-    </row>
-    <row r="586">
-      <c r="A586" s="1" t="n">
-        <v>584</v>
-      </c>
-      <c r="B586" t="n">
-        <v>5840</v>
-      </c>
-      <c r="C586" t="n">
-        <v>5850</v>
-      </c>
-      <c r="D586" t="n">
-        <v>5850</v>
-      </c>
-      <c r="E586" t="n">
-        <v>5835</v>
-      </c>
-      <c r="F586" t="n">
-        <v>189.7917</v>
-      </c>
-      <c r="G586" t="n">
-        <v>-4250.422363476796</v>
-      </c>
-      <c r="H586" t="n">
-        <v>1</v>
-      </c>
-      <c r="I586" t="n">
-        <v>5850</v>
-      </c>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L586" t="n">
-        <v>1</v>
-      </c>
-      <c r="M586" t="inlineStr"/>
-    </row>
-    <row r="587">
-      <c r="A587" s="1" t="n">
-        <v>585</v>
-      </c>
-      <c r="B587" t="n">
-        <v>5850</v>
-      </c>
-      <c r="C587" t="n">
-        <v>5850</v>
-      </c>
-      <c r="D587" t="n">
-        <v>5850</v>
-      </c>
-      <c r="E587" t="n">
-        <v>5850</v>
-      </c>
-      <c r="F587" t="n">
-        <v>85.47</v>
-      </c>
-      <c r="G587" t="n">
-        <v>-4250.422363476796</v>
-      </c>
-      <c r="H587" t="n">
-        <v>1</v>
-      </c>
-      <c r="I587" t="n">
-        <v>5850</v>
-      </c>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L587" t="n">
-        <v>1</v>
-      </c>
-      <c r="M587" t="inlineStr"/>
-    </row>
-    <row r="588">
-      <c r="A588" s="1" t="n">
-        <v>586</v>
-      </c>
-      <c r="B588" t="n">
-        <v>5850</v>
-      </c>
-      <c r="C588" t="n">
-        <v>5850</v>
-      </c>
-      <c r="D588" t="n">
-        <v>5850</v>
-      </c>
-      <c r="E588" t="n">
-        <v>5850</v>
-      </c>
-      <c r="F588" t="n">
-        <v>47.4294</v>
-      </c>
-      <c r="G588" t="n">
-        <v>-4250.422363476796</v>
-      </c>
-      <c r="H588" t="n">
-        <v>1</v>
-      </c>
-      <c r="I588" t="n">
-        <v>5850</v>
-      </c>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L588" t="n">
-        <v>1</v>
-      </c>
-      <c r="M588" t="inlineStr"/>
-    </row>
-    <row r="589">
-      <c r="A589" s="1" t="n">
-        <v>587</v>
-      </c>
-      <c r="B589" t="n">
-        <v>5855</v>
-      </c>
-      <c r="C589" t="n">
-        <v>5860</v>
-      </c>
-      <c r="D589" t="n">
-        <v>5860</v>
-      </c>
-      <c r="E589" t="n">
-        <v>5855</v>
-      </c>
-      <c r="F589" t="n">
-        <v>193.742</v>
-      </c>
-      <c r="G589" t="n">
-        <v>-4056.680363476796</v>
-      </c>
-      <c r="H589" t="n">
-        <v>1</v>
-      </c>
-      <c r="I589" t="n">
-        <v>5850</v>
-      </c>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L589" t="n">
-        <v>1</v>
-      </c>
-      <c r="M589" t="inlineStr"/>
-    </row>
-    <row r="590">
-      <c r="A590" s="1" t="n">
-        <v>588</v>
-      </c>
-      <c r="B590" t="n">
-        <v>5860</v>
-      </c>
-      <c r="C590" t="n">
-        <v>5860</v>
-      </c>
-      <c r="D590" t="n">
-        <v>5860</v>
-      </c>
-      <c r="E590" t="n">
-        <v>5860</v>
-      </c>
-      <c r="F590" t="n">
-        <v>436.9816</v>
-      </c>
-      <c r="G590" t="n">
-        <v>-4056.680363476796</v>
-      </c>
-      <c r="H590" t="n">
-        <v>1</v>
-      </c>
-      <c r="I590" t="n">
-        <v>5860</v>
-      </c>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L590" t="n">
-        <v>1</v>
-      </c>
-      <c r="M590" t="inlineStr"/>
-    </row>
-    <row r="591">
-      <c r="A591" s="1" t="n">
-        <v>589</v>
-      </c>
-      <c r="B591" t="n">
-        <v>5860</v>
-      </c>
-      <c r="C591" t="n">
-        <v>5865</v>
-      </c>
-      <c r="D591" t="n">
-        <v>5865</v>
-      </c>
-      <c r="E591" t="n">
-        <v>5860</v>
-      </c>
-      <c r="F591" t="n">
-        <v>184.6929</v>
-      </c>
-      <c r="G591" t="n">
-        <v>-3871.987463476796</v>
-      </c>
-      <c r="H591" t="n">
-        <v>1</v>
-      </c>
-      <c r="I591" t="n">
-        <v>5860</v>
-      </c>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L591" t="n">
-        <v>1</v>
-      </c>
-      <c r="M591" t="inlineStr"/>
-    </row>
-    <row r="592">
-      <c r="A592" s="1" t="n">
-        <v>590</v>
-      </c>
-      <c r="B592" t="n">
-        <v>5865</v>
-      </c>
-      <c r="C592" t="n">
-        <v>5870</v>
-      </c>
-      <c r="D592" t="n">
-        <v>5870</v>
-      </c>
-      <c r="E592" t="n">
-        <v>5865</v>
-      </c>
-      <c r="F592" t="n">
-        <v>106.2969</v>
-      </c>
-      <c r="G592" t="n">
-        <v>-3765.690563476796</v>
-      </c>
-      <c r="H592" t="n">
-        <v>1</v>
-      </c>
-      <c r="I592" t="n">
-        <v>5865</v>
-      </c>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L592" t="n">
-        <v>1</v>
-      </c>
-      <c r="M592" t="inlineStr"/>
-    </row>
-    <row r="593">
-      <c r="A593" s="1" t="n">
-        <v>591</v>
-      </c>
-      <c r="B593" t="n">
-        <v>5870</v>
-      </c>
-      <c r="C593" t="n">
-        <v>5870</v>
-      </c>
-      <c r="D593" t="n">
-        <v>5870</v>
-      </c>
-      <c r="E593" t="n">
-        <v>5870</v>
-      </c>
-      <c r="F593" t="n">
-        <v>68.1681</v>
-      </c>
-      <c r="G593" t="n">
-        <v>-3765.690563476796</v>
-      </c>
-      <c r="H593" t="n">
-        <v>1</v>
-      </c>
-      <c r="I593" t="n">
-        <v>5870</v>
-      </c>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L593" t="n">
-        <v>1</v>
-      </c>
-      <c r="M593" t="inlineStr"/>
-    </row>
-    <row r="594">
-      <c r="A594" s="1" t="n">
-        <v>592</v>
-      </c>
-      <c r="B594" t="n">
-        <v>5870</v>
-      </c>
-      <c r="C594" t="n">
-        <v>5875</v>
-      </c>
-      <c r="D594" t="n">
-        <v>5875</v>
-      </c>
-      <c r="E594" t="n">
-        <v>5870</v>
-      </c>
-      <c r="F594" t="n">
-        <v>284.0465</v>
-      </c>
-      <c r="G594" t="n">
-        <v>-3481.644063476796</v>
-      </c>
-      <c r="H594" t="n">
-        <v>1</v>
-      </c>
-      <c r="I594" t="n">
-        <v>5870</v>
-      </c>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L594" t="n">
-        <v>1</v>
-      </c>
-      <c r="M594" t="inlineStr"/>
-    </row>
-    <row r="595">
-      <c r="A595" s="1" t="n">
-        <v>593</v>
-      </c>
-      <c r="B595" t="n">
-        <v>5870</v>
-      </c>
-      <c r="C595" t="n">
-        <v>5855</v>
-      </c>
-      <c r="D595" t="n">
-        <v>5875</v>
-      </c>
-      <c r="E595" t="n">
-        <v>5855</v>
-      </c>
-      <c r="F595" t="n">
-        <v>762.8153</v>
-      </c>
-      <c r="G595" t="n">
-        <v>-4244.459363476796</v>
-      </c>
-      <c r="H595" t="n">
-        <v>1</v>
-      </c>
-      <c r="I595" t="n">
-        <v>5875</v>
-      </c>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L595" t="n">
-        <v>1</v>
-      </c>
-      <c r="M595" t="inlineStr"/>
-    </row>
-    <row r="596">
-      <c r="A596" s="1" t="n">
-        <v>594</v>
-      </c>
-      <c r="B596" t="n">
-        <v>5860</v>
-      </c>
-      <c r="C596" t="n">
-        <v>5865</v>
-      </c>
-      <c r="D596" t="n">
-        <v>5865</v>
-      </c>
-      <c r="E596" t="n">
-        <v>5860</v>
-      </c>
-      <c r="F596" t="n">
-        <v>6.821232821824382</v>
-      </c>
-      <c r="G596" t="n">
-        <v>-4237.638130654972</v>
-      </c>
-      <c r="H596" t="n">
-        <v>1</v>
-      </c>
-      <c r="I596" t="n">
-        <v>5855</v>
-      </c>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L596" t="n">
-        <v>1</v>
-      </c>
-      <c r="M596" t="inlineStr"/>
-    </row>
-    <row r="597">
-      <c r="A597" s="1" t="n">
-        <v>595</v>
-      </c>
-      <c r="B597" t="n">
-        <v>5860</v>
-      </c>
-      <c r="C597" t="n">
-        <v>5860</v>
-      </c>
-      <c r="D597" t="n">
-        <v>5860</v>
-      </c>
-      <c r="E597" t="n">
-        <v>5860</v>
-      </c>
-      <c r="F597" t="n">
-        <v>4.7051</v>
-      </c>
-      <c r="G597" t="n">
-        <v>-4242.343230654972</v>
-      </c>
-      <c r="H597" t="n">
-        <v>1</v>
-      </c>
-      <c r="I597" t="n">
-        <v>5865</v>
-      </c>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L597" t="n">
-        <v>1</v>
-      </c>
-      <c r="M597" t="inlineStr"/>
-    </row>
-    <row r="598">
-      <c r="A598" s="1" t="n">
-        <v>596</v>
-      </c>
-      <c r="B598" t="n">
-        <v>5850</v>
-      </c>
-      <c r="C598" t="n">
-        <v>5850</v>
-      </c>
-      <c r="D598" t="n">
-        <v>5850</v>
-      </c>
-      <c r="E598" t="n">
-        <v>5850</v>
-      </c>
-      <c r="F598" t="n">
-        <v>1.5374</v>
-      </c>
-      <c r="G598" t="n">
-        <v>-4243.880630654972</v>
-      </c>
-      <c r="H598" t="n">
-        <v>1</v>
-      </c>
-      <c r="I598" t="n">
-        <v>5860</v>
-      </c>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L598" t="n">
-        <v>1</v>
-      </c>
-      <c r="M598" t="inlineStr"/>
-    </row>
-    <row r="599">
-      <c r="A599" s="1" t="n">
-        <v>597</v>
-      </c>
-      <c r="B599" t="n">
-        <v>5860</v>
-      </c>
-      <c r="C599" t="n">
-        <v>5860</v>
-      </c>
-      <c r="D599" t="n">
-        <v>5860</v>
-      </c>
-      <c r="E599" t="n">
-        <v>5860</v>
-      </c>
-      <c r="F599" t="n">
-        <v>224.752</v>
-      </c>
-      <c r="G599" t="n">
-        <v>-4019.128630654972</v>
-      </c>
-      <c r="H599" t="n">
-        <v>1</v>
-      </c>
-      <c r="I599" t="n">
-        <v>5850</v>
-      </c>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L599" t="n">
-        <v>1</v>
-      </c>
-      <c r="M599" t="inlineStr"/>
-    </row>
-    <row r="600">
-      <c r="A600" s="1" t="n">
-        <v>598</v>
-      </c>
-      <c r="B600" t="n">
-        <v>5860</v>
-      </c>
-      <c r="C600" t="n">
-        <v>5865</v>
-      </c>
-      <c r="D600" t="n">
-        <v>5865</v>
-      </c>
-      <c r="E600" t="n">
-        <v>5860</v>
-      </c>
-      <c r="F600" t="n">
-        <v>128.0568</v>
-      </c>
-      <c r="G600" t="n">
-        <v>-3891.071830654972</v>
-      </c>
-      <c r="H600" t="n">
-        <v>1</v>
-      </c>
-      <c r="I600" t="n">
-        <v>5860</v>
-      </c>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L600" t="n">
-        <v>1</v>
-      </c>
-      <c r="M600" t="inlineStr"/>
-    </row>
-    <row r="601">
-      <c r="A601" s="1" t="n">
-        <v>599</v>
-      </c>
-      <c r="B601" t="n">
-        <v>5865</v>
-      </c>
-      <c r="C601" t="n">
-        <v>5865</v>
-      </c>
-      <c r="D601" t="n">
-        <v>5865</v>
-      </c>
-      <c r="E601" t="n">
-        <v>5865</v>
-      </c>
-      <c r="F601" t="n">
-        <v>27.284</v>
-      </c>
-      <c r="G601" t="n">
-        <v>-3891.071830654972</v>
-      </c>
-      <c r="H601" t="n">
-        <v>0</v>
-      </c>
-      <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L601" t="n">
-        <v>1</v>
-      </c>
-      <c r="M601" t="inlineStr"/>
-    </row>
-    <row r="602">
-      <c r="A602" s="1" t="n">
-        <v>600</v>
-      </c>
-      <c r="B602" t="n">
-        <v>5855</v>
-      </c>
-      <c r="C602" t="n">
-        <v>5855</v>
-      </c>
-      <c r="D602" t="n">
-        <v>5855</v>
-      </c>
-      <c r="E602" t="n">
-        <v>5855</v>
-      </c>
-      <c r="F602" t="n">
-        <v>35.5999</v>
-      </c>
-      <c r="G602" t="n">
-        <v>-3926.671730654973</v>
-      </c>
-      <c r="H602" t="n">
-        <v>0</v>
-      </c>
-      <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L602" t="n">
-        <v>1</v>
-      </c>
-      <c r="M602" t="inlineStr"/>
-    </row>
-    <row r="603">
-      <c r="A603" s="1" t="n">
-        <v>601</v>
-      </c>
-      <c r="B603" t="n">
-        <v>5850</v>
-      </c>
-      <c r="C603" t="n">
-        <v>5850</v>
-      </c>
-      <c r="D603" t="n">
-        <v>5850</v>
-      </c>
-      <c r="E603" t="n">
-        <v>5850</v>
-      </c>
-      <c r="F603" t="n">
-        <v>1.1372</v>
-      </c>
-      <c r="G603" t="n">
-        <v>-3927.808930654973</v>
-      </c>
-      <c r="H603" t="n">
-        <v>1</v>
-      </c>
-      <c r="I603" t="n">
-        <v>5855</v>
-      </c>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L603" t="n">
-        <v>1</v>
-      </c>
-      <c r="M603" t="inlineStr"/>
-    </row>
-    <row r="604">
-      <c r="A604" s="1" t="n">
-        <v>602</v>
-      </c>
-      <c r="B604" t="n">
-        <v>5860</v>
-      </c>
-      <c r="C604" t="n">
-        <v>5860</v>
-      </c>
-      <c r="D604" t="n">
-        <v>5860</v>
-      </c>
-      <c r="E604" t="n">
-        <v>5860</v>
-      </c>
-      <c r="F604" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="G604" t="n">
-        <v>-3910.008930654973</v>
-      </c>
-      <c r="H604" t="n">
-        <v>1</v>
-      </c>
-      <c r="I604" t="n">
-        <v>5850</v>
-      </c>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L604" t="n">
-        <v>1</v>
-      </c>
-      <c r="M604" t="inlineStr"/>
-    </row>
-    <row r="605">
-      <c r="A605" s="1" t="n">
-        <v>603</v>
-      </c>
-      <c r="B605" t="n">
-        <v>5870</v>
-      </c>
-      <c r="C605" t="n">
-        <v>5870</v>
-      </c>
-      <c r="D605" t="n">
-        <v>5870</v>
-      </c>
-      <c r="E605" t="n">
-        <v>5870</v>
-      </c>
-      <c r="F605" t="n">
-        <v>2</v>
-      </c>
-      <c r="G605" t="n">
-        <v>-3908.008930654973</v>
-      </c>
-      <c r="H605" t="n">
-        <v>1</v>
-      </c>
-      <c r="I605" t="n">
-        <v>5860</v>
-      </c>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L605" t="n">
-        <v>1</v>
-      </c>
-      <c r="M605" t="inlineStr"/>
-    </row>
-    <row r="606">
-      <c r="A606" s="1" t="n">
-        <v>604</v>
-      </c>
-      <c r="B606" t="n">
-        <v>5890</v>
-      </c>
-      <c r="C606" t="n">
-        <v>5890</v>
-      </c>
-      <c r="D606" t="n">
-        <v>5890</v>
-      </c>
-      <c r="E606" t="n">
-        <v>5890</v>
-      </c>
-      <c r="F606" t="n">
-        <v>50.93</v>
-      </c>
-      <c r="G606" t="n">
-        <v>-3857.078930654973</v>
-      </c>
-      <c r="H606" t="n">
-        <v>1</v>
-      </c>
-      <c r="I606" t="n">
-        <v>5870</v>
-      </c>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L606" t="n">
-        <v>1</v>
-      </c>
-      <c r="M606" t="inlineStr"/>
-    </row>
-    <row r="607">
-      <c r="A607" s="1" t="n">
-        <v>605</v>
-      </c>
-      <c r="B607" t="n">
-        <v>5890</v>
-      </c>
-      <c r="C607" t="n">
-        <v>5890</v>
-      </c>
-      <c r="D607" t="n">
-        <v>5890</v>
-      </c>
-      <c r="E607" t="n">
-        <v>5890</v>
-      </c>
-      <c r="F607" t="n">
-        <v>46.0539</v>
-      </c>
-      <c r="G607" t="n">
-        <v>-3857.078930654973</v>
-      </c>
-      <c r="H607" t="n">
-        <v>1</v>
-      </c>
-      <c r="I607" t="n">
-        <v>5890</v>
-      </c>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L607" t="n">
-        <v>1</v>
-      </c>
-      <c r="M607" t="inlineStr"/>
-    </row>
-    <row r="608">
-      <c r="A608" s="1" t="n">
-        <v>606</v>
-      </c>
-      <c r="B608" t="n">
-        <v>5890</v>
-      </c>
-      <c r="C608" t="n">
-        <v>5880</v>
-      </c>
-      <c r="D608" t="n">
-        <v>5890</v>
-      </c>
-      <c r="E608" t="n">
-        <v>5880</v>
-      </c>
-      <c r="F608" t="n">
-        <v>341.1694</v>
-      </c>
-      <c r="G608" t="n">
-        <v>-4198.248330654973</v>
-      </c>
-      <c r="H608" t="n">
-        <v>1</v>
-      </c>
-      <c r="I608" t="n">
-        <v>5890</v>
-      </c>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L608" t="n">
-        <v>1</v>
-      </c>
-      <c r="M608" t="inlineStr"/>
-    </row>
-    <row r="609">
-      <c r="A609" s="1" t="n">
-        <v>607</v>
-      </c>
-      <c r="B609" t="n">
-        <v>5870</v>
-      </c>
-      <c r="C609" t="n">
-        <v>5865</v>
-      </c>
-      <c r="D609" t="n">
-        <v>5870</v>
-      </c>
-      <c r="E609" t="n">
-        <v>5865</v>
-      </c>
-      <c r="F609" t="n">
-        <v>382.0432</v>
-      </c>
-      <c r="G609" t="n">
-        <v>-4580.291530654973</v>
-      </c>
-      <c r="H609" t="n">
-        <v>1</v>
-      </c>
-      <c r="I609" t="n">
-        <v>5880</v>
-      </c>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L609" t="n">
-        <v>1</v>
-      </c>
-      <c r="M609" t="inlineStr"/>
-    </row>
-    <row r="610">
-      <c r="A610" s="1" t="n">
-        <v>608</v>
-      </c>
-      <c r="B610" t="n">
-        <v>5875</v>
-      </c>
-      <c r="C610" t="n">
-        <v>5880</v>
-      </c>
-      <c r="D610" t="n">
-        <v>5880</v>
-      </c>
-      <c r="E610" t="n">
-        <v>5875</v>
-      </c>
-      <c r="F610" t="n">
-        <v>40.7128</v>
-      </c>
-      <c r="G610" t="n">
-        <v>-4539.578730654973</v>
-      </c>
-      <c r="H610" t="n">
-        <v>0</v>
-      </c>
-      <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L610" t="n">
-        <v>1</v>
-      </c>
-      <c r="M610" t="inlineStr"/>
-    </row>
-    <row r="611">
-      <c r="A611" s="1" t="n">
-        <v>609</v>
-      </c>
-      <c r="B611" t="n">
-        <v>5895</v>
-      </c>
-      <c r="C611" t="n">
-        <v>5895</v>
-      </c>
-      <c r="D611" t="n">
-        <v>5895</v>
-      </c>
-      <c r="E611" t="n">
-        <v>5895</v>
-      </c>
-      <c r="F611" t="n">
-        <v>383.1087</v>
-      </c>
-      <c r="G611" t="n">
-        <v>-4156.470030654973</v>
-      </c>
-      <c r="H611" t="n">
-        <v>0</v>
-      </c>
-      <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L611" t="n">
-        <v>1</v>
-      </c>
-      <c r="M611" t="inlineStr"/>
-    </row>
-    <row r="612">
-      <c r="A612" s="1" t="n">
-        <v>610</v>
-      </c>
-      <c r="B612" t="n">
-        <v>5895</v>
-      </c>
-      <c r="C612" t="n">
-        <v>5895</v>
-      </c>
-      <c r="D612" t="n">
-        <v>5895</v>
-      </c>
-      <c r="E612" t="n">
-        <v>5895</v>
-      </c>
-      <c r="F612" t="n">
-        <v>96.467</v>
-      </c>
-      <c r="G612" t="n">
-        <v>-4156.470030654973</v>
-      </c>
-      <c r="H612" t="n">
-        <v>0</v>
-      </c>
-      <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L612" t="n">
-        <v>1</v>
-      </c>
-      <c r="M612" t="inlineStr"/>
-    </row>
-    <row r="613">
-      <c r="A613" s="1" t="n">
-        <v>611</v>
-      </c>
-      <c r="B613" t="n">
-        <v>5895</v>
-      </c>
-      <c r="C613" t="n">
-        <v>5835</v>
-      </c>
-      <c r="D613" t="n">
-        <v>5895</v>
-      </c>
-      <c r="E613" t="n">
-        <v>5835</v>
-      </c>
-      <c r="F613" t="n">
-        <v>71.1237</v>
-      </c>
-      <c r="G613" t="n">
-        <v>-4227.593730654973</v>
-      </c>
-      <c r="H613" t="n">
-        <v>0</v>
-      </c>
-      <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21240,7 +20672,9 @@
       <c r="I614" t="n">
         <v>5835</v>
       </c>
-      <c r="J614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>5880</v>
+      </c>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21279,7 +20713,9 @@
       <c r="I615" t="n">
         <v>5855</v>
       </c>
-      <c r="J615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>5880</v>
+      </c>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21318,7 +20754,9 @@
       <c r="I616" t="n">
         <v>5880</v>
       </c>
-      <c r="J616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>5880</v>
+      </c>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21357,7 +20795,9 @@
       <c r="I617" t="n">
         <v>5890</v>
       </c>
-      <c r="J617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>5880</v>
+      </c>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21396,7 +20836,9 @@
       <c r="I618" t="n">
         <v>5890</v>
       </c>
-      <c r="J618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>5880</v>
+      </c>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21435,7 +20877,9 @@
       <c r="I619" t="n">
         <v>5890</v>
       </c>
-      <c r="J619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>5880</v>
+      </c>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21474,7 +20918,9 @@
       <c r="I620" t="n">
         <v>5890</v>
       </c>
-      <c r="J620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>5880</v>
+      </c>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21513,7 +20959,9 @@
       <c r="I621" t="n">
         <v>5885</v>
       </c>
-      <c r="J621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>5880</v>
+      </c>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21552,7 +21000,9 @@
       <c r="I622" t="n">
         <v>5865</v>
       </c>
-      <c r="J622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>5880</v>
+      </c>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21586,12 +21036,12 @@
         <v>2668.072408328078</v>
       </c>
       <c r="H623" t="n">
-        <v>1</v>
-      </c>
-      <c r="I623" t="n">
-        <v>5900</v>
-      </c>
-      <c r="J623" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>5880</v>
+      </c>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21625,10 +21075,14 @@
         <v>2668.072408328078</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
-      </c>
-      <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I624" t="n">
+        <v>5880</v>
+      </c>
+      <c r="J624" t="n">
+        <v>5880</v>
+      </c>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21667,7 +21121,9 @@
       <c r="I625" t="n">
         <v>5880</v>
       </c>
-      <c r="J625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>5880</v>
+      </c>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21704,7 +21160,9 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>5880</v>
+      </c>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21741,7 +21199,9 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>5880</v>
+      </c>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21778,7 +21238,9 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>5880</v>
+      </c>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21812,12 +21274,12 @@
         <v>2252.126908328078</v>
       </c>
       <c r="H629" t="n">
-        <v>1</v>
-      </c>
-      <c r="I629" t="n">
-        <v>5890</v>
-      </c>
-      <c r="J629" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>5880</v>
+      </c>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21851,12 +21313,12 @@
         <v>2401.126808328077</v>
       </c>
       <c r="H630" t="n">
-        <v>1</v>
-      </c>
-      <c r="I630" t="n">
-        <v>5875</v>
-      </c>
-      <c r="J630" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>5880</v>
+      </c>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21890,12 +21352,12 @@
         <v>2991.576108328078</v>
       </c>
       <c r="H631" t="n">
-        <v>1</v>
-      </c>
-      <c r="I631" t="n">
+        <v>0</v>
+      </c>
+      <c r="I631" t="inlineStr"/>
+      <c r="J631" t="n">
         <v>5880</v>
       </c>
-      <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21929,12 +21391,12 @@
         <v>2991.576108328078</v>
       </c>
       <c r="H632" t="n">
-        <v>1</v>
-      </c>
-      <c r="I632" t="n">
-        <v>5900</v>
-      </c>
-      <c r="J632" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>5880</v>
+      </c>
       <c r="K632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21968,12 +21430,12 @@
         <v>2991.576108328078</v>
       </c>
       <c r="H633" t="n">
-        <v>1</v>
-      </c>
-      <c r="I633" t="n">
-        <v>5900</v>
-      </c>
-      <c r="J633" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>5880</v>
+      </c>
       <c r="K633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22010,7 +21472,9 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>5880</v>
+      </c>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22044,12 +21508,12 @@
         <v>3697.099804774778</v>
       </c>
       <c r="H635" t="n">
-        <v>1</v>
-      </c>
-      <c r="I635" t="n">
-        <v>5900</v>
-      </c>
-      <c r="J635" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>5880</v>
+      </c>
       <c r="K635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22086,7 +21550,9 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>5880</v>
+      </c>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22123,7 +21589,9 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>5880</v>
+      </c>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22160,7 +21628,9 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>5880</v>
+      </c>
       <c r="K638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22197,7 +21667,9 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>5880</v>
+      </c>
       <c r="K639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22234,7 +21706,9 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>5880</v>
+      </c>
       <c r="K640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22271,7 +21745,9 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>5880</v>
+      </c>
       <c r="K641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22308,7 +21784,9 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>5880</v>
+      </c>
       <c r="K642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22345,7 +21823,9 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>5880</v>
+      </c>
       <c r="K643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22382,7 +21862,9 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>5880</v>
+      </c>
       <c r="K644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22419,7 +21901,9 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>5880</v>
+      </c>
       <c r="K645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22456,7 +21940,9 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>5880</v>
+      </c>
       <c r="K646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22493,7 +21979,9 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>5880</v>
+      </c>
       <c r="K647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22530,7 +22018,9 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>5880</v>
+      </c>
       <c r="K648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22567,7 +22057,9 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>5880</v>
+      </c>
       <c r="K649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22604,7 +22096,9 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>5880</v>
+      </c>
       <c r="K650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22641,7 +22135,9 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>5880</v>
+      </c>
       <c r="K651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22678,7 +22174,9 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>5880</v>
+      </c>
       <c r="K652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22715,7 +22213,9 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>5880</v>
+      </c>
       <c r="K653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22752,7 +22252,9 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>5880</v>
+      </c>
       <c r="K654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22789,7 +22291,9 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>5880</v>
+      </c>
       <c r="K655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22826,7 +22330,9 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>5880</v>
+      </c>
       <c r="K656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22863,7 +22369,9 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>5880</v>
+      </c>
       <c r="K657" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22900,7 +22408,9 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>5880</v>
+      </c>
       <c r="K658" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22937,7 +22447,9 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>5880</v>
+      </c>
       <c r="K659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22974,7 +22486,9 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>5880</v>
+      </c>
       <c r="K660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23011,7 +22525,9 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>5880</v>
+      </c>
       <c r="K661" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23048,7 +22564,9 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>5880</v>
+      </c>
       <c r="K662" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23085,7 +22603,9 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>5880</v>
+      </c>
       <c r="K663" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23122,7 +22642,9 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>5880</v>
+      </c>
       <c r="K664" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23159,7 +22681,9 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>5880</v>
+      </c>
       <c r="K665" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23196,7 +22720,9 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>5880</v>
+      </c>
       <c r="K666" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23233,7 +22759,9 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>5880</v>
+      </c>
       <c r="K667" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23270,7 +22798,9 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>5880</v>
+      </c>
       <c r="K668" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23307,7 +22837,9 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>5880</v>
+      </c>
       <c r="K669" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23344,7 +22876,9 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
+      <c r="J670" t="n">
+        <v>5880</v>
+      </c>
       <c r="K670" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23381,7 +22915,9 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
+      <c r="J671" t="n">
+        <v>5880</v>
+      </c>
       <c r="K671" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23418,7 +22954,9 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>5880</v>
+      </c>
       <c r="K672" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23455,7 +22993,9 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>5880</v>
+      </c>
       <c r="K673" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23492,7 +23032,9 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>5880</v>
+      </c>
       <c r="K674" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23529,7 +23071,9 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
+      <c r="J675" t="n">
+        <v>5880</v>
+      </c>
       <c r="K675" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23566,7 +23110,9 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>5880</v>
+      </c>
       <c r="K676" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23603,7 +23149,9 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>5880</v>
+      </c>
       <c r="K677" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23640,7 +23188,9 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
+      <c r="J678" t="n">
+        <v>5880</v>
+      </c>
       <c r="K678" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23677,7 +23227,9 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
+      <c r="J679" t="n">
+        <v>5880</v>
+      </c>
       <c r="K679" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23714,7 +23266,9 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
+      <c r="J680" t="n">
+        <v>5880</v>
+      </c>
       <c r="K680" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23751,7 +23305,9 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
+      <c r="J681" t="n">
+        <v>5880</v>
+      </c>
       <c r="K681" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23788,7 +23344,9 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
+      <c r="J682" t="n">
+        <v>5880</v>
+      </c>
       <c r="K682" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23825,7 +23383,9 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
+      <c r="J683" t="n">
+        <v>5880</v>
+      </c>
       <c r="K683" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23862,7 +23422,9 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
+      <c r="J684" t="n">
+        <v>5880</v>
+      </c>
       <c r="K684" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23899,7 +23461,9 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
+      <c r="J685" t="n">
+        <v>5880</v>
+      </c>
       <c r="K685" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23936,7 +23500,9 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
+      <c r="J686" t="n">
+        <v>5880</v>
+      </c>
       <c r="K686" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23973,7 +23539,9 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
+      <c r="J687" t="n">
+        <v>5880</v>
+      </c>
       <c r="K687" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24010,7 +23578,9 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
+      <c r="J688" t="n">
+        <v>5880</v>
+      </c>
       <c r="K688" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24047,7 +23617,9 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="inlineStr"/>
+      <c r="J689" t="n">
+        <v>5880</v>
+      </c>
       <c r="K689" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24084,7 +23656,9 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
+      <c r="J690" t="n">
+        <v>5880</v>
+      </c>
       <c r="K690" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24121,7 +23695,9 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
+      <c r="J691" t="n">
+        <v>5880</v>
+      </c>
       <c r="K691" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24158,7 +23734,9 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
+      <c r="J692" t="n">
+        <v>5880</v>
+      </c>
       <c r="K692" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24195,7 +23773,9 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="inlineStr"/>
+      <c r="J693" t="n">
+        <v>5880</v>
+      </c>
       <c r="K693" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24232,7 +23812,9 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="inlineStr"/>
+      <c r="J694" t="n">
+        <v>5880</v>
+      </c>
       <c r="K694" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24269,7 +23851,9 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="inlineStr"/>
+      <c r="J695" t="n">
+        <v>5880</v>
+      </c>
       <c r="K695" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24306,7 +23890,9 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="inlineStr"/>
+      <c r="J696" t="n">
+        <v>5880</v>
+      </c>
       <c r="K696" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24343,7 +23929,9 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="inlineStr"/>
+      <c r="J697" t="n">
+        <v>5880</v>
+      </c>
       <c r="K697" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24380,7 +23968,9 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="inlineStr"/>
+      <c r="J698" t="n">
+        <v>5880</v>
+      </c>
       <c r="K698" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24417,7 +24007,9 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="inlineStr"/>
+      <c r="J699" t="n">
+        <v>5880</v>
+      </c>
       <c r="K699" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24454,7 +24046,9 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="inlineStr"/>
+      <c r="J700" t="n">
+        <v>5880</v>
+      </c>
       <c r="K700" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24491,7 +24085,9 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="inlineStr"/>
+      <c r="J701" t="n">
+        <v>5880</v>
+      </c>
       <c r="K701" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24528,7 +24124,9 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="inlineStr"/>
+      <c r="J702" t="n">
+        <v>5880</v>
+      </c>
       <c r="K702" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24565,7 +24163,9 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="inlineStr"/>
+      <c r="J703" t="n">
+        <v>5880</v>
+      </c>
       <c r="K703" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24602,7 +24202,9 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="inlineStr"/>
+      <c r="J704" t="n">
+        <v>5880</v>
+      </c>
       <c r="K704" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24639,7 +24241,9 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
+      <c r="J705" t="n">
+        <v>5880</v>
+      </c>
       <c r="K705" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24676,7 +24280,9 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="inlineStr"/>
+      <c r="J706" t="n">
+        <v>5880</v>
+      </c>
       <c r="K706" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24713,7 +24319,9 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
+      <c r="J707" t="n">
+        <v>5880</v>
+      </c>
       <c r="K707" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24750,7 +24358,9 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="inlineStr"/>
+      <c r="J708" t="n">
+        <v>5880</v>
+      </c>
       <c r="K708" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24787,7 +24397,9 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="inlineStr"/>
+      <c r="J709" t="n">
+        <v>5880</v>
+      </c>
       <c r="K709" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24824,7 +24436,9 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="inlineStr"/>
+      <c r="J710" t="n">
+        <v>5880</v>
+      </c>
       <c r="K710" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24861,7 +24475,9 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="inlineStr"/>
+      <c r="J711" t="n">
+        <v>5880</v>
+      </c>
       <c r="K711" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24898,7 +24514,9 @@
         <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="inlineStr"/>
+      <c r="J712" t="n">
+        <v>5880</v>
+      </c>
       <c r="K712" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24935,7 +24553,9 @@
         <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="inlineStr"/>
+      <c r="J713" t="n">
+        <v>5880</v>
+      </c>
       <c r="K713" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24972,7 +24592,9 @@
         <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="inlineStr"/>
+      <c r="J714" t="n">
+        <v>5880</v>
+      </c>
       <c r="K714" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25009,7 +24631,9 @@
         <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="inlineStr"/>
+      <c r="J715" t="n">
+        <v>5880</v>
+      </c>
       <c r="K715" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25046,7 +24670,9 @@
         <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="inlineStr"/>
+      <c r="J716" t="n">
+        <v>5880</v>
+      </c>
       <c r="K716" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25083,7 +24709,9 @@
         <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="inlineStr"/>
+      <c r="J717" t="n">
+        <v>5880</v>
+      </c>
       <c r="K717" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25120,7 +24748,9 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="inlineStr"/>
+      <c r="J718" t="n">
+        <v>5880</v>
+      </c>
       <c r="K718" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25132,6 +24762,6 @@
       <c r="M718" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-10 BackTest ETC.xlsx
+++ b/BackTest/2019-10-10 BackTest ETC.xlsx
@@ -715,7 +715,7 @@
         <v>18534.7314</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>18538.45289890848</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>19010.40499890848</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>19932.22899890848</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>19137.49769890848</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>20650.28469890848</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>20211.07359890848</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>19978.18709890848</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>21324.40509890848</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>21223.30569890848</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>21223.30569890848</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>21223.30569890848</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>21955.16319890848</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>22452.63249890848</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>23110.76679890848</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>22015.67059890848</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>22530.54768148487</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>25590.52299890848</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>28692.43340720791</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>30056.9635163062</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>31224.3977163062</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>28217.12130506122</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>24848.91400506123</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>22177.27140506123</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>21961.01340506123</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>20763.48370506123</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>21507.72920506123</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>21286.56726537093</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>21128.40986537093</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>21285.59676537093</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>21305.96916537093</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>21186.06086537093</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>21186.06086537093</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>21186.06086537093</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>20347.61256537093</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>19627.93916537093</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>18397.72416537093</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>19628.25126537093</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>19452.47496537093</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>19429.25766537093</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>19431.25766537093</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>19175.61686537092</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>18929.48746537092</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>18924.33736537092</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>20471.42066537093</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -19591,10 +19591,14 @@
         <v>-3919.008363476796</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
-      </c>
-      <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I582" t="n">
+        <v>5855</v>
+      </c>
+      <c r="J582" t="n">
+        <v>5855</v>
+      </c>
       <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
@@ -19624,11 +19628,19 @@
         <v>-3925.997963476796</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
-      </c>
-      <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I583" t="n">
+        <v>5875</v>
+      </c>
+      <c r="J583" t="n">
+        <v>5855</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -19660,8 +19672,14 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>5855</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -19690,11 +19708,19 @@
         <v>-4250.422363476796</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
-      </c>
-      <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I585" t="n">
+        <v>5855</v>
+      </c>
+      <c r="J585" t="n">
+        <v>5855</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -19723,11 +19749,19 @@
         <v>-4250.422363476796</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
-      </c>
-      <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I586" t="n">
+        <v>5850</v>
+      </c>
+      <c r="J586" t="n">
+        <v>5855</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -19756,11 +19790,19 @@
         <v>-4250.422363476796</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
-      </c>
-      <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I587" t="n">
+        <v>5850</v>
+      </c>
+      <c r="J587" t="n">
+        <v>5855</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -19789,11 +19831,19 @@
         <v>-4250.422363476796</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
-      </c>
-      <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I588" t="n">
+        <v>5850</v>
+      </c>
+      <c r="J588" t="n">
+        <v>5855</v>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -19822,11 +19872,19 @@
         <v>-4056.680363476796</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
-      </c>
-      <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I589" t="n">
+        <v>5850</v>
+      </c>
+      <c r="J589" t="n">
+        <v>5855</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -19855,11 +19913,19 @@
         <v>-4056.680363476796</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
-      </c>
-      <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I590" t="n">
+        <v>5860</v>
+      </c>
+      <c r="J590" t="n">
+        <v>5855</v>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -19888,11 +19954,19 @@
         <v>-3871.987463476796</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
-      </c>
-      <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I591" t="n">
+        <v>5860</v>
+      </c>
+      <c r="J591" t="n">
+        <v>5855</v>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -19921,11 +19995,19 @@
         <v>-3765.690563476796</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
-      </c>
-      <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I592" t="n">
+        <v>5865</v>
+      </c>
+      <c r="J592" t="n">
+        <v>5855</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -19954,11 +20036,19 @@
         <v>-3765.690563476796</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
-      </c>
-      <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I593" t="n">
+        <v>5870</v>
+      </c>
+      <c r="J593" t="n">
+        <v>5855</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -19987,11 +20077,19 @@
         <v>-3481.644063476796</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
-      </c>
-      <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I594" t="n">
+        <v>5870</v>
+      </c>
+      <c r="J594" t="n">
+        <v>5855</v>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20020,11 +20118,19 @@
         <v>-4244.459363476796</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
-      </c>
-      <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I595" t="n">
+        <v>5875</v>
+      </c>
+      <c r="J595" t="n">
+        <v>5855</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20053,11 +20159,19 @@
         <v>-4237.638130654972</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
-      </c>
-      <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I596" t="n">
+        <v>5855</v>
+      </c>
+      <c r="J596" t="n">
+        <v>5855</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20086,11 +20200,19 @@
         <v>-4242.343230654972</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
-      </c>
-      <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I597" t="n">
+        <v>5865</v>
+      </c>
+      <c r="J597" t="n">
+        <v>5855</v>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20119,11 +20241,19 @@
         <v>-4243.880630654972</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
-      </c>
-      <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I598" t="n">
+        <v>5860</v>
+      </c>
+      <c r="J598" t="n">
+        <v>5855</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20152,11 +20282,19 @@
         <v>-4019.128630654972</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
-      </c>
-      <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I599" t="n">
+        <v>5850</v>
+      </c>
+      <c r="J599" t="n">
+        <v>5855</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20185,11 +20323,19 @@
         <v>-3891.071830654972</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
-      </c>
-      <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I600" t="n">
+        <v>5860</v>
+      </c>
+      <c r="J600" t="n">
+        <v>5855</v>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20218,11 +20364,19 @@
         <v>-3891.071830654972</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
-      </c>
-      <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I601" t="n">
+        <v>5865</v>
+      </c>
+      <c r="J601" t="n">
+        <v>5855</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20251,11 +20405,19 @@
         <v>-3926.671730654973</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
-      </c>
-      <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I602" t="n">
+        <v>5865</v>
+      </c>
+      <c r="J602" t="n">
+        <v>5855</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20284,11 +20446,19 @@
         <v>-3927.808930654973</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
-      </c>
-      <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I603" t="n">
+        <v>5855</v>
+      </c>
+      <c r="J603" t="n">
+        <v>5855</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20317,11 +20487,19 @@
         <v>-3910.008930654973</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
-      </c>
-      <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I604" t="n">
+        <v>5850</v>
+      </c>
+      <c r="J604" t="n">
+        <v>5855</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20350,11 +20528,19 @@
         <v>-3908.008930654973</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
-      </c>
-      <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I605" t="n">
+        <v>5860</v>
+      </c>
+      <c r="J605" t="n">
+        <v>5855</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20383,11 +20569,19 @@
         <v>-3857.078930654973</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
-      </c>
-      <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I606" t="n">
+        <v>5870</v>
+      </c>
+      <c r="J606" t="n">
+        <v>5855</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20416,11 +20610,19 @@
         <v>-3857.078930654973</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
-      </c>
-      <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I607" t="n">
+        <v>5890</v>
+      </c>
+      <c r="J607" t="n">
+        <v>5855</v>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20449,11 +20651,19 @@
         <v>-4198.248330654973</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
-      </c>
-      <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I608" t="n">
+        <v>5890</v>
+      </c>
+      <c r="J608" t="n">
+        <v>5855</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20482,11 +20692,19 @@
         <v>-4580.291530654973</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
-      </c>
-      <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I609" t="n">
+        <v>5880</v>
+      </c>
+      <c r="J609" t="n">
+        <v>5855</v>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20515,11 +20733,19 @@
         <v>-4539.578730654973</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
-      </c>
-      <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I610" t="n">
+        <v>5865</v>
+      </c>
+      <c r="J610" t="n">
+        <v>5855</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20554,9 +20780,13 @@
         <v>5880</v>
       </c>
       <c r="J611" t="n">
-        <v>5880</v>
-      </c>
-      <c r="K611" t="inlineStr"/>
+        <v>5855</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -20585,17 +20815,15 @@
         <v>-4156.470030654973</v>
       </c>
       <c r="H612" t="n">
-        <v>1</v>
-      </c>
-      <c r="I612" t="n">
-        <v>5895</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I612" t="inlineStr"/>
       <c r="J612" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K612" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L612" t="n">
@@ -20626,17 +20854,15 @@
         <v>-4227.593730654973</v>
       </c>
       <c r="H613" t="n">
-        <v>1</v>
-      </c>
-      <c r="I613" t="n">
-        <v>5895</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I613" t="inlineStr"/>
       <c r="J613" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K613" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L613" t="n">
@@ -20673,7 +20899,7 @@
         <v>5835</v>
       </c>
       <c r="J614" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K614" t="inlineStr">
         <is>
@@ -20714,7 +20940,7 @@
         <v>5855</v>
       </c>
       <c r="J615" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K615" t="inlineStr">
         <is>
@@ -20755,7 +20981,7 @@
         <v>5880</v>
       </c>
       <c r="J616" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K616" t="inlineStr">
         <is>
@@ -20796,7 +21022,7 @@
         <v>5890</v>
       </c>
       <c r="J617" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K617" t="inlineStr">
         <is>
@@ -20837,7 +21063,7 @@
         <v>5890</v>
       </c>
       <c r="J618" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K618" t="inlineStr">
         <is>
@@ -20878,7 +21104,7 @@
         <v>5890</v>
       </c>
       <c r="J619" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K619" t="inlineStr">
         <is>
@@ -20919,7 +21145,7 @@
         <v>5890</v>
       </c>
       <c r="J620" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K620" t="inlineStr">
         <is>
@@ -20960,7 +21186,7 @@
         <v>5885</v>
       </c>
       <c r="J621" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K621" t="inlineStr">
         <is>
@@ -21001,7 +21227,7 @@
         <v>5865</v>
       </c>
       <c r="J622" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K622" t="inlineStr">
         <is>
@@ -21036,11 +21262,13 @@
         <v>2668.072408328078</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
-      </c>
-      <c r="I623" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I623" t="n">
+        <v>5900</v>
+      </c>
       <c r="J623" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K623" t="inlineStr">
         <is>
@@ -21081,7 +21309,7 @@
         <v>5880</v>
       </c>
       <c r="J624" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K624" t="inlineStr">
         <is>
@@ -21122,7 +21350,7 @@
         <v>5880</v>
       </c>
       <c r="J625" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K625" t="inlineStr">
         <is>
@@ -21157,11 +21385,13 @@
         <v>2769.072408328078</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
-      </c>
-      <c r="I626" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I626" t="n">
+        <v>5895</v>
+      </c>
       <c r="J626" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K626" t="inlineStr">
         <is>
@@ -21196,11 +21426,13 @@
         <v>2480.932108328078</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
-      </c>
-      <c r="I627" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I627" t="n">
+        <v>5900</v>
+      </c>
       <c r="J627" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K627" t="inlineStr">
         <is>
@@ -21235,11 +21467,13 @@
         <v>2480.932108328078</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
-      </c>
-      <c r="I628" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I628" t="n">
+        <v>5890</v>
+      </c>
       <c r="J628" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K628" t="inlineStr">
         <is>
@@ -21274,11 +21508,13 @@
         <v>2252.126908328078</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
-      </c>
-      <c r="I629" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I629" t="n">
+        <v>5890</v>
+      </c>
       <c r="J629" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K629" t="inlineStr">
         <is>
@@ -21313,11 +21549,13 @@
         <v>2401.126808328077</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
-      </c>
-      <c r="I630" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I630" t="n">
+        <v>5875</v>
+      </c>
       <c r="J630" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K630" t="inlineStr">
         <is>
@@ -21352,11 +21590,13 @@
         <v>2991.576108328078</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
-      </c>
-      <c r="I631" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I631" t="n">
+        <v>5880</v>
+      </c>
       <c r="J631" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K631" t="inlineStr">
         <is>
@@ -21391,11 +21631,13 @@
         <v>2991.576108328078</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
-      </c>
-      <c r="I632" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I632" t="n">
+        <v>5900</v>
+      </c>
       <c r="J632" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K632" t="inlineStr">
         <is>
@@ -21430,11 +21672,13 @@
         <v>2991.576108328078</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
-      </c>
-      <c r="I633" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I633" t="n">
+        <v>5900</v>
+      </c>
       <c r="J633" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K633" t="inlineStr">
         <is>
@@ -21469,11 +21713,13 @@
         <v>2991.576108328078</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
-      </c>
-      <c r="I634" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I634" t="n">
+        <v>5900</v>
+      </c>
       <c r="J634" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K634" t="inlineStr">
         <is>
@@ -21508,11 +21754,13 @@
         <v>3697.099804774778</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
-      </c>
-      <c r="I635" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I635" t="n">
+        <v>5900</v>
+      </c>
       <c r="J635" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K635" t="inlineStr">
         <is>
@@ -21551,7 +21799,7 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K636" t="inlineStr">
         <is>
@@ -21590,7 +21838,7 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K637" t="inlineStr">
         <is>
@@ -21629,7 +21877,7 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K638" t="inlineStr">
         <is>
@@ -21668,7 +21916,7 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K639" t="inlineStr">
         <is>
@@ -21707,7 +21955,7 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K640" t="inlineStr">
         <is>
@@ -21746,7 +21994,7 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K641" t="inlineStr">
         <is>
@@ -21785,7 +22033,7 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K642" t="inlineStr">
         <is>
@@ -21824,7 +22072,7 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K643" t="inlineStr">
         <is>
@@ -21863,7 +22111,7 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K644" t="inlineStr">
         <is>
@@ -21902,7 +22150,7 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K645" t="inlineStr">
         <is>
@@ -21941,7 +22189,7 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K646" t="inlineStr">
         <is>
@@ -21980,7 +22228,7 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K647" t="inlineStr">
         <is>
@@ -22019,7 +22267,7 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K648" t="inlineStr">
         <is>
@@ -22058,7 +22306,7 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K649" t="inlineStr">
         <is>
@@ -22097,7 +22345,7 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K650" t="inlineStr">
         <is>
@@ -22136,7 +22384,7 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K651" t="inlineStr">
         <is>
@@ -22175,7 +22423,7 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K652" t="inlineStr">
         <is>
@@ -22214,7 +22462,7 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K653" t="inlineStr">
         <is>
@@ -22253,7 +22501,7 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K654" t="inlineStr">
         <is>
@@ -22292,7 +22540,7 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K655" t="inlineStr">
         <is>
@@ -22331,7 +22579,7 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K656" t="inlineStr">
         <is>
@@ -22370,7 +22618,7 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K657" t="inlineStr">
         <is>
@@ -22409,7 +22657,7 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K658" t="inlineStr">
         <is>
@@ -22448,7 +22696,7 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K659" t="inlineStr">
         <is>
@@ -22487,7 +22735,7 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K660" t="inlineStr">
         <is>
@@ -22526,7 +22774,7 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K661" t="inlineStr">
         <is>
@@ -22565,7 +22813,7 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K662" t="inlineStr">
         <is>
@@ -22604,7 +22852,7 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K663" t="inlineStr">
         <is>
@@ -22643,7 +22891,7 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K664" t="inlineStr">
         <is>
@@ -22682,7 +22930,7 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K665" t="inlineStr">
         <is>
@@ -22721,7 +22969,7 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K666" t="inlineStr">
         <is>
@@ -22760,7 +23008,7 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K667" t="inlineStr">
         <is>
@@ -22799,7 +23047,7 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K668" t="inlineStr">
         <is>
@@ -22838,7 +23086,7 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K669" t="inlineStr">
         <is>
@@ -22877,7 +23125,7 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K670" t="inlineStr">
         <is>
@@ -22916,7 +23164,7 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K671" t="inlineStr">
         <is>
@@ -22955,7 +23203,7 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K672" t="inlineStr">
         <is>
@@ -22994,7 +23242,7 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K673" t="inlineStr">
         <is>
@@ -23033,7 +23281,7 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K674" t="inlineStr">
         <is>
@@ -23072,7 +23320,7 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K675" t="inlineStr">
         <is>
@@ -23111,7 +23359,7 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K676" t="inlineStr">
         <is>
@@ -23150,7 +23398,7 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K677" t="inlineStr">
         <is>
@@ -23189,7 +23437,7 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K678" t="inlineStr">
         <is>
@@ -23228,7 +23476,7 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K679" t="inlineStr">
         <is>
@@ -23267,7 +23515,7 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K680" t="inlineStr">
         <is>
@@ -23306,7 +23554,7 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K681" t="inlineStr">
         <is>
@@ -23345,7 +23593,7 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K682" t="inlineStr">
         <is>
@@ -23384,7 +23632,7 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K683" t="inlineStr">
         <is>
@@ -23423,7 +23671,7 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K684" t="inlineStr">
         <is>
@@ -23462,7 +23710,7 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K685" t="inlineStr">
         <is>
@@ -23501,7 +23749,7 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K686" t="inlineStr">
         <is>
@@ -23540,7 +23788,7 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K687" t="inlineStr">
         <is>
@@ -23579,7 +23827,7 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K688" t="inlineStr">
         <is>
@@ -23618,7 +23866,7 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K689" t="inlineStr">
         <is>
@@ -23657,7 +23905,7 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K690" t="inlineStr">
         <is>
@@ -23696,7 +23944,7 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K691" t="inlineStr">
         <is>
@@ -23735,7 +23983,7 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K692" t="inlineStr">
         <is>
@@ -23774,7 +24022,7 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K693" t="inlineStr">
         <is>
@@ -23813,7 +24061,7 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K694" t="inlineStr">
         <is>
@@ -23852,7 +24100,7 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K695" t="inlineStr">
         <is>
@@ -23891,7 +24139,7 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K696" t="inlineStr">
         <is>
@@ -23930,7 +24178,7 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K697" t="inlineStr">
         <is>
@@ -23969,7 +24217,7 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K698" t="inlineStr">
         <is>
@@ -24008,7 +24256,7 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K699" t="inlineStr">
         <is>
@@ -24047,7 +24295,7 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K700" t="inlineStr">
         <is>
@@ -24086,7 +24334,7 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K701" t="inlineStr">
         <is>
@@ -24125,7 +24373,7 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K702" t="inlineStr">
         <is>
@@ -24164,7 +24412,7 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K703" t="inlineStr">
         <is>
@@ -24203,7 +24451,7 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K704" t="inlineStr">
         <is>
@@ -24242,7 +24490,7 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K705" t="inlineStr">
         <is>
@@ -24281,7 +24529,7 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K706" t="inlineStr">
         <is>
@@ -24320,7 +24568,7 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K707" t="inlineStr">
         <is>
@@ -24359,7 +24607,7 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K708" t="inlineStr">
         <is>
@@ -24398,7 +24646,7 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K709" t="inlineStr">
         <is>
@@ -24437,7 +24685,7 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K710" t="inlineStr">
         <is>
@@ -24476,7 +24724,7 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K711" t="inlineStr">
         <is>
@@ -24515,7 +24763,7 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K712" t="inlineStr">
         <is>
@@ -24554,7 +24802,7 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K713" t="inlineStr">
         <is>
@@ -24593,7 +24841,7 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K714" t="inlineStr">
         <is>
@@ -24632,7 +24880,7 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K715" t="inlineStr">
         <is>
@@ -24671,7 +24919,7 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K716" t="inlineStr">
         <is>
@@ -24710,7 +24958,7 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K717" t="inlineStr">
         <is>
@@ -24749,7 +24997,7 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="n">
-        <v>5880</v>
+        <v>5855</v>
       </c>
       <c r="K718" t="inlineStr">
         <is>
